--- a/yback_data_excel.xlsx
+++ b/yback_data_excel.xlsx
@@ -643,22 +643,22 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>경영학과</t>
+          <t>경영학과 경제학과 산업공학과 산업경영학과</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>['경영지도사', '기술지도사', '']</t>
+          <t>경영지도사 기술지도사</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>기업 고위임원 (세분류 0112)</t>
+          <t>1120</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>기업 고위 임원 (세분류 1120)</t>
+          <t>1120</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr"/>
@@ -718,22 +718,22 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>관광경영과</t>
+          <t>관광경영과 문화관광과 호텔경영과 관광경영학과</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>['호텔경영사', '호텔관리사', '호텔서비스사', '']</t>
+          <t>호텔경영사 호텔관리사 호텔서비스사</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>미용ㆍ여행ㆍ숙박ㆍ스포츠 관리자 (세분류 0141)</t>
+          <t>1521</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>숙박ㆍ여행ㆍ오락 및 스포츠 관련 관리자 (세분류 1521)</t>
+          <t>1521</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr"/>
@@ -788,7 +788,7 @@
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr">
         <is>
-          <t>전문간호사, 일반간호사, 보건교사, 조산사</t>
+          <t>전문간호사 일반간호사 보건교사 조산사</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -798,17 +798,17 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>['간호사', '조산사', '보건교사', '']</t>
+          <t>간호사 조산사 보건교사</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>간호사 (세분류 3040)</t>
+          <t>2430</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>간호사 (세분류 2430)</t>
+          <t>2430</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr"/>
@@ -863,27 +863,23 @@
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr">
         <is>
-          <t>표준직업분류 : 간호조무사 (세분류 2465)</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>['간호조무사', '']</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>간호조무사 (세분류 3075)</t>
+          <t>2465</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>간호조무사 (세분류 2465)</t>
+          <t>2465</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr"/>
@@ -903,7 +899,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>노인 전문 간호사</t>
+          <t>노인전문간호사</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -938,27 +934,27 @@
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr">
         <is>
-          <t>간호사, 사회복지사, 물리치료사, 생활보조원</t>
+          <t>간호사 사회복지사 물리치료사 생활보조원</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>간호학과</t>
+          <t>간호학과 노인보건복지과 간호과 응급구조과 응급구조학과</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>['전문간호사', '']</t>
+          <t>전문간호사</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>간호사 (세분류 3040)</t>
+          <t>2430</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>간호사 (세분류 2430)</t>
+          <t>2430</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr"/>
@@ -1018,22 +1014,22 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>보건행정과</t>
+          <t>보건행정과 비서행정학과 보건관리학과 보건행정학과 비서행정과</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>고객 상담원 및 모니터 요원 (세분류 0292)</t>
+          <t>3991</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>고객 상담 및 모니터 요원 (세분류 3991)</t>
+          <t>3991</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr"/>
@@ -1053,7 +1049,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>원격진료 코디네이터</t>
+          <t>원격진료코디네이터</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -1088,27 +1084,27 @@
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr">
         <is>
-          <t>간호사, 간호조무사, 임상병리사, 재활 치료사</t>
+          <t>간호사 간호조무사 임상병리사 재활치료사</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>간호학과</t>
+          <t>간호학과 약학부 의예과 의료정보공학과 의료정보시스템과 보건행정과 보건행정학과</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>['간호사', '전문간호사', '국제의료관광코디네이터', '병원행정사', '']</t>
+          <t>간호사 전문간호사 국제의료관광코디네이터 병원행정사</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>기타 보건ㆍ의료 종사원 (세분류 3079)</t>
+          <t>4219</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>기타 돌봄 및 보건 서비스 종사원 (세분류 4219)</t>
+          <t>4219</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr"/>
@@ -1163,27 +1159,27 @@
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr">
         <is>
-          <t>표준직업분류 : 간호사 (세분류 2430)</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>언어재활과</t>
+          <t>언어재활과 간호학과 간호과 특수교육학과 언어치료학과 유아특수재활과</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>['정신건강간호사', '간호사', '']</t>
+          <t>정신건강간호사 간호사</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>간호사 (세분류 3040)</t>
+          <t>2430</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>간호사 (세분류 2430)</t>
+          <t>2430</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr"/>
@@ -1248,17 +1244,17 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>['간호사', '']</t>
+          <t>간호사</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>간호사 (세분류 3040)</t>
+          <t>2430</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>간호사 (세분류 2430)</t>
+          <t>2430</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr"/>
@@ -1318,22 +1314,22 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>메이크업아티스트과</t>
+          <t>메이크업아티스트과 미용과 코디네이션과</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>['미용사(메이크업)', '']</t>
+          <t>미용사(메이크업)</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>메이크업 아티스트 및 분장사 (세분류 5114)</t>
+          <t>4224</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>메이크업 아티스트 및 분장사 (세분류 4224)</t>
+          <t>4224</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr"/>
@@ -1389,22 +1385,22 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>미용과</t>
+          <t>미용과 피부미용과</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>['미용사(메이크업)', '']</t>
+          <t>미용사(메이크업)</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>메이크업 아티스트 및 분장사 (세분류 5114)</t>
+          <t>4224</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>메이크업 아티스트 및 분장사 (세분류 4224)</t>
+          <t>4224</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr"/>
@@ -1459,7 +1455,7 @@
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr">
         <is>
-          <t>스킨케어전문가, 피부미용사, 메이크업아티스트, 네일아티스트, 분장사, 체형관리사</t>
+          <t>스킨케어전문가 피부미용사 메이크업아티스트 네일아티스트 분장사 체형관리사</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
@@ -1469,17 +1465,17 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>['미용사(피부)', '']</t>
+          <t>미용사(피부)</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>피부 및 체형 관리사 (세분류 5113)</t>
+          <t>4223</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>피부 및 체형 관리사 (세분류 4223)</t>
+          <t>4223</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr"/>
@@ -1499,7 +1495,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>게임 방송 프로듀서</t>
+          <t>게임방송프로듀서</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -1534,27 +1530,27 @@
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr">
         <is>
-          <t>게임방송연출가, 게임방송PD</t>
+          <t>게임방송연출가 게임방송PD</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>방송제작과</t>
+          <t>방송제작과 방송영상과 방송영상미디어과 신문방송학과 미디어영상학과 디지털콘텐츠학과</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>감독 및 기술감독 (세분류 4161)</t>
+          <t>2831</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>감독 및 기술 감독 (세분류 2831)</t>
+          <t>2831</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr"/>
@@ -1574,7 +1570,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>드론 콘텐츠 전문가</t>
+          <t>드론콘텐츠전문가</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
@@ -1609,27 +1605,27 @@
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr">
         <is>
-          <t>문화 콘텐츠 전문가, 방송 연출가, 공연 기획자, 행사 기획자</t>
+          <t>문화콘텐츠전문가 방송연출가 공연기획자 행사기획자</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>무인항공드론과</t>
+          <t>무인항공드론과 멀티미디어과 무인항공학과 문화콘텐츠학과 멀티미디어학과</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>미디어 콘텐츠 디자이너 (세분류 4155)</t>
+          <t>2855</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>미디어 콘텐츠 디자이너 (세분류 2855)</t>
+          <t>2855</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr"/>
@@ -1649,7 +1645,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>문화 콘텐츠 전문가</t>
+          <t>문화콘텐츠전문가</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
@@ -1684,27 +1680,27 @@
       <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr">
         <is>
-          <t>방송연출가, 게임기획자, 공연기획자, 축제기획자</t>
+          <t>방송연출가 게임기획자 공연기획자 축제기획자</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>미디어학과</t>
+          <t>미디어학과 영상콘텐츠과 디지털콘텐츠학과 멀티미디어학과</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>['멀티미디어콘텐츠제작전문가', '']</t>
+          <t>멀티미디어콘텐츠제작전문가</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>공연ㆍ영화 및 음반 기획자 (세분류 4171)</t>
+          <t>2881</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>공연ㆍ영화 및 음반 기획자 (세분류 2881)</t>
+          <t>2881</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr"/>
@@ -1759,27 +1755,27 @@
       <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr">
         <is>
-          <t>방송 PD, 드라마 프로듀서, 스포츠 프로듀서, 쇼 프로듀서, 뉴스 프로듀서</t>
+          <t>방송PD 드라마프로듀서 스포츠프로듀서 쇼프로듀서 뉴스프로듀서</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>신문방송학과</t>
+          <t>신문방송학과 언론홍보학과 광고홍보학과 국어국문학과 문예창작과 문예창작학과 방송영상과 방송제작과 사회학과 연극영화과 연극영화학과 영상제작과</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>감독 및 기술감독 (세분류 4161)</t>
+          <t>2831</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>감독 및 기술 감독 (세분류 2831)</t>
+          <t>2831</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr"/>
@@ -1840,17 +1836,17 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>아나운서 및 리포터 (세분류 4163)</t>
+          <t>2833</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>아나운서 및 리포터 (세분류 2833)</t>
+          <t>2833</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr"/>
@@ -1905,27 +1901,27 @@
       <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr">
         <is>
-          <t>작곡가, 문화 콘텐츠 전문가, 가수</t>
+          <t>작곡가 문화콘텐츠전문가 가수</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>음악과</t>
+          <t>음악과 실용음악과 음악학과 실용음악학과</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>공연ㆍ영화 및 음반 기획자 (세분류 4171)</t>
+          <t>2881</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>공연ㆍ영화 및 음반 기획자 (세분류 2881)</t>
+          <t>2881</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr"/>
@@ -1980,27 +1976,27 @@
       <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr">
         <is>
-          <t>영화촬영기사, 광고촬영기사, TV촬영기사, 비디오촬영기사</t>
+          <t>영화촬영기사 광고촬영기사 TV촬영기사 비디오촬영기사</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>방송영상과</t>
+          <t>방송영상과 방송제작과 사진영상학과 연극영화과 연극영화학과</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>촬영 기사 (세분류 4164)</t>
+          <t>2834</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>촬영기사 (세분류 2834)</t>
+          <t>2834</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr"/>
@@ -2056,22 +2052,22 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>항공서비스과</t>
+          <t>항공서비스과 항공서비스학과</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>항공기 객실승무원 (세분류 5221)</t>
+          <t>4311</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>항공기 객실 승무원 (세분류 4311)</t>
+          <t>4311</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr"/>
@@ -2126,27 +2122,27 @@
       <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr">
         <is>
-          <t>생명공학기술자, 유전공학자, 생물공학기술자, 생명과학연구원, 생물학연구원, 자연과학연구원</t>
+          <t>생명공학기술자 유전공학자 생물공학기술자 생명과학연구원 생물학연구원 자연과학연구원</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>생명과학과</t>
+          <t>생명과학과 생명공학과</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>['바이오화학제품제조기사', '']</t>
+          <t>바이오화학제품제조기사</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>자연과학 연구원 (세분류 1211)</t>
+          <t>2112</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>자연과학 연구원 (세분류 2112)</t>
+          <t>2112</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr"/>
@@ -2201,7 +2197,7 @@
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr">
         <is>
-          <t>생태학자, 유전학자, 생물학자</t>
+          <t>생태학자 유전학자 생물학자</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
@@ -2211,17 +2207,17 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>자연과학 연구원 (세분류 1211)</t>
+          <t>2112</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>자연과학 연구원 (세분류 2112)</t>
+          <t>2112</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr"/>
@@ -2281,22 +2277,22 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>생명과학과</t>
+          <t>생명과학과 유전공학과</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>['바이오화학제품제조기사', '']</t>
+          <t>바이오화학제품제조기사</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>생명과학 연구원 (세분류 1221)</t>
+          <t>2111</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>생명과학 연구원 (세분류 2111)</t>
+          <t>2111</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr"/>
@@ -2351,27 +2347,27 @@
       <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr">
         <is>
-          <t>과학용소프트웨어개발자, 산업용소프트웨어개발자, 교육용소프트웨어개발자</t>
+          <t>과학용소프트웨어개발자 산업용소프트웨어개발자 교육용소프트웨어개발자</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>컴퓨터공학과</t>
+          <t>컴퓨터공학과 컴퓨터과학과 컴퓨터디자인학과 컴퓨터응용기계과 컴퓨터소프트웨어과</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>['시각디자인기사', '시각디자인산업기사', '정보처리기사', '컴퓨터그래픽스운용기능사', '']</t>
+          <t>시각디자인기사 시각디자인산업기사 정보처리기사 컴퓨터그래픽스운용기능사</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>응용 소프트웨어 개발자 (세분류 1332)</t>
+          <t>2223</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>응용 소프트웨어 개발자 (세분류 2223)</t>
+          <t>2223</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr"/>
@@ -2426,27 +2422,27 @@
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr">
         <is>
-          <t>컴퓨터게임시나리오작가, 비디오게임디자이너, 게임레벨디자이너,</t>
+          <t>컴퓨터게임시나리오작가 비디오게임디자이너 게임레벨디자이너</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>정보통신공학과</t>
+          <t>정보통신공학과 응용소프트웨어공학과 컴퓨터공학과 전자공학과</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>['게임기획전문가', '']</t>
+          <t>게임기획전문가</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>웹 개발자 (세분류 1333)</t>
+          <t>2224</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>웹 개발자 (세분류 2224)</t>
+          <t>2224</t>
         </is>
       </c>
       <c r="AC26" t="inlineStr"/>
@@ -2501,27 +2497,27 @@
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr">
         <is>
-          <t>의료정보시스템개발자, 시스템소프트웨어개발자, 컴퓨터하드웨어 기술자 및 연구원, 모바일앱개발자, 클라우드 시스템 엔지니어</t>
+          <t>의료정보시스템개발자 시스템소프트웨어개발자 컴퓨터하드웨어기술자및연구원 모바일앱개발자 클라우드시스템엔지니어</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>컴퓨터소프트웨어과</t>
+          <t>컴퓨터소프트웨어과 소프트웨어공학과 컴퓨터공학과 컴퓨터과 컴퓨터과학과 시스템공학과 정보통신공학과 통계학과</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>['전자계산기기능사', '전자계산기기사', '전자계산기제어산업기사', '전자계산기조직응용기사', '정보처리기능사', '정보처리기사', '정보처리산업기사', '컴퓨터시스템응용기술사', '']</t>
+          <t>전자계산기기능사 전자계산기기사 전자계산기제어산업기사 전자계산기조직응용기사 정보처리기능사 정보처리기사 정보처리산업기사 컴퓨터시스템응용기술사</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>응용 소프트웨어 개발자 (세분류 1332)</t>
+          <t>2223</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>응용 소프트웨어 개발자 (세분류 2223)</t>
+          <t>2223</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr"/>
@@ -2576,27 +2572,27 @@
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr">
         <is>
-          <t>통신엔지니어, 통신망설계운영기술자, 무선주파수(RF)엔지니어</t>
+          <t>통신엔지니어 통신망설계운영기술자 무선주파수(RF)엔지니어</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>인터넷정보학과</t>
+          <t>인터넷정보학과 정보통신과 컴퓨터소프트웨어과 컴퓨터과학과 컴퓨터공학과 정보통신공학과 소프트웨어공학과 컴퓨터응용기계과</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>['전자계산기기능사', '전자계산기기사', '전자계산기제어산업기사', '정보관리기술사', '정보처리산업기사', '정보처리기사', '정보통신산업기사', '정보통신기사', '컴퓨터시스템응용기술사', '']</t>
+          <t>전자계산기기능사 전자계산기기사 전자계산기제어산업기사 정보관리기술사 정보처리산업기사 정보처리기사 정보통신산업기사 정보통신기사 컴퓨터시스템응용기술사</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>네트워크 시스템 개발자 (세분류 1342)</t>
+          <t>2232</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>네트워크 시스템 개발자 (세분류 2232)</t>
+          <t>2232</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr"/>
@@ -2651,27 +2647,27 @@
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr">
         <is>
-          <t>빅데이터 전문가, 빅데이터분석가, 통계학연구원</t>
+          <t>빅데이터전문가 빅데이터분석가 통계학연구원</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>IT융합학과</t>
+          <t>IT융합학과 인터넷정보학과 컴퓨터공학과</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>['SQL', '데이터아키텍처', '정보처리기사', '']</t>
+          <t>SQL 데이터아키텍처 정보처리기사</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>데이터 전문가 (세분류 1341)</t>
+          <t>2231</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>데이터 전문가 (세분류 2231)</t>
+          <t>2231</t>
         </is>
       </c>
       <c r="AC29" t="inlineStr"/>
@@ -2691,7 +2687,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>드론 전문가</t>
+          <t>드론전문가</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
@@ -2726,27 +2722,27 @@
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr">
         <is>
-          <t>무인 항공촬영기사, 무인 항공기 표준 전문가, 무인 항공기 조종 인증 전문가, 무인 항공기 안전 운항 체계 전문가, 무인 항공기 시스템 개발자</t>
+          <t>무인항공촬영기사 무인항공기표준전문가 무인항공기조종인증전문가 무인항공기안전운항체계전문가 무인항공기시스템개발자</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>기계공학과</t>
+          <t>기계공학과 로봇공학과 항공우주공학과</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>['초경량비행장치조종자', '']</t>
+          <t>초경량비행장치조종자</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>기계공학 기술자 및 연구원 (세분류 1511)</t>
+          <t>2351</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>기계공학 기술자 및 연구원 (세분류 2351)</t>
+          <t>2351</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr"/>
@@ -2801,27 +2797,27 @@
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr">
         <is>
-          <t>사스템소프트웨어개발자, 컴퓨터하드웨어 기술자 및 연구원, 보건의료정보관리자, 고객관리시스템(CRM)전문가, 클라우드 시스템 엔지니어</t>
+          <t>사스템소프트웨어개발자 컴퓨터하드웨어기술자및연구원 보건의료정보관리자 고객관리시스템(CRM)전문가 클라우드시스템엔지니어</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>컴퓨터공학과</t>
+          <t>컴퓨터공학과 소프트웨어공학과 게임공학과 정보통신과 정보통신공학과 컴퓨터소프트웨어과</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>['전자계산기기능사', '전자계산기제어산업기사', '전자계산기기사', '정보처리기능사', '정보처리산업기사', '정보처리기사', '컴퓨터시스템응용기술사', '마이크로소프트 인증 전문가 자격증(MCP)', '오라클 자격인증제도', '']</t>
+          <t>전자계산기기능사 전자계산기제어산업기사 전자계산기기사 정보처리기능사 정보처리산업기사 정보처리기사 컴퓨터시스템응용기술사 마이크로소프트인증전문가자격증(MCP) 오라클자격인증제도</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>응용 소프트웨어 개발자 (세분류 1332)</t>
+          <t>2223</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>응용 소프트웨어 개발자 (세분류 2223)</t>
+          <t>2223</t>
         </is>
       </c>
       <c r="AC31" t="inlineStr"/>
@@ -2876,27 +2872,27 @@
       <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr">
         <is>
-          <t>베타테스트 엔지니어, 게임베타테스터</t>
+          <t>베타테스트엔지니어 게임베타테스터</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>게임콘텐츠과</t>
+          <t>게임콘텐츠과 컴퓨터소프트웨어과 컴퓨터공학과 컴퓨터과학과 벤처창업학과</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>기타 컴퓨터 전문가 및 소프트웨어 전문가 (세분류 1339)</t>
+          <t>2229</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>기타 컴퓨터 시스템 및 소프트웨어 전문가 (세분류 2229)</t>
+          <t>2229</t>
         </is>
       </c>
       <c r="AC32" t="inlineStr"/>
@@ -2916,7 +2912,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>블록체인 전문가</t>
+          <t>블록체인전문가</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
@@ -2951,27 +2947,27 @@
       <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr">
         <is>
-          <t>블록체인 소프트웨어 개발자, 암호학자, 정보 보호 전문가</t>
+          <t>블록체인소프트웨어개발자 암호학자 정보보호전문가</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>사이버국방학과</t>
+          <t>사이버국방학과 소프트웨어공학과 정보보호학과 정보통신공학과 컴퓨터공학과 컴퓨터과학과 경제학과</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>응용 소프트웨어 개발자 (세분류 1332)</t>
+          <t>2223</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>응용 소프트웨어 개발자 (세분류 2223)</t>
+          <t>2223</t>
         </is>
       </c>
       <c r="AC33" t="inlineStr"/>
@@ -3026,27 +3022,27 @@
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr">
         <is>
-          <t>표준직업분류 : 응용 소프트웨어 개발자 (세분류 2223)</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>게임공학과</t>
+          <t>게임공학과 게임콘텐츠과 디지털디자인과 멀티미디어학과 애니메이션과</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>응용 소프트웨어 개발자 (세분류 1332)</t>
+          <t>2223</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>응용 소프트웨어 개발자 (세분류 2223)</t>
+          <t>2223</t>
         </is>
       </c>
       <c r="AC34" t="inlineStr"/>
@@ -3066,7 +3062,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>빅 데이터 전문가</t>
+          <t>빅데이터전문가</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
@@ -3101,27 +3097,27 @@
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr">
         <is>
-          <t>컴퓨터 시스템 설계 분석가, 시스템 소프트웨어 개발자, 응용 소프트웨어 개발자</t>
+          <t>컴퓨터시스템설계분석가 시스템소프트웨어개발자 응용소프트웨어개발자</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>IT융합학과</t>
+          <t>IT융합학과 교양공학부 소프트웨어공학과 정보통신공학과 컴퓨터공학과 컴퓨터과 컴퓨터과학과 컴퓨터소프트웨어과 통계학과</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>['빅데이터분석기사', '데이터분석', '데이터분석준전문가', '사회조사분석사', '정보처리기사', '']</t>
+          <t>빅데이터분석기사 데이터분석 데이터분석준전문가 사회조사분석사 정보처리기사</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>데이터 전문가 (세분류 1341)</t>
+          <t>2231</t>
         </is>
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>데이터 전문가 (세분류 2231)</t>
+          <t>2231</t>
         </is>
       </c>
       <c r="AC35" t="inlineStr"/>
@@ -3141,7 +3137,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>스마트공장 기술자</t>
+          <t>스마트공장기술자</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
@@ -3176,27 +3172,27 @@
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr">
         <is>
-          <t>스마트 공장 설비 설계사, 스마트 공장 시스템 설치원</t>
+          <t>스마트공장설비설계사 스마트공장시스템설치원</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>전기전자공학과</t>
+          <t>전기전자공학과 기계공학과 메카트로닉스공학과 정보통신공학과 컴퓨터공학과 응용소프트웨어공학과</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>['정보처리기사', '자동화설비산업기사', '']</t>
+          <t>정보처리기사 자동화설비산업기사</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>기계공학 기술자 및 연구원 (세분류 1511)</t>
+          <t>2351</t>
         </is>
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>기계공학 기술자 및 연구원 (세분류 2351)</t>
+          <t>2351</t>
         </is>
       </c>
       <c r="AC36" t="inlineStr"/>
@@ -3251,27 +3247,27 @@
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr">
         <is>
-          <t>메카트로닉스공학기술자, 컴퓨터하드웨어 기술자 및 연구원, 의료정보시스템개발자, 무인항공기시스템개발자, 모바일앱개발자, 고객관리시스템(CRM)전문가, 클라우드 시스템 엔지니어</t>
+          <t>메카트로닉스공학기술자 컴퓨터하드웨어기술자및연구원 의료정보시스템개발자 무인항공기시스템개발자 모바일앱개발자 고객관리시스템(CRM)전문가 클라우드시스템엔지니어</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>컴퓨터공학과</t>
+          <t>컴퓨터공학과 시스템공학과 컴퓨터응용기계과 정보통신공학과 소프트웨어공학과</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>['전자계산기기능사', '전자계산기제어산업기사', '전자계산기기사', '정보처리기능사', '정보처리산업기사', '정보처리기사', '컴퓨터시스템응용기술사', '마이크로소프트 인증 전문가 자격증(MCP)', '오라클 자격인증제도', '']</t>
+          <t>전자계산기기능사 전자계산기제어산업기사 전자계산기기사 정보처리기능사 정보처리산업기사 정보처리기사 컴퓨터시스템응용기술사 마이크로소프트인증전문가자격증(MCP) 오라클자격인증제도</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>시스템 소프트웨어 개발자 (세분류 1331)</t>
+          <t>2222</t>
         </is>
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>시스템 소프트웨어 개발자 (세분류 2222)</t>
+          <t>2222</t>
         </is>
       </c>
       <c r="AC37" t="inlineStr"/>
@@ -3326,27 +3322,27 @@
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr">
         <is>
-          <t>시스템운영관리자, 컴퓨터하드웨어 기술자 및 연구원, 시스템소프트웨어개발자</t>
+          <t>시스템운영관리자 컴퓨터하드웨어기술자및연구원 시스템소프트웨어개발자</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>시스템경영공학과</t>
+          <t>시스템경영공학과 컴퓨터응용기계과 스마트정보과 시스템공학과 컴퓨터공학과</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>['전자계산기기능사', '전자계산기기사', '전자계산기제어산업기사', '전자계산기조직응용기사', '정보관리기술사', '정보처리산업기사', '정보처리기사', '컴퓨터시스템응용기술사', 'SQL', '리눅스마스터', '데이터아키텍처', '']</t>
+          <t>전자계산기기능사 전자계산기기사 전자계산기제어산업기사 전자계산기조직응용기사 정보관리기술사 정보처리산업기사 정보처리기사 컴퓨터시스템응용기술사 SQL 리눅스마스터 데이터아키텍처</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>컴퓨터시스템 전문가 (세분류 1320)</t>
+          <t>2221</t>
         </is>
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>컴퓨터 시스템 전문가 (세분류 2221)</t>
+          <t>2221</t>
         </is>
       </c>
       <c r="AC38" t="inlineStr"/>
@@ -3401,27 +3397,27 @@
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr">
         <is>
-          <t>영업원, 전자통신장비기술영업원, 의료장비기술영업원</t>
+          <t>영업원 전자통신장비기술영업원 의료장비기술영업원</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>컴퓨터소프트웨어과</t>
+          <t>컴퓨터소프트웨어과 컴퓨터공학과 마케팅경영과 정보통신과 정보통신공학과</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>['전자상거래관리사', '전자상거래운용사', '컴퓨터활용능력', '컴퓨터그래픽스운용기능사', '정보처리기능사', '정보처리산업기사', '정보처리기사', '오라클공인전문가제도(OCP)', '오라클 자격인증제도', '리눅스마스터', 'SQL', '']</t>
+          <t>전자상거래관리사 전자상거래운용사 컴퓨터활용능력 컴퓨터그래픽스운용기능사 정보처리기능사 정보처리산업기사 정보처리기사 오라클공인전문가제도(OCP) 오라클자격인증제도 리눅스마스터 SQL</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>기술 영업원 (세분류 6121)</t>
+          <t>2743</t>
         </is>
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>기술 영업원 (세분류 2743)</t>
+          <t>2743</t>
         </is>
       </c>
       <c r="AC39" t="inlineStr"/>
@@ -3441,7 +3437,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>양자 컴퓨팅 기술자</t>
+          <t>양자컴퓨팅기술자</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
@@ -3476,27 +3472,27 @@
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr">
         <is>
-          <t>양자 컴퓨터 기술자</t>
+          <t>양자컴퓨터기술자</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>전자공학과</t>
+          <t>전자공학과 컴퓨터공학과 물리학과 수학과</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>전자공학 기술자 및 연구원 (세분류 1532)</t>
+          <t>2342</t>
         </is>
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>전자공학 기술자 및 연구원 (세분류 2342)</t>
+          <t>2342</t>
         </is>
       </c>
       <c r="AC40" t="inlineStr"/>
@@ -3551,27 +3547,27 @@
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr">
         <is>
-          <t>시스템소프트웨어개발자, 컴퓨터하드웨어 기술자 및 연구원, 보건의료정보관리자, 고객관리시스템(CRM)전문가, 클라우드 시스템 엔지니어</t>
+          <t>시스템소프트웨어개발자 컴퓨터하드웨어기술자및연구원 보건의료정보관리자 고객관리시스템(CRM)전문가 클라우드시스템엔지니어</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>의료정보시스템과</t>
+          <t>의료정보시스템과 의료정보공학과 컴퓨터소프트웨어과 소프트웨어공학과 컴퓨터공학과 컴퓨터과 컴퓨터과학과 시스템공학과 정보통신공학과</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>['전자계산기기능사', '전자계산기제어산업기사', '전자계산기기사', '정보처리기능사', '정보처리산업기사', '정보처리기사', '컴퓨터시스템응용기술사', '마이크로소프트 인증 전문가 자격증(MCP)', '오라클 자격인증제도', '보건의료정보관리사', '병원행정사', '']</t>
+          <t>전자계산기기능사 전자계산기제어산업기사 전자계산기기사 정보처리기능사 정보처리산업기사 정보처리기사 컴퓨터시스템응용기술사 마이크로소프트인증전문가자격증(MCP) 오라클자격인증제도 보건의료정보관리사 병원행정사</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>응용 소프트웨어 개발자 (세분류 1332)</t>
+          <t>2223</t>
         </is>
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>응용 소프트웨어 개발자 (세분류 2223)</t>
+          <t>2223</t>
         </is>
       </c>
       <c r="AC41" t="inlineStr"/>
@@ -3626,27 +3622,27 @@
       <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr">
         <is>
-          <t>전기감리기술자, 전기설계기술자, 계장기술자, 전기안전관리자, 발전설비기술자</t>
+          <t>전기감리기술자 전기설계기술자 계장기술자 전기안전관리자 발전설비기술자</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>전기공학과</t>
+          <t>전기공학과 전기과 전기전자공학과 전기제어공학과</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>['전기철도기사', '건축전기설비기술사', '전기응용기술사', '전기철도기술사', '전기공사산업기사', '전기공사기사', '전기기능사', '전기기능장', '전기산업기사', '전기기사', '전기안전기술사', '전기철도산업기사', '']</t>
+          <t>전기철도기사 건축전기설비기술사 전기응용기술사 전기철도기술사 전기공사산업기사 전기공사기사 전기기능사 전기기능장 전기산업기사 전기기사 전기안전기술사 전기철도산업기사</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>전기공학 기술자 및 연구원 (세분류 1531)</t>
+          <t>2341</t>
         </is>
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>전기공학 기술자 및 연구원 (세분류 2341)</t>
+          <t>2341</t>
         </is>
       </c>
       <c r="AC42" t="inlineStr"/>
@@ -3701,27 +3697,27 @@
       <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr">
         <is>
-          <t>GIS전문가, 지리정보시스템전문가(GIS전문가)</t>
+          <t>GIS전문가 지리정보시스템전문가(GIS전문가)</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>지리학과</t>
+          <t>지리학과 지적학과 측지정보과</t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>['지적기능사', '지적산업기사', '지적기사', '지적기술사', '']</t>
+          <t>지적기능사 지적산업기사 지적기사 지적기술사</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>측량ㆍ지리정보 전문가 (세분류 1406)</t>
+          <t>2316</t>
         </is>
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>측량 및 지리 정보 전문가 (세분류 2316)</t>
+          <t>2316</t>
         </is>
       </c>
       <c r="AC43" t="inlineStr"/>
@@ -3741,7 +3737,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>클라우드 시스템 엔지니어</t>
+          <t>클라우드시스템엔지니어</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -3776,27 +3772,27 @@
       <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr">
         <is>
-          <t>시스템 프로그래머, 응용 프로그래머, 정보통신 엔지니어, 데이터베이스 전문가</t>
+          <t>시스템프로그래머 응용프로그래머 정보통신엔지니어 데이터베이스전문가</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>IT융합학과</t>
+          <t>IT융합학과 교양공학부 모바일시스템공학과 소프트웨어공학과 정보통신공학과 컴퓨터공학과 컴퓨터과학과</t>
         </is>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>['빅데이터분석기사', '']</t>
+          <t>빅데이터분석기사</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>컴퓨터시스템 전문가 (세분류 1320)</t>
+          <t>2221</t>
         </is>
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>컴퓨터 시스템 전문가 (세분류 2221)</t>
+          <t>2221</t>
         </is>
       </c>
       <c r="AC44" t="inlineStr"/>
@@ -3856,22 +3852,22 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>게임공학과</t>
+          <t>게임공학과 게임콘텐츠과</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>직업 운동선수 (세분류 4202)</t>
+          <t>2862</t>
         </is>
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>직업 운동선수 (세분류 2862)</t>
+          <t>2862</t>
         </is>
       </c>
       <c r="AC45" t="inlineStr"/>
@@ -3943,7 +3939,7 @@
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>자료 (분석) / 사람 (말하기-신호) / 사물 (수동조작)</t>
+          <t>자료(분석) 사람(말하기-신호) 사물(수동조작)</t>
         </is>
       </c>
       <c r="R46" t="inlineStr"/>
@@ -3964,22 +3960,22 @@
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>간호사, 가정전문간호사</t>
+          <t>간호사 가정전문간호사</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>[3040]간호사</t>
+          <t>2430</t>
         </is>
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>[2430]간호사</t>
+          <t>3040</t>
         </is>
       </c>
       <c r="AC46" t="inlineStr">
         <is>
-          <t>[Q861]병원</t>
+          <t>Q861</t>
         </is>
       </c>
       <c r="AD46" t="inlineStr">
@@ -4050,7 +4046,7 @@
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>자료 (분석) / 사람 (말하기-신호) / 사물 (수동조작)</t>
+          <t>자료(분석) 사람(말하기-신호) 사물(수동조작)</t>
         </is>
       </c>
       <c r="R47" t="inlineStr"/>
@@ -4069,7 +4065,7 @@
       <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr">
         <is>
-          <t>가정전문간호사, 감염전문간호사, 노인전문간호사, 마취전문간호사, 아동전문간호사, 응급전문간호사, 임상전문간호사, 정신전문간호사, 종양전문간호사, 중환자전문간호사, 호스피스전문간호사, 보건전문간호사, 산업전문간호사, 교정간호사</t>
+          <t>가정전문간호사 감염전문간호사 노인전문간호사 마취전문간호사 아동전문간호사 응급전문간호사 임상전문간호사 정신전문간호사 종양전문간호사 중환자전문간호사 호스피스전문간호사 보건전문간호사 산업전문간호사 교정간호사</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr"/>
@@ -4080,17 +4076,17 @@
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>[3040]간호사</t>
+          <t>2430</t>
         </is>
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>[2430]간호사</t>
+          <t>3040</t>
         </is>
       </c>
       <c r="AC47" t="inlineStr">
         <is>
-          <t>[Q861]병원</t>
+          <t>Q861</t>
         </is>
       </c>
       <c r="AD47" t="inlineStr">
@@ -4161,7 +4157,7 @@
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>자료 (조정) / 사람 (협의) / 사물 (관련없음)</t>
+          <t>자료(조정) 사람(협의) 사물(관련없음)</t>
         </is>
       </c>
       <c r="R48" t="inlineStr"/>
@@ -4182,22 +4178,22 @@
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>간호사, 감염관리전문간호사</t>
+          <t>간호사 감염관리전문간호사</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>[3040]간호사</t>
+          <t>2430</t>
         </is>
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>[2430]간호사</t>
+          <t>3040</t>
         </is>
       </c>
       <c r="AC48" t="inlineStr">
         <is>
-          <t>[Q861]병원</t>
+          <t>Q861</t>
         </is>
       </c>
       <c r="AD48" t="inlineStr">
@@ -4268,7 +4264,7 @@
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>자료 (분석) / 사람 (말하기-신호) / 사물 (수동조작)</t>
+          <t>자료(분석) 사람(말하기-신호) 사물(수동조작)</t>
         </is>
       </c>
       <c r="R49" t="inlineStr"/>
@@ -4289,22 +4285,22 @@
       <c r="Y49" t="inlineStr"/>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>간호사, 노인전문간호사</t>
+          <t>간호사 노인전문간호사</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>[3040]간호사</t>
+          <t>2430</t>
         </is>
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>[2430]간호사</t>
+          <t>3040</t>
         </is>
       </c>
       <c r="AC49" t="inlineStr">
         <is>
-          <t>[Q861]병원</t>
+          <t>Q861</t>
         </is>
       </c>
       <c r="AD49" t="inlineStr">
@@ -4375,7 +4371,7 @@
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>자료 (분석) / 사람 (교육) / 사물 (관련없음)</t>
+          <t>자료(분석) 사람(교육) 사물(관련없음)</t>
         </is>
       </c>
       <c r="R50" t="inlineStr"/>
@@ -4400,22 +4396,22 @@
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>의사, 간호사, 영양사, 사회복지사, 약사</t>
+          <t>의사 간호사 영양사 사회복지사 약사</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>[3040]간호사</t>
+          <t>2430</t>
         </is>
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>[2430]간호사</t>
+          <t>3040</t>
         </is>
       </c>
       <c r="AC50" t="inlineStr">
         <is>
-          <t>[Q861]병원</t>
+          <t>Q861</t>
         </is>
       </c>
       <c r="AD50" t="inlineStr">
@@ -4486,7 +4482,7 @@
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>자료 (분석) / 사람 (말하기-신호) / 사물 (수동조작)</t>
+          <t>자료(분석) 사람(말하기-신호) 사물(수동조작)</t>
         </is>
       </c>
       <c r="R51" t="inlineStr"/>
@@ -4507,22 +4503,22 @@
       <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>간호사, 마취전문간호사</t>
+          <t>간호사 마취전문간호사</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>[3040]간호사</t>
+          <t>2430</t>
         </is>
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>[2430]간호사</t>
+          <t>3040</t>
         </is>
       </c>
       <c r="AC51" t="inlineStr">
         <is>
-          <t>[Q861]병원</t>
+          <t>Q861</t>
         </is>
       </c>
       <c r="AD51" t="inlineStr">
@@ -4593,7 +4589,7 @@
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>자료 (분석) / 사람 (자문) / 사물 (수동조작)</t>
+          <t>자료(분석) 사람(자문) 사물(수동조작)</t>
         </is>
       </c>
       <c r="R52" t="inlineStr"/>
@@ -4614,22 +4610,22 @@
       <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>간호사, 한의사, 의사</t>
+          <t>간호사 한의사 의사</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>[3040]간호사</t>
+          <t>2430</t>
         </is>
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>[2430]간호사</t>
+          <t>3040</t>
         </is>
       </c>
       <c r="AC52" t="inlineStr">
         <is>
-          <t>[S969]그 외 기타 개인 서비스업</t>
+          <t>S969</t>
         </is>
       </c>
       <c r="AD52" t="inlineStr">
@@ -4700,7 +4696,7 @@
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>자료 (분석) / 사람 (교육) / 사물 (수동조작)</t>
+          <t>자료(분석) 사람(교육) 사물(수동조작)</t>
         </is>
       </c>
       <c r="R53" t="inlineStr"/>
@@ -4732,17 +4728,17 @@
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>[3040]간호사</t>
+          <t>2430</t>
         </is>
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>[2430]간호사</t>
+          <t>3040</t>
         </is>
       </c>
       <c r="AC53" t="inlineStr">
         <is>
-          <t>[P851]초등 교육기관 / [P852]중등 교육기관 / [P854]특수학교, 외국인학교 및 대안학교</t>
+          <t>P851</t>
         </is>
       </c>
       <c r="AD53" t="inlineStr">
@@ -4813,7 +4809,7 @@
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>자료 (조정) / 사람 (교육) / 사물 (수동조작)</t>
+          <t>자료(조정) 사람(교육) 사물(수동조작)</t>
         </is>
       </c>
       <c r="R54" t="inlineStr"/>
@@ -4834,22 +4830,22 @@
       <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>간호사, 보건전문간호사</t>
+          <t>간호사 보건전문간호사</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>[3040]간호사</t>
+          <t>2430</t>
         </is>
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>[2430]간호사</t>
+          <t>3040</t>
         </is>
       </c>
       <c r="AC54" t="inlineStr">
         <is>
-          <t>[Q863]공중 보건 의료업</t>
+          <t>Q863</t>
         </is>
       </c>
       <c r="AD54" t="inlineStr">
@@ -4920,7 +4916,7 @@
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>자료 (조정) / 사람 (교육) / 사물 (수동조작)</t>
+          <t>자료(조정) 사람(교육) 사물(수동조작)</t>
         </is>
       </c>
       <c r="R55" t="inlineStr"/>
@@ -4941,22 +4937,22 @@
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>간호사, 산업전문간호사</t>
+          <t>간호사 산업전문간호사</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>[3040]간호사</t>
+          <t>2430</t>
         </is>
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>[2430]간호사</t>
+          <t>3040</t>
         </is>
       </c>
       <c r="AC55" t="inlineStr">
         <is>
-          <t>[Q861]병원</t>
+          <t>Q861</t>
         </is>
       </c>
       <c r="AD55" t="inlineStr">
@@ -5027,7 +5023,7 @@
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>자료 (수집) / 사람 (서비스 제공) / 사물 (수동조작)</t>
+          <t>자료(수집) 사람(서비스제공) 사물(수동조작)</t>
         </is>
       </c>
       <c r="R56" t="inlineStr"/>
@@ -5048,22 +5044,22 @@
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>간호사, 간호조무사</t>
+          <t>간호사 간호조무사</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>[3040]간호사</t>
+          <t>2430</t>
         </is>
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>[2430]간호사</t>
+          <t>3040</t>
         </is>
       </c>
       <c r="AC56" t="inlineStr">
         <is>
-          <t>[S969]그 외 기타 개인 서비스업</t>
+          <t>S969</t>
         </is>
       </c>
       <c r="AD56" t="inlineStr">
@@ -5134,7 +5130,7 @@
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>자료 (조정) / 사람 (감독) / 사물 (관련없음)</t>
+          <t>자료(조정) 사람(감독) 사물(관련없음)</t>
         </is>
       </c>
       <c r="R57" t="inlineStr"/>
@@ -5160,17 +5156,17 @@
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>[3040]간호사</t>
+          <t>2430</t>
         </is>
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>[2430]간호사</t>
+          <t>3040</t>
         </is>
       </c>
       <c r="AC57" t="inlineStr">
         <is>
-          <t>[Q861]병원</t>
+          <t>Q861</t>
         </is>
       </c>
       <c r="AD57" t="inlineStr">
@@ -5241,7 +5237,7 @@
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>자료 (분석) / 사람 (말하기-신호) / 사물 (수동조작)</t>
+          <t>자료(분석) 사람(말하기-신호) 사물(수동조작)</t>
         </is>
       </c>
       <c r="R58" t="inlineStr"/>
@@ -5262,22 +5258,22 @@
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>간호사, 아동전문간호사</t>
+          <t>간호사 아동전문간호사</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>[3040]간호사</t>
+          <t>2430</t>
         </is>
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>[2430]간호사</t>
+          <t>3040</t>
         </is>
       </c>
       <c r="AC58" t="inlineStr">
         <is>
-          <t>[Q861]병원</t>
+          <t>Q861</t>
         </is>
       </c>
       <c r="AD58" t="inlineStr">
@@ -5348,7 +5344,7 @@
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>자료 (조정) / 사람 (말하기-신호) / 사물 (수동조작)</t>
+          <t>자료(조정) 사람(말하기-신호) 사물(수동조작)</t>
         </is>
       </c>
       <c r="R59" t="inlineStr"/>
@@ -5369,22 +5365,22 @@
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>간호사, 약사</t>
+          <t>간호사 약사</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
         <is>
-          <t>[3040]간호사</t>
+          <t>2430</t>
         </is>
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>[2430]간호사</t>
+          <t>3040</t>
         </is>
       </c>
       <c r="AC59" t="inlineStr">
         <is>
-          <t>[Q861]병원</t>
+          <t>Q861</t>
         </is>
       </c>
       <c r="AD59" t="inlineStr">
@@ -5455,7 +5451,7 @@
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>자료 (분석) / 사람 (말하기-신호) / 사물 (수동조작)</t>
+          <t>자료(분석) 사람(말하기-신호) 사물(수동조작)</t>
         </is>
       </c>
       <c r="R60" t="inlineStr"/>
@@ -5476,22 +5472,22 @@
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>간호사, 응급전문간호사</t>
+          <t>간호사 응급전문간호사</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
         <is>
-          <t>[3040]간호사</t>
+          <t>2430</t>
         </is>
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>[2430]간호사</t>
+          <t>3040</t>
         </is>
       </c>
       <c r="AC60" t="inlineStr">
         <is>
-          <t>[Q861]병원</t>
+          <t>Q861</t>
         </is>
       </c>
       <c r="AD60" t="inlineStr">
@@ -5562,7 +5558,7 @@
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>자료 (분석) / 사람 (말하기-신호) / 사물 (관련없음)</t>
+          <t>자료(분석) 사람(말하기-신호) 사물(관련없음)</t>
         </is>
       </c>
       <c r="R61" t="inlineStr"/>
@@ -5588,17 +5584,17 @@
       </c>
       <c r="AA61" t="inlineStr">
         <is>
-          <t>[3040]간호사</t>
+          <t>2430</t>
         </is>
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>[2430]간호사</t>
+          <t>3040</t>
         </is>
       </c>
       <c r="AC61" t="inlineStr">
         <is>
-          <t>[O845]사회보장 행정</t>
+          <t>O845</t>
         </is>
       </c>
       <c r="AD61" t="inlineStr">
@@ -5669,7 +5665,7 @@
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>자료 (수집) / 사람 (자문) / 사물 (관련없음)</t>
+          <t>자료(수집) 사람(자문) 사물(관련없음)</t>
         </is>
       </c>
       <c r="R62" t="inlineStr"/>
@@ -5695,17 +5691,17 @@
       </c>
       <c r="AA62" t="inlineStr">
         <is>
-          <t>[3040]간호사</t>
+          <t>2430</t>
         </is>
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>[2430]간호사</t>
+          <t>3040</t>
         </is>
       </c>
       <c r="AC62" t="inlineStr">
         <is>
-          <t>[O842]사회 및 산업정책 행정</t>
+          <t>O842</t>
         </is>
       </c>
       <c r="AD62" t="inlineStr">
@@ -5776,7 +5772,7 @@
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>자료 (분석) / 사람 (말하기-신호) / 사물 (수동조작)</t>
+          <t>자료(분석) 사람(말하기-신호) 사물(수동조작)</t>
         </is>
       </c>
       <c r="R63" t="inlineStr"/>
@@ -5801,22 +5797,22 @@
       <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>간호사, 임상전문간호사</t>
+          <t>간호사 임상전문간호사</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
         <is>
-          <t>[3040]간호사</t>
+          <t>2430</t>
         </is>
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>[2430]간호사</t>
+          <t>3040</t>
         </is>
       </c>
       <c r="AC63" t="inlineStr">
         <is>
-          <t>[Q861]병원</t>
+          <t>Q861</t>
         </is>
       </c>
       <c r="AD63" t="inlineStr">
@@ -5887,7 +5883,7 @@
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>자료 (조정) / 사람 (협의) / 사물 (단순작업)</t>
+          <t>자료(조정) 사람(협의) 사물(단순작업)</t>
         </is>
       </c>
       <c r="R64" t="inlineStr"/>
@@ -5910,7 +5906,7 @@
       <c r="V64" t="inlineStr"/>
       <c r="W64" t="inlineStr">
         <is>
-          <t>장기이식간호사, 이식코디네이터, 이식간호코디네이터, 신장간호사</t>
+          <t>장기이식간호사 이식코디네이터 이식간호코디네이터 신장간호사</t>
         </is>
       </c>
       <c r="X64" t="inlineStr"/>
@@ -5922,17 +5918,17 @@
       </c>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>[3040]간호사</t>
+          <t>2430</t>
         </is>
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>[2430]간호사</t>
+          <t>3040</t>
         </is>
       </c>
       <c r="AC64" t="inlineStr">
         <is>
-          <t>[Q869]기타 보건업</t>
+          <t>Q869</t>
         </is>
       </c>
       <c r="AD64" t="inlineStr">
@@ -6003,7 +5999,7 @@
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>자료 (분석) / 사람 (자문) / 사물 (관련없음)</t>
+          <t>자료(분석) 사람(자문) 사물(관련없음)</t>
         </is>
       </c>
       <c r="R65" t="inlineStr"/>
@@ -6024,22 +6020,22 @@
       <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>간호사, 정신건강간호사</t>
+          <t>간호사 정신건강간호사</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>[3040]간호사</t>
+          <t>2430</t>
         </is>
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>[2430]간호사</t>
+          <t>3040</t>
         </is>
       </c>
       <c r="AC65" t="inlineStr">
         <is>
-          <t>[Q861]병원</t>
+          <t>Q861</t>
         </is>
       </c>
       <c r="AD65" t="inlineStr">
@@ -6110,7 +6106,7 @@
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>자료 (분석) / 사람 (말하기-신호) / 사물 (수동조작)</t>
+          <t>자료(분석) 사람(말하기-신호) 사물(수동조작)</t>
         </is>
       </c>
       <c r="R66" t="inlineStr"/>
@@ -6135,22 +6131,22 @@
       <c r="Y66" t="inlineStr"/>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>조산사, 간호사</t>
+          <t>조산사 간호사</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
         <is>
-          <t>[3040]간호사</t>
+          <t>2430</t>
         </is>
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>[2430]간호사</t>
+          <t>3040</t>
         </is>
       </c>
       <c r="AC66" t="inlineStr">
         <is>
-          <t>[Q869]기타 보건업</t>
+          <t>Q869</t>
         </is>
       </c>
       <c r="AD66" t="inlineStr">
@@ -6221,7 +6217,7 @@
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>자료 (분석) / 사람 (말하기-신호) / 사물 (수동조작)</t>
+          <t>자료(분석) 사람(말하기-신호) 사물(수동조작)</t>
         </is>
       </c>
       <c r="R67" t="inlineStr"/>
@@ -6242,22 +6238,22 @@
       <c r="Y67" t="inlineStr"/>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>간호사, 종양전문간호사</t>
+          <t>간호사 종양전문간호사</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>[3040]간호사</t>
+          <t>2430</t>
         </is>
       </c>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>[2430]간호사</t>
+          <t>3040</t>
         </is>
       </c>
       <c r="AC67" t="inlineStr">
         <is>
-          <t>[Q861]병원</t>
+          <t>Q861</t>
         </is>
       </c>
       <c r="AD67" t="inlineStr">
@@ -6328,7 +6324,7 @@
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>자료 (분석) / 사람 (말하기-신호) / 사물 (수동조작)</t>
+          <t>자료(분석) 사람(말하기-신호) 사물(수동조작)</t>
         </is>
       </c>
       <c r="R68" t="inlineStr"/>
@@ -6349,22 +6345,22 @@
       <c r="Y68" t="inlineStr"/>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>간호사, 중환자전문간호사</t>
+          <t>간호사 중환자전문간호사</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
         <is>
-          <t>[3040]간호사</t>
+          <t>2430</t>
         </is>
       </c>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>[2430]간호사</t>
+          <t>3040</t>
         </is>
       </c>
       <c r="AC68" t="inlineStr">
         <is>
-          <t>[Q861]병원</t>
+          <t>Q861</t>
         </is>
       </c>
       <c r="AD68" t="inlineStr">
@@ -6435,7 +6431,7 @@
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>자료 (분석) / 사람 (말하기-신호) / 사물 (수동조작)</t>
+          <t>자료(분석) 사람(말하기-신호) 사물(수동조작)</t>
         </is>
       </c>
       <c r="R69" t="inlineStr"/>
@@ -6456,22 +6452,22 @@
       <c r="Y69" t="inlineStr"/>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>간호사, 호스피스전문간호사</t>
+          <t>간호사 호스피스전문간호사</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
         <is>
-          <t>[3040]간호사</t>
+          <t>2430</t>
         </is>
       </c>
       <c r="AB69" t="inlineStr">
         <is>
-          <t>[2430]간호사</t>
+          <t>3040</t>
         </is>
       </c>
       <c r="AC69" t="inlineStr">
         <is>
-          <t>[Q861]병원</t>
+          <t>Q861</t>
         </is>
       </c>
       <c r="AD69" t="inlineStr">
@@ -6542,7 +6538,7 @@
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>자료 (조정) / 사람 (협의) / 사물 (관련없음)</t>
+          <t>자료(조정) 사람(협의) 사물(관련없음)</t>
         </is>
       </c>
       <c r="R70" t="inlineStr"/>
@@ -6564,7 +6560,7 @@
       <c r="V70" t="inlineStr"/>
       <c r="W70" t="inlineStr">
         <is>
-          <t>환자안전 전담자, 환자안전 전담간호사, PI(Performance Improvement)간호사, QPS(Quality Patient Safety)간호사, 환자안전 담당자</t>
+          <t>환자안전전담자 환자안전전담간호사 PI(PerformanceImprovement)간호사 QPS(QualityPatientSafety)간호사 환자안전담당자</t>
         </is>
       </c>
       <c r="X70" t="inlineStr">
@@ -6575,22 +6571,22 @@
       <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>의사, 치과의사, 한의사, 약사, 간호사</t>
+          <t>의사 치과의사 한의사 약사 간호사</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
         <is>
-          <t>[3040]간호사</t>
+          <t>2430</t>
         </is>
       </c>
       <c r="AB70" t="inlineStr">
         <is>
-          <t>[2430]간호사</t>
+          <t>3040</t>
         </is>
       </c>
       <c r="AC70" t="inlineStr">
         <is>
-          <t>[Q861]병원</t>
+          <t>Q861</t>
         </is>
       </c>
       <c r="AD70" t="inlineStr">
@@ -6661,7 +6657,7 @@
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>자료 (조정) / 사람 (협의) / 사물 (관련없음)</t>
+          <t>자료(조정) 사람(협의) 사물(관련없음)</t>
         </is>
       </c>
       <c r="R71" t="inlineStr"/>
@@ -6687,17 +6683,17 @@
       <c r="Z71" t="inlineStr"/>
       <c r="AA71" t="inlineStr">
         <is>
-          <t>[4161]감독 및 기술감독</t>
+          <t>2831</t>
         </is>
       </c>
       <c r="AB71" t="inlineStr">
         <is>
-          <t>[2831]감독 및 기술 감독</t>
+          <t>4161</t>
         </is>
       </c>
       <c r="AC71" t="inlineStr">
         <is>
-          <t>[J591]영화, 비디오물, 방송프로그램 제작 및 배급업</t>
+          <t>J591</t>
         </is>
       </c>
       <c r="AD71" t="inlineStr">
@@ -6768,7 +6764,7 @@
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>자료 (조정) / 사람 (협의) / 사물 (관련없음)</t>
+          <t>자료(조정) 사람(협의) 사물(관련없음)</t>
         </is>
       </c>
       <c r="R72" t="inlineStr"/>
@@ -6794,17 +6790,17 @@
       <c r="Z72" t="inlineStr"/>
       <c r="AA72" t="inlineStr">
         <is>
-          <t>[4161]감독 및 기술감독</t>
+          <t>2831</t>
         </is>
       </c>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>[2831]감독 및 기술 감독</t>
+          <t>4161</t>
         </is>
       </c>
       <c r="AC72" t="inlineStr">
         <is>
-          <t>[J591]영화, 비디오물, 방송프로그램 제작 및 배급업</t>
+          <t>J591</t>
         </is>
       </c>
       <c r="AD72" t="inlineStr">
@@ -6875,7 +6871,7 @@
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>자료 (조정) / 사람 (감독) / 사물 (관련없음)</t>
+          <t>자료(조정) 사람(감독) 사물(관련없음)</t>
         </is>
       </c>
       <c r="R73" t="inlineStr"/>
@@ -6893,7 +6889,7 @@
       <c r="V73" t="inlineStr"/>
       <c r="W73" t="inlineStr">
         <is>
-          <t>게임피디(PD), 게임제작감독, 게임연출자</t>
+          <t>게임피디(PD) 게임제작감독 게임연출자</t>
         </is>
       </c>
       <c r="X73" t="inlineStr"/>
@@ -6905,17 +6901,17 @@
       </c>
       <c r="AA73" t="inlineStr">
         <is>
-          <t>[4161]감독 및 기술감독</t>
+          <t>2831</t>
         </is>
       </c>
       <c r="AB73" t="inlineStr">
         <is>
-          <t>[2831]감독 및 기술 감독</t>
+          <t>4161</t>
         </is>
       </c>
       <c r="AC73" t="inlineStr">
         <is>
-          <t>[J582]소프트웨어 개발 및 공급업</t>
+          <t>J582</t>
         </is>
       </c>
       <c r="AD73" t="inlineStr">
@@ -6986,7 +6982,7 @@
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>자료 (분석) / 사람 (말하기-신호) / 사물 (정밀작업)</t>
+          <t>자료(분석) 사람(말하기-신호) 사물(정밀작업)</t>
         </is>
       </c>
       <c r="R74" t="inlineStr"/>
@@ -7008,17 +7004,17 @@
       <c r="Z74" t="inlineStr"/>
       <c r="AA74" t="inlineStr">
         <is>
-          <t>[4161]감독 및 기술감독</t>
+          <t>2831</t>
         </is>
       </c>
       <c r="AB74" t="inlineStr">
         <is>
-          <t>[2831]감독 및 기술 감독</t>
+          <t>4161</t>
         </is>
       </c>
       <c r="AC74" t="inlineStr">
         <is>
-          <t>[J591]영화, 비디오물, 방송프로그램 제작 및 배급업 / [J602]텔레비전 방송업</t>
+          <t>J591</t>
         </is>
       </c>
       <c r="AD74" t="inlineStr">
@@ -7089,7 +7085,7 @@
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>자료 (조정) / 사람 (감독) / 사물 (정밀작업)</t>
+          <t>자료(조정) 사람(감독) 사물(정밀작업)</t>
         </is>
       </c>
       <c r="R75" t="inlineStr"/>
@@ -7116,17 +7112,17 @@
       <c r="Z75" t="inlineStr"/>
       <c r="AA75" t="inlineStr">
         <is>
-          <t>[4161]감독 및 기술감독</t>
+          <t>2831</t>
         </is>
       </c>
       <c r="AB75" t="inlineStr">
         <is>
-          <t>[2831]감독 및 기술 감독</t>
+          <t>4161</t>
         </is>
       </c>
       <c r="AC75" t="inlineStr">
         <is>
-          <t>[J591]영화, 비디오물, 방송프로그램 제작 및 배급업 / [J602]텔레비전 방송업</t>
+          <t>J591</t>
         </is>
       </c>
       <c r="AD75" t="inlineStr">
@@ -7197,7 +7193,7 @@
       <c r="P76" t="inlineStr"/>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>자료 (조정) / 사람 (협의) / 사물 (수동조작)</t>
+          <t>자료(조정) 사람(협의) 사물(수동조작)</t>
         </is>
       </c>
       <c r="R76" t="inlineStr"/>
@@ -7215,7 +7211,7 @@
       <c r="V76" t="inlineStr"/>
       <c r="W76" t="inlineStr">
         <is>
-          <t>게임방송연출가, 게임방송PD</t>
+          <t>게임방송연출가 게임방송PD</t>
         </is>
       </c>
       <c r="X76" t="inlineStr"/>
@@ -7223,17 +7219,17 @@
       <c r="Z76" t="inlineStr"/>
       <c r="AA76" t="inlineStr">
         <is>
-          <t>[4161]감독 및 기술감독</t>
+          <t>2831</t>
         </is>
       </c>
       <c r="AB76" t="inlineStr">
         <is>
-          <t>[2831]감독 및 기술 감독</t>
+          <t>4161</t>
         </is>
       </c>
       <c r="AC76" t="inlineStr">
         <is>
-          <t>[J602]텔레비전 방송업</t>
+          <t>J602</t>
         </is>
       </c>
       <c r="AD76" t="inlineStr">
@@ -7304,7 +7300,7 @@
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>자료 (조정) / 사람 (감독) / 사물 (관련없음)</t>
+          <t>자료(조정) 사람(감독) 사물(관련없음)</t>
         </is>
       </c>
       <c r="R77" t="inlineStr"/>
@@ -7326,17 +7322,17 @@
       <c r="Z77" t="inlineStr"/>
       <c r="AA77" t="inlineStr">
         <is>
-          <t>[4161]감독 및 기술감독</t>
+          <t>2831</t>
         </is>
       </c>
       <c r="AB77" t="inlineStr">
         <is>
-          <t>[2831]감독 및 기술 감독</t>
+          <t>4161</t>
         </is>
       </c>
       <c r="AC77" t="inlineStr">
         <is>
-          <t>[M713]광고업</t>
+          <t>M713</t>
         </is>
       </c>
       <c r="AD77" t="inlineStr">
@@ -7407,7 +7403,7 @@
       <c r="P78" t="inlineStr"/>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>자료 (종합) / 사람 (협의) / 사물 (관련없음)</t>
+          <t>자료(종합) 사람(협의) 사물(관련없음)</t>
         </is>
       </c>
       <c r="R78" t="inlineStr"/>
@@ -7429,7 +7425,7 @@
       <c r="V78" t="inlineStr"/>
       <c r="W78" t="inlineStr">
         <is>
-          <t>오디오피디(Audio Producer), BGM(Back-Ground Music)기획원</t>
+          <t>오디오피디(AudioProducer) BGM(Back-GroundMusic)기획원</t>
         </is>
       </c>
       <c r="X78" t="inlineStr"/>
@@ -7437,17 +7433,17 @@
       <c r="Z78" t="inlineStr"/>
       <c r="AA78" t="inlineStr">
         <is>
-          <t>[4161]감독 및 기술감독</t>
+          <t>2831</t>
         </is>
       </c>
       <c r="AB78" t="inlineStr">
         <is>
-          <t>[2831]감독 및 기술 감독</t>
+          <t>4161</t>
         </is>
       </c>
       <c r="AC78" t="inlineStr">
         <is>
-          <t>[M713]광고업</t>
+          <t>M713</t>
         </is>
       </c>
       <c r="AD78" t="inlineStr">
@@ -7518,7 +7514,7 @@
       <c r="P79" t="inlineStr"/>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>자료 (조정) / 사람 (감독) / 사물 (관련없음)</t>
+          <t>자료(조정) 사람(감독) 사물(관련없음)</t>
         </is>
       </c>
       <c r="R79" t="inlineStr"/>
@@ -7536,7 +7532,7 @@
       <c r="V79" t="inlineStr"/>
       <c r="W79" t="inlineStr">
         <is>
-          <t>광고제작감독, 씨에프감독(CF감독), CF(Commercial Film)감독</t>
+          <t>광고제작감독 씨에프감독(CF감독) CF(CommercialFilm)감독</t>
         </is>
       </c>
       <c r="X79" t="inlineStr"/>
@@ -7544,17 +7540,17 @@
       <c r="Z79" t="inlineStr"/>
       <c r="AA79" t="inlineStr">
         <is>
-          <t>[4161]감독 및 기술감독</t>
+          <t>2831</t>
         </is>
       </c>
       <c r="AB79" t="inlineStr">
         <is>
-          <t>[2831]감독 및 기술 감독</t>
+          <t>4161</t>
         </is>
       </c>
       <c r="AC79" t="inlineStr">
         <is>
-          <t>[M713]광고업</t>
+          <t>M713</t>
         </is>
       </c>
       <c r="AD79" t="inlineStr">
@@ -7625,7 +7621,7 @@
       <c r="P80" t="inlineStr"/>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>자료 (조정) / 사람 (감독) / 사물 (정밀작업)</t>
+          <t>자료(조정) 사람(감독) 사물(정밀작업)</t>
         </is>
       </c>
       <c r="R80" t="inlineStr"/>
@@ -7643,7 +7639,7 @@
       <c r="V80" t="inlineStr"/>
       <c r="W80" t="inlineStr">
         <is>
-          <t>교양방송연출가, 교양PD</t>
+          <t>교양방송연출가 교양PD</t>
         </is>
       </c>
       <c r="X80" t="inlineStr"/>
@@ -7651,17 +7647,17 @@
       <c r="Z80" t="inlineStr"/>
       <c r="AA80" t="inlineStr">
         <is>
-          <t>[4161]감독 및 기술감독</t>
+          <t>2831</t>
         </is>
       </c>
       <c r="AB80" t="inlineStr">
         <is>
-          <t>[2831]감독 및 기술 감독</t>
+          <t>4161</t>
         </is>
       </c>
       <c r="AC80" t="inlineStr">
         <is>
-          <t>[J591]영화, 비디오물, 방송프로그램 제작 및 배급업 / [J602]텔레비전 방송업</t>
+          <t>J591</t>
         </is>
       </c>
       <c r="AD80" t="inlineStr">
@@ -7732,7 +7728,7 @@
       <c r="P81" t="inlineStr"/>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>자료 (조정) / 사람 (감독) / 사물 (관련없음)</t>
+          <t>자료(조정) 사람(감독) 사물(관련없음)</t>
         </is>
       </c>
       <c r="R81" t="inlineStr"/>
@@ -7750,7 +7746,7 @@
       <c r="V81" t="inlineStr"/>
       <c r="W81" t="inlineStr">
         <is>
-          <t>방송연출가, 뉴스PD</t>
+          <t>방송연출가 뉴스PD</t>
         </is>
       </c>
       <c r="X81" t="inlineStr"/>
@@ -7758,17 +7754,17 @@
       <c r="Z81" t="inlineStr"/>
       <c r="AA81" t="inlineStr">
         <is>
-          <t>[4161]감독 및 기술감독</t>
+          <t>2831</t>
         </is>
       </c>
       <c r="AB81" t="inlineStr">
         <is>
-          <t>[2831]감독 및 기술 감독</t>
+          <t>4161</t>
         </is>
       </c>
       <c r="AC81" t="inlineStr">
         <is>
-          <t>[J591]영화, 비디오물, 방송프로그램 제작 및 배급업 / [J602]텔레비전 방송업</t>
+          <t>J591</t>
         </is>
       </c>
       <c r="AD81" t="inlineStr">
@@ -7839,7 +7835,7 @@
       <c r="P82" t="inlineStr"/>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>자료 (조정) / 사람 (감독) / 사물 (정밀작업)</t>
+          <t>자료(조정) 사람(감독) 사물(정밀작업)</t>
         </is>
       </c>
       <c r="R82" t="inlineStr"/>
@@ -7857,7 +7853,7 @@
       <c r="V82" t="inlineStr"/>
       <c r="W82" t="inlineStr">
         <is>
-          <t>드라마방송연출가, 기획PD, 제작PD</t>
+          <t>드라마방송연출가 기획PD 제작PD</t>
         </is>
       </c>
       <c r="X82" t="inlineStr"/>
@@ -7865,17 +7861,17 @@
       <c r="Z82" t="inlineStr"/>
       <c r="AA82" t="inlineStr">
         <is>
-          <t>[4161]감독 및 기술감독</t>
+          <t>2831</t>
         </is>
       </c>
       <c r="AB82" t="inlineStr">
         <is>
-          <t>[2831]감독 및 기술 감독</t>
+          <t>4161</t>
         </is>
       </c>
       <c r="AC82" t="inlineStr">
         <is>
-          <t>[J591]영화, 비디오물, 방송프로그램 제작 및 배급업 / [J602]텔레비전 방송업</t>
+          <t>J591</t>
         </is>
       </c>
       <c r="AD82" t="inlineStr">
@@ -7946,7 +7942,7 @@
       <c r="P83" t="inlineStr"/>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>자료 (수집) / 사람 (말하기-신호) / 사물 (수동조작)</t>
+          <t>자료(수집) 사람(말하기-신호) 사물(수동조작)</t>
         </is>
       </c>
       <c r="R83" t="inlineStr"/>
@@ -7968,29 +7964,29 @@
       <c r="V83" t="inlineStr"/>
       <c r="W83" t="inlineStr">
         <is>
-          <t>1인크리에이터, 온라인콘텐츠창작자, 인터넷 방송인, 미디어콘텐츠창작자</t>
+          <t>1인크리에이터 온라인콘텐츠창작자 인터넷방송인 미디어콘텐츠창작자</t>
         </is>
       </c>
       <c r="X83" t="inlineStr">
         <is>
-          <t>BJ, 인플루언서, 유튜버, 인스타그래머, 스트리머</t>
+          <t>BJ 인플루언서 유튜버 인스타그래머 스트리머</t>
         </is>
       </c>
       <c r="Y83" t="inlineStr"/>
       <c r="Z83" t="inlineStr"/>
       <c r="AA83" t="inlineStr">
         <is>
-          <t>[4161]감독 및 기술감독</t>
+          <t>2831</t>
         </is>
       </c>
       <c r="AB83" t="inlineStr">
         <is>
-          <t>[2831]감독 및 기술 감독</t>
+          <t>4161</t>
         </is>
       </c>
       <c r="AC83" t="inlineStr">
         <is>
-          <t>[R901]창작 및 예술관련 서비스업</t>
+          <t>R901</t>
         </is>
       </c>
       <c r="AD83" t="inlineStr">
@@ -8061,7 +8057,7 @@
       <c r="P84" t="inlineStr"/>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>자료 (조정) / 사람 (감독) / 사물 (정밀작업)</t>
+          <t>자료(조정) 사람(감독) 사물(정밀작업)</t>
         </is>
       </c>
       <c r="R84" t="inlineStr"/>
@@ -8079,7 +8075,7 @@
       <c r="V84" t="inlineStr"/>
       <c r="W84" t="inlineStr">
         <is>
-          <t>라디오방송연출가, 라디오PD</t>
+          <t>라디오방송연출가 라디오PD</t>
         </is>
       </c>
       <c r="X84" t="inlineStr"/>
@@ -8087,17 +8083,17 @@
       <c r="Z84" t="inlineStr"/>
       <c r="AA84" t="inlineStr">
         <is>
-          <t>[4161]감독 및 기술감독</t>
+          <t>2831</t>
         </is>
       </c>
       <c r="AB84" t="inlineStr">
         <is>
-          <t>[2831]감독 및 기술 감독</t>
+          <t>4161</t>
         </is>
       </c>
       <c r="AC84" t="inlineStr">
         <is>
-          <t>[J591]영화, 비디오물, 방송프로그램 제작 및 배급업 / [J601]라디오 방송업</t>
+          <t>J591</t>
         </is>
       </c>
       <c r="AD84" t="inlineStr">
@@ -8168,7 +8164,7 @@
       <c r="P85" t="inlineStr"/>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>자료 (조정) / 사람 (협의) / 사물 (제어조작)</t>
+          <t>자료(조정) 사람(협의) 사물(제어조작)</t>
         </is>
       </c>
       <c r="R85" t="inlineStr"/>
@@ -8194,7 +8190,7 @@
       </c>
       <c r="W85" t="inlineStr">
         <is>
-          <t>사운드디렉터, 사운드믹싱엔지니어, 사운드엔지니어, 콘서트, 뮤지컬, 행사 등의 경우 라이브사운드엔지니어, 음향·영상 시스템 설계 및 컨설팅을 하는 경우 인스톨엔지니어, 영화나 드라마의 경우 레코딩엔지니어</t>
+          <t>사운드디렉터 사운드믹싱엔지니어 사운드엔지니어 콘서트 뮤지컬 행사등의경우라이브사운드엔지니어 음향·영상시스템설계및컨설팅을하는경우인스톨엔지니어 영화나드라마의경우레코딩엔지니어</t>
         </is>
       </c>
       <c r="X85" t="inlineStr"/>
@@ -8206,17 +8202,17 @@
       </c>
       <c r="AA85" t="inlineStr">
         <is>
-          <t>[4161]감독 및 기술감독</t>
+          <t>2831</t>
         </is>
       </c>
       <c r="AB85" t="inlineStr">
         <is>
-          <t>[2831]감독 및 기술 감독</t>
+          <t>4161</t>
         </is>
       </c>
       <c r="AC85" t="inlineStr">
         <is>
-          <t>[J591]영화, 비디오물, 방송프로그램 제작 및 배급업 / [J601]라디오 방송업 / [J602]텔레비전 방송업</t>
+          <t>J591</t>
         </is>
       </c>
       <c r="AD85" t="inlineStr">
@@ -8287,7 +8283,7 @@
       <c r="P86" t="inlineStr"/>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>자료 (조정) / 사람 (감독) / 사물 (정밀작업)</t>
+          <t>자료(조정) 사람(감독) 사물(정밀작업)</t>
         </is>
       </c>
       <c r="R86" t="inlineStr"/>
@@ -8305,29 +8301,29 @@
       <c r="V86" t="inlineStr"/>
       <c r="W86" t="inlineStr">
         <is>
-          <t>라이브커머스기획자, 라이브커머스감독, 라이브커머스크리에이터</t>
+          <t>라이브커머스기획자 라이브커머스감독 라이브커머스크리에이터</t>
         </is>
       </c>
       <c r="X86" t="inlineStr">
         <is>
-          <t>라이브커머스작가, 모바일쇼호스트</t>
+          <t>라이브커머스작가 모바일쇼호스트</t>
         </is>
       </c>
       <c r="Y86" t="inlineStr"/>
       <c r="Z86" t="inlineStr"/>
       <c r="AA86" t="inlineStr">
         <is>
-          <t>[4161]감독 및 기술감독</t>
+          <t>2831</t>
         </is>
       </c>
       <c r="AB86" t="inlineStr">
         <is>
-          <t>[2831]감독 및 기술 감독</t>
+          <t>4161</t>
         </is>
       </c>
       <c r="AC86" t="inlineStr">
         <is>
-          <t>[J591]영화, 비디오물, 방송프로그램 제작 및 배급업 / [J602]텔레비전 방송업</t>
+          <t>J591</t>
         </is>
       </c>
       <c r="AD86" t="inlineStr">
@@ -8398,7 +8394,7 @@
       <c r="P87" t="inlineStr"/>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>자료 (조정) / 사람 (협의) / 사물 (정밀작업)</t>
+          <t>자료(조정) 사람(협의) 사물(정밀작업)</t>
         </is>
       </c>
       <c r="R87" t="inlineStr"/>
@@ -8424,17 +8420,17 @@
       <c r="Z87" t="inlineStr"/>
       <c r="AA87" t="inlineStr">
         <is>
-          <t>[4161]감독 및 기술감독</t>
+          <t>2831</t>
         </is>
       </c>
       <c r="AB87" t="inlineStr">
         <is>
-          <t>[2831]감독 및 기술 감독</t>
+          <t>4161</t>
         </is>
       </c>
       <c r="AC87" t="inlineStr">
         <is>
-          <t>[J591]영화, 비디오물, 방송프로그램 제작 및 배급업</t>
+          <t>J591</t>
         </is>
       </c>
       <c r="AD87" t="inlineStr">
@@ -8505,7 +8501,7 @@
       <c r="P88" t="inlineStr"/>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>자료 (조정) / 사람 (감독) / 사물 (관련없음)</t>
+          <t>자료(조정) 사람(감독) 사물(관련없음)</t>
         </is>
       </c>
       <c r="R88" t="inlineStr"/>
@@ -8527,17 +8523,17 @@
       <c r="Z88" t="inlineStr"/>
       <c r="AA88" t="inlineStr">
         <is>
-          <t>[4161]감독 및 기술감독</t>
+          <t>2831</t>
         </is>
       </c>
       <c r="AB88" t="inlineStr">
         <is>
-          <t>[2831]감독 및 기술 감독</t>
+          <t>4161</t>
         </is>
       </c>
       <c r="AC88" t="inlineStr">
         <is>
-          <t>[R901]창작 및 예술관련 서비스업</t>
+          <t>R901</t>
         </is>
       </c>
       <c r="AD88" t="inlineStr">
@@ -8608,7 +8604,7 @@
       <c r="P89" t="inlineStr"/>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>자료 (종합) / 사람 (협의) / 사물 (정밀작업)</t>
+          <t>자료(종합) 사람(협의) 사물(정밀작업)</t>
         </is>
       </c>
       <c r="R89" t="inlineStr"/>
@@ -8631,7 +8627,7 @@
       <c r="V89" t="inlineStr"/>
       <c r="W89" t="inlineStr">
         <is>
-          <t>세트디자이너, 프러덕션디자이너</t>
+          <t>세트디자이너 프러덕션디자이너</t>
         </is>
       </c>
       <c r="X89" t="inlineStr"/>
@@ -8639,17 +8635,17 @@
       <c r="Z89" t="inlineStr"/>
       <c r="AA89" t="inlineStr">
         <is>
-          <t>[4161]감독 및 기술감독</t>
+          <t>2831</t>
         </is>
       </c>
       <c r="AB89" t="inlineStr">
         <is>
-          <t>[2831]감독 및 기술 감독</t>
+          <t>4161</t>
         </is>
       </c>
       <c r="AC89" t="inlineStr">
         <is>
-          <t>[R901]창작 및 예술관련 서비스업</t>
+          <t>R901</t>
         </is>
       </c>
       <c r="AD89" t="inlineStr">
@@ -8720,7 +8716,7 @@
       <c r="P90" t="inlineStr"/>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>자료 (조정) / 사람 (감독) / 사물 (관련없음)</t>
+          <t>자료(조정) 사람(감독) 사물(관련없음)</t>
         </is>
       </c>
       <c r="R90" t="inlineStr"/>
@@ -8754,17 +8750,17 @@
       <c r="Z90" t="inlineStr"/>
       <c r="AA90" t="inlineStr">
         <is>
-          <t>[4161]감독 및 기술감독</t>
+          <t>2831</t>
         </is>
       </c>
       <c r="AB90" t="inlineStr">
         <is>
-          <t>[2831]감독 및 기술 감독</t>
+          <t>4161</t>
         </is>
       </c>
       <c r="AC90" t="inlineStr">
         <is>
-          <t>[J591]영화, 비디오물, 방송프로그램 제작 및 배급업 / [J602]텔레비전 방송업</t>
+          <t>J591</t>
         </is>
       </c>
       <c r="AD90" t="inlineStr">
@@ -8835,7 +8831,7 @@
       <c r="P91" t="inlineStr"/>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>자료 (조정) / 사람 (협의) / 사물 (관련없음)</t>
+          <t>자료(조정) 사람(협의) 사물(관련없음)</t>
         </is>
       </c>
       <c r="R91" t="inlineStr"/>
@@ -8857,7 +8853,7 @@
       <c r="V91" t="inlineStr"/>
       <c r="W91" t="inlineStr">
         <is>
-          <t>아트디렉터, 프러덕션디자이너</t>
+          <t>아트디렉터 프러덕션디자이너</t>
         </is>
       </c>
       <c r="X91" t="inlineStr"/>
@@ -8865,17 +8861,17 @@
       <c r="Z91" t="inlineStr"/>
       <c r="AA91" t="inlineStr">
         <is>
-          <t>[4161]감독 및 기술감독</t>
+          <t>2831</t>
         </is>
       </c>
       <c r="AB91" t="inlineStr">
         <is>
-          <t>[2831]감독 및 기술 감독</t>
+          <t>4161</t>
         </is>
       </c>
       <c r="AC91" t="inlineStr">
         <is>
-          <t>[J591]영화, 비디오물, 방송프로그램 제작 및 배급업</t>
+          <t>J591</t>
         </is>
       </c>
       <c r="AD91" t="inlineStr">
@@ -8946,7 +8942,7 @@
       <c r="P92" t="inlineStr"/>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>자료 (조정) / 사람 (감독) / 사물 (제어조작)</t>
+          <t>자료(조정) 사람(감독) 사물(제어조작)</t>
         </is>
       </c>
       <c r="R92" t="inlineStr"/>
@@ -8964,7 +8960,7 @@
       <c r="V92" t="inlineStr"/>
       <c r="W92" t="inlineStr">
         <is>
-          <t>TD(Technical Director)</t>
+          <t>TD(TechnicalDirector)</t>
         </is>
       </c>
       <c r="X92" t="inlineStr"/>
@@ -8972,17 +8968,17 @@
       <c r="Z92" t="inlineStr"/>
       <c r="AA92" t="inlineStr">
         <is>
-          <t>[4161]감독 및 기술감독</t>
+          <t>2831</t>
         </is>
       </c>
       <c r="AB92" t="inlineStr">
         <is>
-          <t>[2831]감독 및 기술 감독</t>
+          <t>4161</t>
         </is>
       </c>
       <c r="AC92" t="inlineStr">
         <is>
-          <t>[J601]라디오 방송업 / [J602]텔레비전 방송업</t>
+          <t>J601</t>
         </is>
       </c>
       <c r="AD92" t="inlineStr">
@@ -9053,7 +9049,7 @@
       <c r="P93" t="inlineStr"/>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>자료 (분석) / 사람 (말하기-신호) / 사물 (제어조작)</t>
+          <t>자료(분석) 사람(말하기-신호) 사물(제어조작)</t>
         </is>
       </c>
       <c r="R93" t="inlineStr"/>
@@ -9075,7 +9071,7 @@
       <c r="V93" t="inlineStr"/>
       <c r="W93" t="inlineStr">
         <is>
-          <t>비디오엔지니어, 비디오맨, 영상기사, 시스템영상기사</t>
+          <t>비디오엔지니어 비디오맨 영상기사 시스템영상기사</t>
         </is>
       </c>
       <c r="X93" t="inlineStr">
@@ -9087,17 +9083,17 @@
       <c r="Z93" t="inlineStr"/>
       <c r="AA93" t="inlineStr">
         <is>
-          <t>[4161]감독 및 기술감독</t>
+          <t>2831</t>
         </is>
       </c>
       <c r="AB93" t="inlineStr">
         <is>
-          <t>[2831]감독 및 기술 감독</t>
+          <t>4161</t>
         </is>
       </c>
       <c r="AC93" t="inlineStr">
         <is>
-          <t>[J602]텔레비전 방송업</t>
+          <t>J602</t>
         </is>
       </c>
       <c r="AD93" t="inlineStr">
@@ -9168,7 +9164,7 @@
       <c r="P94" t="inlineStr"/>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>자료 (조정) / 사람 (협의) / 사물 (정밀작업)</t>
+          <t>자료(조정) 사람(협의) 사물(정밀작업)</t>
         </is>
       </c>
       <c r="R94" t="inlineStr"/>
@@ -9186,7 +9182,7 @@
       <c r="V94" t="inlineStr"/>
       <c r="W94" t="inlineStr">
         <is>
-          <t>MD(Master Director), 주조감독</t>
+          <t>MD(MasterDirector) 주조감독</t>
         </is>
       </c>
       <c r="X94" t="inlineStr"/>
@@ -9194,17 +9190,17 @@
       <c r="Z94" t="inlineStr"/>
       <c r="AA94" t="inlineStr">
         <is>
-          <t>[4161]감독 및 기술감독</t>
+          <t>2831</t>
         </is>
       </c>
       <c r="AB94" t="inlineStr">
         <is>
-          <t>[2831]감독 및 기술 감독</t>
+          <t>4161</t>
         </is>
       </c>
       <c r="AC94" t="inlineStr">
         <is>
-          <t>[J591]영화, 비디오물, 방송프로그램 제작 및 배급업 / [J601]라디오 방송업 / [J602]텔레비전 방송업</t>
+          <t>J591</t>
         </is>
       </c>
       <c r="AD94" t="inlineStr">
@@ -9275,7 +9271,7 @@
       <c r="P95" t="inlineStr"/>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>자료 (조정) / 사람 (협의) / 사물 (관련없음)</t>
+          <t>자료(조정) 사람(협의) 사물(관련없음)</t>
         </is>
       </c>
       <c r="R95" t="inlineStr"/>
@@ -9293,7 +9289,7 @@
       <c r="V95" t="inlineStr"/>
       <c r="W95" t="inlineStr">
         <is>
-          <t>CP(Chief Producer), EP(Executive Producer), 수석프로듀서, 프로덕션매니저</t>
+          <t>CP(ChiefProducer) EP(ExecutiveProducer) 수석프로듀서 프로덕션매니저</t>
         </is>
       </c>
       <c r="X95" t="inlineStr"/>
@@ -9301,17 +9297,17 @@
       <c r="Z95" t="inlineStr"/>
       <c r="AA95" t="inlineStr">
         <is>
-          <t>[4161]감독 및 기술감독</t>
+          <t>2831</t>
         </is>
       </c>
       <c r="AB95" t="inlineStr">
         <is>
-          <t>[2831]감독 및 기술 감독</t>
+          <t>4161</t>
         </is>
       </c>
       <c r="AC95" t="inlineStr">
         <is>
-          <t>[J591]영화, 비디오물, 방송프로그램 제작 및 배급업 / [J601]라디오 방송업 / [J602]텔레비전 방송업</t>
+          <t>J591</t>
         </is>
       </c>
       <c r="AD95" t="inlineStr">
@@ -9382,7 +9378,7 @@
       <c r="P96" t="inlineStr"/>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>자료 (조정) / 사람 (협의) / 사물 (제어조작)</t>
+          <t>자료(조정) 사람(협의) 사물(제어조작)</t>
         </is>
       </c>
       <c r="R96" t="inlineStr"/>
@@ -9413,17 +9409,17 @@
       <c r="Z96" t="inlineStr"/>
       <c r="AA96" t="inlineStr">
         <is>
-          <t>[4161]감독 및 기술감독</t>
+          <t>2831</t>
         </is>
       </c>
       <c r="AB96" t="inlineStr">
         <is>
-          <t>[2831]감독 및 기술 감독</t>
+          <t>4161</t>
         </is>
       </c>
       <c r="AC96" t="inlineStr">
         <is>
-          <t>[R901]창작 및 예술관련 서비스업</t>
+          <t>R901</t>
         </is>
       </c>
       <c r="AD96" t="inlineStr">
@@ -9494,7 +9490,7 @@
       <c r="P97" t="inlineStr"/>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>자료 (조정) / 사람 (감독) / 사물 (정밀작업)</t>
+          <t>자료(조정) 사람(감독) 사물(정밀작업)</t>
         </is>
       </c>
       <c r="R97" t="inlineStr"/>
@@ -9512,7 +9508,7 @@
       <c r="V97" t="inlineStr"/>
       <c r="W97" t="inlineStr">
         <is>
-          <t>스포츠방송연출가, 스포츠PD</t>
+          <t>스포츠방송연출가 스포츠PD</t>
         </is>
       </c>
       <c r="X97" t="inlineStr"/>
@@ -9520,17 +9516,17 @@
       <c r="Z97" t="inlineStr"/>
       <c r="AA97" t="inlineStr">
         <is>
-          <t>[4161]감독 및 기술감독</t>
+          <t>2831</t>
         </is>
       </c>
       <c r="AB97" t="inlineStr">
         <is>
-          <t>[2831]감독 및 기술 감독</t>
+          <t>4161</t>
         </is>
       </c>
       <c r="AC97" t="inlineStr">
         <is>
-          <t>[J591]영화, 비디오물, 방송프로그램 제작 및 배급업 / [J602]텔레비전 방송업</t>
+          <t>J591</t>
         </is>
       </c>
       <c r="AD97" t="inlineStr">
@@ -9601,7 +9597,7 @@
       <c r="P98" t="inlineStr"/>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>자료 (조정) / 사람 (감독) / 사물 (정밀작업)</t>
+          <t>자료(조정) 사람(감독) 사물(정밀작업)</t>
         </is>
       </c>
       <c r="R98" t="inlineStr"/>
@@ -9619,29 +9615,29 @@
       <c r="V98" t="inlineStr"/>
       <c r="W98" t="inlineStr">
         <is>
-          <t>시사다큐방송연출가, 시사다큐PD</t>
+          <t>시사다큐방송연출가 시사다큐PD</t>
         </is>
       </c>
       <c r="X98" t="inlineStr">
         <is>
-          <t>자유창작자로서 기획/연출/제작 업무를 수행하는 경우 독립피디</t>
+          <t>자유창작자로서기획/연출/제작업무를수행하는경우독립피디</t>
         </is>
       </c>
       <c r="Y98" t="inlineStr"/>
       <c r="Z98" t="inlineStr"/>
       <c r="AA98" t="inlineStr">
         <is>
-          <t>[4161]감독 및 기술감독</t>
+          <t>2831</t>
         </is>
       </c>
       <c r="AB98" t="inlineStr">
         <is>
-          <t>[2831]감독 및 기술 감독</t>
+          <t>4161</t>
         </is>
       </c>
       <c r="AC98" t="inlineStr">
         <is>
-          <t>[J591]영화, 비디오물, 방송프로그램 제작 및 배급업 / [J602]텔레비전 방송업</t>
+          <t>J591</t>
         </is>
       </c>
       <c r="AD98" t="inlineStr">
@@ -9712,7 +9708,7 @@
       <c r="P99" t="inlineStr"/>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>자료 (조정) / 사람 (협의) / 사물 (관련없음)</t>
+          <t>자료(조정) 사람(협의) 사물(관련없음)</t>
         </is>
       </c>
       <c r="R99" t="inlineStr"/>
@@ -9738,17 +9734,17 @@
       <c r="Z99" t="inlineStr"/>
       <c r="AA99" t="inlineStr">
         <is>
-          <t>[4161]감독 및 기술감독</t>
+          <t>2831</t>
         </is>
       </c>
       <c r="AB99" t="inlineStr">
         <is>
-          <t>[2831]감독 및 기술 감독</t>
+          <t>4161</t>
         </is>
       </c>
       <c r="AC99" t="inlineStr">
         <is>
-          <t>[R901]창작 및 예술관련 서비스업</t>
+          <t>R901</t>
         </is>
       </c>
       <c r="AD99" t="inlineStr">
@@ -9819,7 +9815,7 @@
       <c r="P100" t="inlineStr"/>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>자료 (종합) / 사람 (말하기-신호) / 사물 (정밀작업)</t>
+          <t>자료(종합) 사람(말하기-신호) 사물(정밀작업)</t>
         </is>
       </c>
       <c r="R100" t="inlineStr"/>
@@ -9853,17 +9849,17 @@
       </c>
       <c r="AA100" t="inlineStr">
         <is>
-          <t>[4161]감독 및 기술감독</t>
+          <t>2831</t>
         </is>
       </c>
       <c r="AB100" t="inlineStr">
         <is>
-          <t>[2831]감독 및 기술 감독</t>
+          <t>4161</t>
         </is>
       </c>
       <c r="AC100" t="inlineStr">
         <is>
-          <t>[J591]영화, 비디오물, 방송프로그램 제작 및 배급업 / [J602]텔레비전 방송업</t>
+          <t>J591</t>
         </is>
       </c>
       <c r="AD100" t="inlineStr">
@@ -9934,7 +9930,7 @@
       <c r="P101" t="inlineStr"/>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>자료 (조정) / 사람 (협의) / 사물 (관련없음)</t>
+          <t>자료(조정) 사람(협의) 사물(관련없음)</t>
         </is>
       </c>
       <c r="R101" t="inlineStr"/>
@@ -9953,24 +9949,24 @@
       <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr">
         <is>
-          <t>독립영화감독, 영화편집감독</t>
+          <t>독립영화감독 영화편집감독</t>
         </is>
       </c>
       <c r="Y101" t="inlineStr"/>
       <c r="Z101" t="inlineStr"/>
       <c r="AA101" t="inlineStr">
         <is>
-          <t>[4161]감독 및 기술감독</t>
+          <t>2831</t>
         </is>
       </c>
       <c r="AB101" t="inlineStr">
         <is>
-          <t>[2831]감독 및 기술 감독</t>
+          <t>4161</t>
         </is>
       </c>
       <c r="AC101" t="inlineStr">
         <is>
-          <t>[J591]영화, 비디오물, 방송프로그램 제작 및 배급업</t>
+          <t>J591</t>
         </is>
       </c>
       <c r="AD101" t="inlineStr">
@@ -10041,7 +10037,7 @@
       <c r="P102" t="inlineStr"/>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>자료 (분석) / 사람 (감독) / 사물 (정밀작업)</t>
+          <t>자료(분석) 사람(감독) 사물(정밀작업)</t>
         </is>
       </c>
       <c r="R102" t="inlineStr"/>
@@ -10067,17 +10063,17 @@
       <c r="Z102" t="inlineStr"/>
       <c r="AA102" t="inlineStr">
         <is>
-          <t>[4161]감독 및 기술감독</t>
+          <t>2831</t>
         </is>
       </c>
       <c r="AB102" t="inlineStr">
         <is>
-          <t>[2831]감독 및 기술 감독</t>
+          <t>4161</t>
         </is>
       </c>
       <c r="AC102" t="inlineStr">
         <is>
-          <t>[J591]영화, 비디오물, 방송프로그램 제작 및 배급업</t>
+          <t>J591</t>
         </is>
       </c>
       <c r="AD102" t="inlineStr">
@@ -10148,7 +10144,7 @@
       <c r="P103" t="inlineStr"/>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>자료 (조정) / 사람 (협의) / 사물 (관련없음)</t>
+          <t>자료(조정) 사람(협의) 사물(관련없음)</t>
         </is>
       </c>
       <c r="R103" t="inlineStr"/>
@@ -10171,7 +10167,7 @@
       <c r="V103" t="inlineStr"/>
       <c r="W103" t="inlineStr">
         <is>
-          <t>line Producer, 프로덕션매니저(Production Manager)</t>
+          <t>lineProducer 프로덕션매니저(ProductionManager)</t>
         </is>
       </c>
       <c r="X103" t="inlineStr"/>
@@ -10179,17 +10175,17 @@
       <c r="Z103" t="inlineStr"/>
       <c r="AA103" t="inlineStr">
         <is>
-          <t>[4161]감독 및 기술감독</t>
+          <t>2831</t>
         </is>
       </c>
       <c r="AB103" t="inlineStr">
         <is>
-          <t>[2831]감독 및 기술 감독</t>
+          <t>4161</t>
         </is>
       </c>
       <c r="AC103" t="inlineStr">
         <is>
-          <t>[J591]영화, 비디오물, 방송프로그램 제작 및 배급업</t>
+          <t>J591</t>
         </is>
       </c>
       <c r="AD103" t="inlineStr">
@@ -10260,7 +10256,7 @@
       <c r="P104" t="inlineStr"/>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>자료 (조정) / 사람 (협의) / 사물 (관련없음)</t>
+          <t>자료(조정) 사람(협의) 사물(관련없음)</t>
         </is>
       </c>
       <c r="R104" t="inlineStr"/>
@@ -10283,7 +10279,7 @@
       <c r="V104" t="inlineStr"/>
       <c r="W104" t="inlineStr">
         <is>
-          <t>영화콘티작가, 스토리보드아티스트</t>
+          <t>영화콘티작가 스토리보드아티스트</t>
         </is>
       </c>
       <c r="X104" t="inlineStr"/>
@@ -10291,17 +10287,17 @@
       <c r="Z104" t="inlineStr"/>
       <c r="AA104" t="inlineStr">
         <is>
-          <t>[4161]감독 및 기술감독</t>
+          <t>2831</t>
         </is>
       </c>
       <c r="AB104" t="inlineStr">
         <is>
-          <t>[2831]감독 및 기술 감독</t>
+          <t>4161</t>
         </is>
       </c>
       <c r="AC104" t="inlineStr">
         <is>
-          <t>[J591]영화, 비디오물, 방송프로그램 제작 및 배급업</t>
+          <t>J591</t>
         </is>
       </c>
       <c r="AD104" t="inlineStr">
@@ -10372,7 +10368,7 @@
       <c r="P105" t="inlineStr"/>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>자료 (비교) / 사람 (말하기-신호) / 사물 (조작운전)</t>
+          <t>자료(비교) 사람(말하기-신호) 사물(조작운전)</t>
         </is>
       </c>
       <c r="R105" t="inlineStr"/>
@@ -10395,7 +10391,7 @@
       <c r="V105" t="inlineStr"/>
       <c r="W105" t="inlineStr">
         <is>
-          <t>티저예고편제작자, 메인예고편제작자</t>
+          <t>티저예고편제작자 메인예고편제작자</t>
         </is>
       </c>
       <c r="X105" t="inlineStr"/>
@@ -10403,17 +10399,17 @@
       <c r="Z105" t="inlineStr"/>
       <c r="AA105" t="inlineStr">
         <is>
-          <t>[4161]감독 및 기술감독</t>
+          <t>2831</t>
         </is>
       </c>
       <c r="AB105" t="inlineStr">
         <is>
-          <t>[2831]감독 및 기술 감독</t>
+          <t>4161</t>
         </is>
       </c>
       <c r="AC105" t="inlineStr">
         <is>
-          <t>[J591]영화, 비디오물, 방송프로그램 제작 및 배급업</t>
+          <t>J591</t>
         </is>
       </c>
       <c r="AD105" t="inlineStr">
@@ -10484,7 +10480,7 @@
       <c r="P106" t="inlineStr"/>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>자료 (조정) / 사람 (감독) / 사물 (정밀작업)</t>
+          <t>자료(조정) 사람(감독) 사물(정밀작업)</t>
         </is>
       </c>
       <c r="R106" t="inlineStr"/>
@@ -10502,7 +10498,7 @@
       <c r="V106" t="inlineStr"/>
       <c r="W106" t="inlineStr">
         <is>
-          <t>예능방송연출가, 예능PD</t>
+          <t>예능방송연출가 예능PD</t>
         </is>
       </c>
       <c r="X106" t="inlineStr"/>
@@ -10510,17 +10506,17 @@
       <c r="Z106" t="inlineStr"/>
       <c r="AA106" t="inlineStr">
         <is>
-          <t>[4161]감독 및 기술감독</t>
+          <t>2831</t>
         </is>
       </c>
       <c r="AB106" t="inlineStr">
         <is>
-          <t>[2831]감독 및 기술 감독</t>
+          <t>4161</t>
         </is>
       </c>
       <c r="AC106" t="inlineStr">
         <is>
-          <t>[J591]영화, 비디오물, 방송프로그램 제작 및 배급업</t>
+          <t>J591</t>
         </is>
       </c>
       <c r="AD106" t="inlineStr">
@@ -10591,7 +10587,7 @@
       <c r="P107" t="inlineStr"/>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>자료 (조정) / 사람 (협의) / 사물 (관련없음)</t>
+          <t>자료(조정) 사람(협의) 사물(관련없음)</t>
         </is>
       </c>
       <c r="R107" t="inlineStr"/>
@@ -10613,7 +10609,7 @@
       <c r="V107" t="inlineStr"/>
       <c r="W107" t="inlineStr">
         <is>
-          <t>음반제작자, 음반PD</t>
+          <t>음반제작자 음반PD</t>
         </is>
       </c>
       <c r="X107" t="inlineStr"/>
@@ -10621,17 +10617,17 @@
       <c r="Z107" t="inlineStr"/>
       <c r="AA107" t="inlineStr">
         <is>
-          <t>[4161]감독 및 기술감독</t>
+          <t>2831</t>
         </is>
       </c>
       <c r="AB107" t="inlineStr">
         <is>
-          <t>[2831]감독 및 기술 감독</t>
+          <t>4161</t>
         </is>
       </c>
       <c r="AC107" t="inlineStr">
         <is>
-          <t>[R901]창작 및 예술관련 서비스업</t>
+          <t>R901</t>
         </is>
       </c>
       <c r="AD107" t="inlineStr">
@@ -10702,7 +10698,7 @@
       <c r="P108" t="inlineStr"/>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>자료 (종합) / 사람 (협의) / 사물 (수동조작)</t>
+          <t>자료(종합) 사람(협의) 사물(수동조작)</t>
         </is>
       </c>
       <c r="R108" t="inlineStr"/>
@@ -10725,24 +10721,24 @@
       <c r="W108" t="inlineStr"/>
       <c r="X108" t="inlineStr">
         <is>
-          <t>뮤지컬음악감독, 영화음악감독</t>
+          <t>뮤지컬음악감독 영화음악감독</t>
         </is>
       </c>
       <c r="Y108" t="inlineStr"/>
       <c r="Z108" t="inlineStr"/>
       <c r="AA108" t="inlineStr">
         <is>
-          <t>[4161]감독 및 기술감독</t>
+          <t>2831</t>
         </is>
       </c>
       <c r="AB108" t="inlineStr">
         <is>
-          <t>[2831]감독 및 기술 감독</t>
+          <t>4161</t>
         </is>
       </c>
       <c r="AC108" t="inlineStr">
         <is>
-          <t>[J591]영화, 비디오물, 방송프로그램 제작 및 배급업 / [J602]텔레비전 방송업 / [R901]창작 및 예술관련 서비스업</t>
+          <t>J591</t>
         </is>
       </c>
       <c r="AD108" t="inlineStr">
@@ -10813,7 +10809,7 @@
       <c r="P109" t="inlineStr"/>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>자료 (조정) / 사람 (협의) / 사물 (제어조작)</t>
+          <t>자료(조정) 사람(협의) 사물(제어조작)</t>
         </is>
       </c>
       <c r="R109" t="inlineStr"/>
@@ -10839,7 +10835,7 @@
       </c>
       <c r="W109" t="inlineStr">
         <is>
-          <t>사운드디렉터, 사운드믹싱엔지니어, 사운드엔지니어</t>
+          <t>사운드디렉터 사운드믹싱엔지니어 사운드엔지니어</t>
         </is>
       </c>
       <c r="X109" t="inlineStr"/>
@@ -10851,17 +10847,17 @@
       </c>
       <c r="AA109" t="inlineStr">
         <is>
-          <t>[4161]감독 및 기술감독</t>
+          <t>2831</t>
         </is>
       </c>
       <c r="AB109" t="inlineStr">
         <is>
-          <t>[2831]감독 및 기술 감독</t>
+          <t>4161</t>
         </is>
       </c>
       <c r="AC109" t="inlineStr">
         <is>
-          <t>[J591]영화, 비디오물, 방송프로그램 제작 및 배급업 / [J601]라디오 방송업 / [J602]텔레비전 방송업</t>
+          <t>J591</t>
         </is>
       </c>
       <c r="AD109" t="inlineStr">
@@ -10932,7 +10928,7 @@
       <c r="P110" t="inlineStr"/>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>자료 (조정) / 사람 (감독) / 사물 (관련없음)</t>
+          <t>자료(조정) 사람(감독) 사물(관련없음)</t>
         </is>
       </c>
       <c r="R110" t="inlineStr"/>
@@ -10954,12 +10950,12 @@
       <c r="V110" t="inlineStr"/>
       <c r="W110" t="inlineStr">
         <is>
-          <t>LD(Lighting Director)</t>
+          <t>LD(LightingDirector)</t>
         </is>
       </c>
       <c r="X110" t="inlineStr">
         <is>
-          <t>영화조명감독, 연극조명감독, 방송조명감독, 조명디자이너, 조명연출가</t>
+          <t>영화조명감독 연극조명감독 방송조명감독 조명디자이너 조명연출가</t>
         </is>
       </c>
       <c r="Y110" t="inlineStr"/>
@@ -10970,17 +10966,17 @@
       </c>
       <c r="AA110" t="inlineStr">
         <is>
-          <t>[4161]감독 및 기술감독</t>
+          <t>2831</t>
         </is>
       </c>
       <c r="AB110" t="inlineStr">
         <is>
-          <t>[2831]감독 및 기술 감독</t>
+          <t>4161</t>
         </is>
       </c>
       <c r="AC110" t="inlineStr">
         <is>
-          <t>[J591]영화, 비디오물, 방송프로그램 제작 및 배급업 / [J602]텔레비전 방송업 / [R901]창작 및 예술관련 서비스업</t>
+          <t>J591</t>
         </is>
       </c>
       <c r="AD110" t="inlineStr">
@@ -11051,7 +11047,7 @@
       <c r="P111" t="inlineStr"/>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>자료 (조정) / 사람 (협의) / 사물 (유지)</t>
+          <t>자료(조정) 사람(협의) 사물(유지)</t>
         </is>
       </c>
       <c r="R111" t="inlineStr"/>
@@ -11069,7 +11065,7 @@
       <c r="V111" t="inlineStr"/>
       <c r="W111" t="inlineStr">
         <is>
-          <t>보조프로듀서, 보조PD, AD(Assistant Director)</t>
+          <t>보조프로듀서 보조PD AD(AssistantDirector)</t>
         </is>
       </c>
       <c r="X111" t="inlineStr"/>
@@ -11077,17 +11073,17 @@
       <c r="Z111" t="inlineStr"/>
       <c r="AA111" t="inlineStr">
         <is>
-          <t>[4161]감독 및 기술감독</t>
+          <t>2831</t>
         </is>
       </c>
       <c r="AB111" t="inlineStr">
         <is>
-          <t>[2831]감독 및 기술 감독</t>
+          <t>4161</t>
         </is>
       </c>
       <c r="AC111" t="inlineStr">
         <is>
-          <t>[J601]라디오 방송업 / [J602]텔레비전 방송업</t>
+          <t>J601</t>
         </is>
       </c>
       <c r="AD111" t="inlineStr">
@@ -11158,7 +11154,7 @@
       <c r="P112" t="inlineStr"/>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>자료 (조정) / 사람 (협의) / 사물 (관련없음)</t>
+          <t>자료(조정) 사람(협의) 사물(관련없음)</t>
         </is>
       </c>
       <c r="R112" t="inlineStr"/>
@@ -11180,17 +11176,17 @@
       <c r="Z112" t="inlineStr"/>
       <c r="AA112" t="inlineStr">
         <is>
-          <t>[4161]감독 및 기술감독</t>
+          <t>2831</t>
         </is>
       </c>
       <c r="AB112" t="inlineStr">
         <is>
-          <t>[2831]감독 및 기술 감독</t>
+          <t>4161</t>
         </is>
       </c>
       <c r="AC112" t="inlineStr">
         <is>
-          <t>[J591]영화, 비디오물, 방송프로그램 제작 및 배급업</t>
+          <t>J591</t>
         </is>
       </c>
       <c r="AD112" t="inlineStr">
@@ -11261,7 +11257,7 @@
       <c r="P113" t="inlineStr"/>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>자료 (조정) / 사람 (협의) / 사물 (제어조작)</t>
+          <t>자료(조정) 사람(협의) 사물(제어조작)</t>
         </is>
       </c>
       <c r="R113" t="inlineStr"/>
@@ -11288,24 +11284,24 @@
       </c>
       <c r="X113" t="inlineStr">
         <is>
-          <t>영화촬영감독, 방송촬영감독</t>
+          <t>영화촬영감독 방송촬영감독</t>
         </is>
       </c>
       <c r="Y113" t="inlineStr"/>
       <c r="Z113" t="inlineStr"/>
       <c r="AA113" t="inlineStr">
         <is>
-          <t>[4161]감독 및 기술감독</t>
+          <t>2831</t>
         </is>
       </c>
       <c r="AB113" t="inlineStr">
         <is>
-          <t>[2831]감독 및 기술 감독</t>
+          <t>4161</t>
         </is>
       </c>
       <c r="AC113" t="inlineStr">
         <is>
-          <t>[J591]영화, 비디오물, 방송프로그램 제작 및 배급업 / [J602]텔레비전 방송업</t>
+          <t>J591</t>
         </is>
       </c>
       <c r="AD113" t="inlineStr">
@@ -11376,7 +11372,7 @@
       <c r="P114" t="inlineStr"/>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>자료 (조정) / 사람 (협의) / 사물 (관련없음)</t>
+          <t>자료(조정) 사람(협의) 사물(관련없음)</t>
         </is>
       </c>
       <c r="R114" t="inlineStr"/>
@@ -11398,17 +11394,17 @@
       <c r="Z114" t="inlineStr"/>
       <c r="AA114" t="inlineStr">
         <is>
-          <t>[4161]감독 및 기술감독</t>
+          <t>2831</t>
         </is>
       </c>
       <c r="AB114" t="inlineStr">
         <is>
-          <t>[2831]감독 및 기술 감독</t>
+          <t>4161</t>
         </is>
       </c>
       <c r="AC114" t="inlineStr">
         <is>
-          <t>[J591]영화, 비디오물, 방송프로그램 제작 및 배급업</t>
+          <t>J591</t>
         </is>
       </c>
       <c r="AD114" t="inlineStr">
@@ -11479,7 +11475,7 @@
       <c r="P115" t="inlineStr"/>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>자료 (조정) / 사람 (협의) / 사물 (관련없음)</t>
+          <t>자료(조정) 사람(협의) 사물(관련없음)</t>
         </is>
       </c>
       <c r="R115" t="inlineStr"/>
@@ -11505,17 +11501,17 @@
       <c r="Z115" t="inlineStr"/>
       <c r="AA115" t="inlineStr">
         <is>
-          <t>[4161]감독 및 기술감독</t>
+          <t>2831</t>
         </is>
       </c>
       <c r="AB115" t="inlineStr">
         <is>
-          <t>[2831]감독 및 기술 감독</t>
+          <t>4161</t>
         </is>
       </c>
       <c r="AC115" t="inlineStr">
         <is>
-          <t>[J601]라디오 방송업 / [J602]텔레비전 방송업</t>
+          <t>J601</t>
         </is>
       </c>
       <c r="AD115" t="inlineStr">
@@ -11586,7 +11582,7 @@
       <c r="P116" t="inlineStr"/>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>자료 (분석) / 사람 (감독) / 사물 (관련없음)</t>
+          <t>자료(분석) 사람(감독) 사물(관련없음)</t>
         </is>
       </c>
       <c r="R116" t="inlineStr"/>
@@ -11608,17 +11604,17 @@
       <c r="Z116" t="inlineStr"/>
       <c r="AA116" t="inlineStr">
         <is>
-          <t>[4161]감독 및 기술감독</t>
+          <t>2831</t>
         </is>
       </c>
       <c r="AB116" t="inlineStr">
         <is>
-          <t>[2831]감독 및 기술 감독</t>
+          <t>4161</t>
         </is>
       </c>
       <c r="AC116" t="inlineStr">
         <is>
-          <t>[J591]영화, 비디오물, 방송프로그램 제작 및 배급업</t>
+          <t>J591</t>
         </is>
       </c>
       <c r="AD116" t="inlineStr">
@@ -11689,7 +11685,7 @@
       <c r="P117" t="inlineStr"/>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>자료 (조정) / 사람 (협의) / 사물 (관련없음)</t>
+          <t>자료(조정) 사람(협의) 사물(관련없음)</t>
         </is>
       </c>
       <c r="R117" t="inlineStr"/>
@@ -11707,29 +11703,29 @@
       <c r="V117" t="inlineStr"/>
       <c r="W117" t="inlineStr">
         <is>
-          <t>사장, 대표이사, CEO(Chief Executive Officer), 최고경영자</t>
+          <t>사장 대표이사 CEO(ChiefExecutiveOfficer) 최고경영자</t>
         </is>
       </c>
       <c r="X117" t="inlineStr">
         <is>
-          <t>CPO (개인정보보호책임자(Chief Privacy Officer)), CIO (최고정보관리책임자(Chief Information Officer)), CMO (최고마케팅책임자(Chief Marketing Officer)), CTO (최고기술책임자(Chief Technology Officer)), CFO (최고재무책임자(Chief Financial Officer)), COO (최고운영책임자(Cheif Operating Officer)), CKO (최고지식경영자(Chief Knowledge Officer)), CAO (최고행정관리자(Chief Administration Officer))</t>
+          <t>CPO(개인정보보호책임자(ChiefPrivacyOfficer)) CIO(최고정보관리책임자(ChiefInformationOfficer)) CMO(최고마케팅책임자(ChiefMarketingOfficer)) CTO(최고기술책임자(ChiefTechnologyOfficer)) CFO(최고재무책임자(ChiefFinancialOfficer)) COO(최고운영책임자(CheifOperatingOfficer)) CKO(최고지식경영자(ChiefKnowledgeOfficer)) CAO(최고행정관리자(ChiefAdministrationOfficer))</t>
         </is>
       </c>
       <c r="Y117" t="inlineStr"/>
       <c r="Z117" t="inlineStr"/>
       <c r="AA117" t="inlineStr">
         <is>
-          <t>[0112]기업 고위임원</t>
+          <t>1120</t>
         </is>
       </c>
       <c r="AB117" t="inlineStr">
         <is>
-          <t>[1120]기업 고위 임원</t>
+          <t>0112</t>
         </is>
       </c>
       <c r="AC117" t="inlineStr">
         <is>
-          <t>전산업</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AD117" t="inlineStr">
@@ -11800,7 +11796,7 @@
       <c r="P118" t="inlineStr"/>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>자료 (조정) / 사람 (협의) / 사물 (제어조작)</t>
+          <t>자료(조정) 사람(협의) 사물(제어조작)</t>
         </is>
       </c>
       <c r="R118" t="inlineStr"/>
@@ -11818,29 +11814,29 @@
       <c r="V118" t="inlineStr"/>
       <c r="W118" t="inlineStr">
         <is>
-          <t>CISO(Chief Information Security Officer)</t>
+          <t>CISO(ChiefInformationSecurityOfficer)</t>
         </is>
       </c>
       <c r="X118" t="inlineStr">
         <is>
-          <t>개인정보보호책임자, 정보호책임관(CIO), 최고보안책임자(CSO)</t>
+          <t>개인정보보호책임자 정보호책임관(CIO) 최고보안책임자(CSO)</t>
         </is>
       </c>
       <c r="Y118" t="inlineStr"/>
       <c r="Z118" t="inlineStr"/>
       <c r="AA118" t="inlineStr">
         <is>
-          <t>[0112]기업 고위임원</t>
+          <t>1120</t>
         </is>
       </c>
       <c r="AB118" t="inlineStr">
         <is>
-          <t>[1120]기업 고위 임원</t>
+          <t>0112</t>
         </is>
       </c>
       <c r="AC118" t="inlineStr">
         <is>
-          <t>전산업</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AD118" t="inlineStr">
@@ -11911,7 +11907,7 @@
       <c r="P119" t="inlineStr"/>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>자료 (조정) / 사람 (협의) / 사물 (관련없음)</t>
+          <t>자료(조정) 사람(협의) 사물(관련없음)</t>
         </is>
       </c>
       <c r="R119" t="inlineStr"/>
@@ -11929,7 +11925,7 @@
       <c r="V119" t="inlineStr"/>
       <c r="W119" t="inlineStr">
         <is>
-          <t>CTO(Chief Technology Officer), 테크니컬리더</t>
+          <t>CTO(ChiefTechnologyOfficer) 테크니컬리더</t>
         </is>
       </c>
       <c r="X119" t="inlineStr"/>
@@ -11937,17 +11933,17 @@
       <c r="Z119" t="inlineStr"/>
       <c r="AA119" t="inlineStr">
         <is>
-          <t>[0112]기업 고위임원</t>
+          <t>1120</t>
         </is>
       </c>
       <c r="AB119" t="inlineStr">
         <is>
-          <t>[1120]기업 고위 임원</t>
+          <t>0112</t>
         </is>
       </c>
       <c r="AC119" t="inlineStr">
         <is>
-          <t>전산업</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AD119" t="inlineStr">
@@ -12018,7 +12014,7 @@
       <c r="P120" t="inlineStr"/>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>자료 (조정) / 사람 (협의) / 사물 (관련없음)</t>
+          <t>자료(조정) 사람(협의) 사물(관련없음)</t>
         </is>
       </c>
       <c r="R120" t="inlineStr"/>
@@ -12036,7 +12032,7 @@
       <c r="V120" t="inlineStr"/>
       <c r="W120" t="inlineStr">
         <is>
-          <t>CMO(Chief Marketing Officer), 마케팅리더, 마케팅총괄</t>
+          <t>CMO(ChiefMarketingOfficer) 마케팅리더 마케팅총괄</t>
         </is>
       </c>
       <c r="X120" t="inlineStr"/>
@@ -12044,17 +12040,17 @@
       <c r="Z120" t="inlineStr"/>
       <c r="AA120" t="inlineStr">
         <is>
-          <t>[0112]기업 고위임원</t>
+          <t>1120</t>
         </is>
       </c>
       <c r="AB120" t="inlineStr">
         <is>
-          <t>[1120]기업 고위 임원</t>
+          <t>0112</t>
         </is>
       </c>
       <c r="AC120" t="inlineStr">
         <is>
-          <t>전산업</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AD120" t="inlineStr">
@@ -12125,7 +12121,7 @@
       <c r="P121" t="inlineStr"/>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>자료 (조정) / 사람 (협의) / 사물 (관련없음)</t>
+          <t>자료(조정) 사람(협의) 사물(관련없음)</t>
         </is>
       </c>
       <c r="R121" t="inlineStr"/>
@@ -12143,7 +12139,7 @@
       <c r="V121" t="inlineStr"/>
       <c r="W121" t="inlineStr">
         <is>
-          <t>COO(Chief Operating Officer)</t>
+          <t>COO(ChiefOperatingOfficer)</t>
         </is>
       </c>
       <c r="X121" t="inlineStr"/>
@@ -12151,17 +12147,17 @@
       <c r="Z121" t="inlineStr"/>
       <c r="AA121" t="inlineStr">
         <is>
-          <t>[0112]기업 고위임원</t>
+          <t>1120</t>
         </is>
       </c>
       <c r="AB121" t="inlineStr">
         <is>
-          <t>[1120]기업 고위 임원</t>
+          <t>0112</t>
         </is>
       </c>
       <c r="AC121" t="inlineStr">
         <is>
-          <t>전산업</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AD121" t="inlineStr">
@@ -12232,7 +12228,7 @@
       <c r="P122" t="inlineStr"/>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>자료 (조정) / 사람 (협의) / 사물 (관련없음)</t>
+          <t>자료(조정) 사람(협의) 사물(관련없음)</t>
         </is>
       </c>
       <c r="R122" t="inlineStr"/>
@@ -12250,7 +12246,7 @@
       <c r="V122" t="inlineStr"/>
       <c r="W122" t="inlineStr">
         <is>
-          <t>CFO(Chief Financial Officer), 재무담당관리자, 재무총괄</t>
+          <t>CFO(ChiefFinancialOfficer) 재무담당관리자 재무총괄</t>
         </is>
       </c>
       <c r="X122" t="inlineStr"/>
@@ -12262,17 +12258,17 @@
       </c>
       <c r="AA122" t="inlineStr">
         <is>
-          <t>[0112]기업 고위임원</t>
+          <t>1120</t>
         </is>
       </c>
       <c r="AB122" t="inlineStr">
         <is>
-          <t>[1120]기업 고위 임원</t>
+          <t>0112</t>
         </is>
       </c>
       <c r="AC122" t="inlineStr">
         <is>
-          <t>전산업</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AD122" t="inlineStr">
@@ -12343,7 +12339,7 @@
       <c r="P123" t="inlineStr"/>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>자료 (분석) / 사람 (관련없음) / 사물 (정밀작업)</t>
+          <t>자료(분석) 사람(관련없음) 사물(정밀작업)</t>
         </is>
       </c>
       <c r="R123" t="inlineStr"/>
@@ -12367,7 +12363,7 @@
       <c r="W123" t="inlineStr"/>
       <c r="X123" t="inlineStr">
         <is>
-          <t>분야에 따라 뷰티메이크업아티스트, 웨딩메이크업아티스트, 무대메이크업아티스트, 광고메이크업아티스트, 포토메이크업아티스트, 패션메이크업아티스트</t>
+          <t>분야에따라뷰티메이크업아티스트 웨딩메이크업아티스트 무대메이크업아티스트 광고메이크업아티스트 포토메이크업아티스트 패션메이크업아티스트</t>
         </is>
       </c>
       <c r="Y123" t="inlineStr"/>
@@ -12378,17 +12374,17 @@
       </c>
       <c r="AA123" t="inlineStr">
         <is>
-          <t>[5114]메이크업 아티스트 및 분장사</t>
+          <t>4224</t>
         </is>
       </c>
       <c r="AB123" t="inlineStr">
         <is>
-          <t>[4224]메이크업 아티스트 및 분장사</t>
+          <t>5114</t>
         </is>
       </c>
       <c r="AC123" t="inlineStr">
         <is>
-          <t>[S961]미용, 욕탕 및 유사 서비스업</t>
+          <t>S961</t>
         </is>
       </c>
       <c r="AD123" t="inlineStr">
@@ -12459,7 +12455,7 @@
       <c r="P124" t="inlineStr"/>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>자료 (종합) / 사람 (관련없음) / 사물 (정밀작업)</t>
+          <t>자료(종합) 사람(관련없음) 사물(정밀작업)</t>
         </is>
       </c>
       <c r="R124" t="inlineStr"/>
@@ -12491,17 +12487,17 @@
       <c r="Z124" t="inlineStr"/>
       <c r="AA124" t="inlineStr">
         <is>
-          <t>[5114]메이크업 아티스트 및 분장사</t>
+          <t>4224</t>
         </is>
       </c>
       <c r="AB124" t="inlineStr">
         <is>
-          <t>[4224]메이크업 아티스트 및 분장사</t>
+          <t>5114</t>
         </is>
       </c>
       <c r="AC124" t="inlineStr">
         <is>
-          <t>[R901]창작 및 예술관련 서비스업</t>
+          <t>R901</t>
         </is>
       </c>
       <c r="AD124" t="inlineStr">
@@ -12572,7 +12568,7 @@
       <c r="P125" t="inlineStr"/>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>자료 (종합) / 사람 (관련없음) / 사물 (정밀작업)</t>
+          <t>자료(종합) 사람(관련없음) 사물(정밀작업)</t>
         </is>
       </c>
       <c r="R125" t="inlineStr"/>
@@ -12599,17 +12595,17 @@
       <c r="Z125" t="inlineStr"/>
       <c r="AA125" t="inlineStr">
         <is>
-          <t>[5114]메이크업 아티스트 및 분장사</t>
+          <t>4224</t>
         </is>
       </c>
       <c r="AB125" t="inlineStr">
         <is>
-          <t>[4224]메이크업 아티스트 및 분장사</t>
+          <t>5114</t>
         </is>
       </c>
       <c r="AC125" t="inlineStr">
         <is>
-          <t>[J591]영화, 비디오물, 방송프로그램 제작 및 배급업</t>
+          <t>J591</t>
         </is>
       </c>
       <c r="AD125" t="inlineStr">
@@ -12680,7 +12676,7 @@
       <c r="P126" t="inlineStr"/>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>자료 (수집) / 사람 (서비스 제공) / 사물 (수동조작)</t>
+          <t>자료(수집) 사람(서비스제공) 사물(수동조작)</t>
         </is>
       </c>
       <c r="R126" t="inlineStr"/>
@@ -12714,17 +12710,17 @@
       </c>
       <c r="AA126" t="inlineStr">
         <is>
-          <t>[5114]메이크업 아티스트 및 분장사</t>
+          <t>4224</t>
         </is>
       </c>
       <c r="AB126" t="inlineStr">
         <is>
-          <t>[4224]메이크업 아티스트 및 분장사</t>
+          <t>5114</t>
         </is>
       </c>
       <c r="AC126" t="inlineStr">
         <is>
-          <t>[S961]미용, 욕탕 및 유사 서비스업</t>
+          <t>S961</t>
         </is>
       </c>
       <c r="AD126" t="inlineStr">
@@ -12795,7 +12791,7 @@
       <c r="P127" t="inlineStr"/>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>자료 (비교) / 사람 (관련없음) / 사물 (수동조작)</t>
+          <t>자료(비교) 사람(관련없음) 사물(수동조작)</t>
         </is>
       </c>
       <c r="R127" t="inlineStr"/>
@@ -12821,17 +12817,17 @@
       <c r="Z127" t="inlineStr"/>
       <c r="AA127" t="inlineStr">
         <is>
-          <t>[5114]메이크업 아티스트 및 분장사</t>
+          <t>4224</t>
         </is>
       </c>
       <c r="AB127" t="inlineStr">
         <is>
-          <t>[4224]메이크업 아티스트 및 분장사</t>
+          <t>5114</t>
         </is>
       </c>
       <c r="AC127" t="inlineStr">
         <is>
-          <t>[R901]창작 및 예술관련 서비스업</t>
+          <t>R901</t>
         </is>
       </c>
       <c r="AD127" t="inlineStr">
@@ -12902,7 +12898,7 @@
       <c r="P128" t="inlineStr"/>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>자료 (종합) / 사람 (관련없음) / 사물 (정밀작업)</t>
+          <t>자료(종합) 사람(관련없음) 사물(정밀작업)</t>
         </is>
       </c>
       <c r="R128" t="inlineStr"/>
@@ -12929,17 +12925,17 @@
       <c r="Z128" t="inlineStr"/>
       <c r="AA128" t="inlineStr">
         <is>
-          <t>[5114]메이크업 아티스트 및 분장사</t>
+          <t>4224</t>
         </is>
       </c>
       <c r="AB128" t="inlineStr">
         <is>
-          <t>[4224]메이크업 아티스트 및 분장사</t>
+          <t>5114</t>
         </is>
       </c>
       <c r="AC128" t="inlineStr">
         <is>
-          <t>[J591]영화, 비디오물, 방송프로그램 제작 및 배급업</t>
+          <t>J591</t>
         </is>
       </c>
       <c r="AD128" t="inlineStr">
@@ -13010,7 +13006,7 @@
       <c r="P129" t="inlineStr"/>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>자료 (수집) / 사람 (말하기-신호) / 사물 (제어조작)</t>
+          <t>자료(수집) 사람(말하기-신호) 사물(제어조작)</t>
         </is>
       </c>
       <c r="R129" t="inlineStr"/>
@@ -13028,29 +13024,29 @@
       <c r="V129" t="inlineStr"/>
       <c r="W129" t="inlineStr">
         <is>
-          <t>응용소프트웨어개발자, 로봇과정자동화개발자</t>
+          <t>응용소프트웨어개발자 로봇과정자동화개발자</t>
         </is>
       </c>
       <c r="X129" t="inlineStr"/>
       <c r="Y129" t="inlineStr"/>
       <c r="Z129" t="inlineStr">
         <is>
-          <t>정보처리기사, 전자계산기조직응용기사</t>
+          <t>정보처리기사 전자계산기조직응용기사</t>
         </is>
       </c>
       <c r="AA129" t="inlineStr">
         <is>
-          <t>[1332]응용 소프트웨어 개발자</t>
+          <t>2223</t>
         </is>
       </c>
       <c r="AB129" t="inlineStr">
         <is>
-          <t>[2223]응용 소프트웨어 개발자</t>
+          <t>1332</t>
         </is>
       </c>
       <c r="AC129" t="inlineStr">
         <is>
-          <t>[J582]소프트웨어 개발 및 공급업</t>
+          <t>J582</t>
         </is>
       </c>
       <c r="AD129" t="inlineStr">
@@ -13121,7 +13117,7 @@
       <c r="P130" t="inlineStr"/>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>자료 (조정) / 사람 (말하기-신호) / 사물 (제어조작)</t>
+          <t>자료(조정) 사람(말하기-신호) 사물(제어조작)</t>
         </is>
       </c>
       <c r="R130" t="inlineStr"/>
@@ -13143,29 +13139,29 @@
       <c r="V130" t="inlineStr"/>
       <c r="W130" t="inlineStr">
         <is>
-          <t>VR전문가, 인공현실전문가, 가상환경전문가, 가상세계기술전문가, 가상인식전문가</t>
+          <t>VR전문가 인공현실전문가 가상환경전문가 가상세계기술전문가 가상인식전문가</t>
         </is>
       </c>
       <c r="X130" t="inlineStr"/>
       <c r="Y130" t="inlineStr"/>
       <c r="Z130" t="inlineStr">
         <is>
-          <t>정보처리기사, 시각디자인기사</t>
+          <t>정보처리기사 시각디자인기사</t>
         </is>
       </c>
       <c r="AA130" t="inlineStr">
         <is>
-          <t>[1332]응용 소프트웨어 개발자</t>
+          <t>2223</t>
         </is>
       </c>
       <c r="AB130" t="inlineStr">
         <is>
-          <t>[2223]응용 소프트웨어 개발자</t>
+          <t>1332</t>
         </is>
       </c>
       <c r="AC130" t="inlineStr">
         <is>
-          <t>[J582]소프트웨어 개발 및 공급업</t>
+          <t>J582</t>
         </is>
       </c>
       <c r="AD130" t="inlineStr">
@@ -13236,7 +13232,7 @@
       <c r="P131" t="inlineStr"/>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>자료 (조정) / 사람 (말하기-신호) / 사물 (제어조작)</t>
+          <t>자료(조정) 사람(말하기-신호) 사물(제어조작)</t>
         </is>
       </c>
       <c r="R131" t="inlineStr"/>
@@ -13262,17 +13258,17 @@
       <c r="Z131" t="inlineStr"/>
       <c r="AA131" t="inlineStr">
         <is>
-          <t>[1332]응용 소프트웨어 개발자</t>
+          <t>2223</t>
         </is>
       </c>
       <c r="AB131" t="inlineStr">
         <is>
-          <t>[2223]응용 소프트웨어 개발자</t>
+          <t>1332</t>
         </is>
       </c>
       <c r="AC131" t="inlineStr">
         <is>
-          <t>[J591]영화, 비디오물, 방송프로그램 제작 및 배급업</t>
+          <t>J591</t>
         </is>
       </c>
       <c r="AD131" t="inlineStr">
@@ -13343,7 +13339,7 @@
       <c r="P132" t="inlineStr"/>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>자료 (조정) / 사람 (말하기-신호) / 사물 (제어조작)</t>
+          <t>자료(조정) 사람(말하기-신호) 사물(제어조작)</t>
         </is>
       </c>
       <c r="R132" t="inlineStr"/>
@@ -13365,17 +13361,17 @@
       <c r="Z132" t="inlineStr"/>
       <c r="AA132" t="inlineStr">
         <is>
-          <t>[1332]응용 소프트웨어 개발자</t>
+          <t>2223</t>
         </is>
       </c>
       <c r="AB132" t="inlineStr">
         <is>
-          <t>[2223]응용 소프트웨어 개발자</t>
+          <t>1332</t>
         </is>
       </c>
       <c r="AC132" t="inlineStr">
         <is>
-          <t>[J582]소프트웨어 개발 및 공급업</t>
+          <t>J582</t>
         </is>
       </c>
       <c r="AD132" t="inlineStr">
@@ -13446,7 +13442,7 @@
       <c r="P133" t="inlineStr"/>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>자료 (조정) / 사람 (말하기-신호) / 사물 (제어조작)</t>
+          <t>자료(조정) 사람(말하기-신호) 사물(제어조작)</t>
         </is>
       </c>
       <c r="R133" t="inlineStr"/>
@@ -13467,22 +13463,22 @@
       <c r="Y133" t="inlineStr"/>
       <c r="Z133" t="inlineStr">
         <is>
-          <t>게임프로그래밍전문가, 정보보안산업기사, 정보보안기사, 정보처리기사, 스마트폰개발자</t>
+          <t>게임프로그래밍전문가 정보보안산업기사 정보보안기사 정보처리기사 스마트폰개발자</t>
         </is>
       </c>
       <c r="AA133" t="inlineStr">
         <is>
-          <t>[1332]응용 소프트웨어 개발자</t>
+          <t>2223</t>
         </is>
       </c>
       <c r="AB133" t="inlineStr">
         <is>
-          <t>[2223]응용 소프트웨어 개발자</t>
+          <t>1332</t>
         </is>
       </c>
       <c r="AC133" t="inlineStr">
         <is>
-          <t>[J582]소프트웨어 개발 및 공급업</t>
+          <t>J582</t>
         </is>
       </c>
       <c r="AD133" t="inlineStr">
@@ -13553,7 +13549,7 @@
       <c r="P134" t="inlineStr"/>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>자료 (조정) / 사람 (말하기-신호) / 사물 (제어조작)</t>
+          <t>자료(조정) 사람(말하기-신호) 사물(제어조작)</t>
         </is>
       </c>
       <c r="R134" t="inlineStr"/>
@@ -13579,17 +13575,17 @@
       <c r="Z134" t="inlineStr"/>
       <c r="AA134" t="inlineStr">
         <is>
-          <t>[1332]응용 소프트웨어 개발자</t>
+          <t>2223</t>
         </is>
       </c>
       <c r="AB134" t="inlineStr">
         <is>
-          <t>[2223]응용 소프트웨어 개발자</t>
+          <t>1332</t>
         </is>
       </c>
       <c r="AC134" t="inlineStr">
         <is>
-          <t>[J582]소프트웨어 개발 및 공급업</t>
+          <t>J582</t>
         </is>
       </c>
       <c r="AD134" t="inlineStr">
@@ -13660,7 +13656,7 @@
       <c r="P135" t="inlineStr"/>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>자료 (조정) / 사람 (말하기-신호) / 사물 (제어조작)</t>
+          <t>자료(조정) 사람(말하기-신호) 사물(제어조작)</t>
         </is>
       </c>
       <c r="R135" t="inlineStr"/>
@@ -13679,7 +13675,7 @@
       <c r="W135" t="inlineStr"/>
       <c r="X135" t="inlineStr">
         <is>
-          <t>온라인게임프로그래머, 네트워크게임프로그래머, 아케이드게임프로그래머</t>
+          <t>온라인게임프로그래머 네트워크게임프로그래머 아케이드게임프로그래머</t>
         </is>
       </c>
       <c r="Y135" t="inlineStr"/>
@@ -13690,17 +13686,17 @@
       </c>
       <c r="AA135" t="inlineStr">
         <is>
-          <t>[1332]응용 소프트웨어 개발자</t>
+          <t>2223</t>
         </is>
       </c>
       <c r="AB135" t="inlineStr">
         <is>
-          <t>[2223]응용 소프트웨어 개발자</t>
+          <t>1332</t>
         </is>
       </c>
       <c r="AC135" t="inlineStr">
         <is>
-          <t>[J582]소프트웨어 개발 및 공급업</t>
+          <t>J582</t>
         </is>
       </c>
       <c r="AD135" t="inlineStr">
@@ -13771,7 +13767,7 @@
       <c r="P136" t="inlineStr"/>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>자료 (조정) / 사람 (말하기-신호) / 사물 (제어조작)</t>
+          <t>자료(조정) 사람(말하기-신호) 사물(제어조작)</t>
         </is>
       </c>
       <c r="R136" t="inlineStr"/>
@@ -13797,17 +13793,17 @@
       <c r="Z136" t="inlineStr"/>
       <c r="AA136" t="inlineStr">
         <is>
-          <t>[1332]응용 소프트웨어 개발자</t>
+          <t>2223</t>
         </is>
       </c>
       <c r="AB136" t="inlineStr">
         <is>
-          <t>[2223]응용 소프트웨어 개발자</t>
+          <t>1332</t>
         </is>
       </c>
       <c r="AC136" t="inlineStr">
         <is>
-          <t>[M715]회사 본부 및 경영 컨설팅 서비스업</t>
+          <t>M715</t>
         </is>
       </c>
       <c r="AD136" t="inlineStr">
@@ -13878,7 +13874,7 @@
       <c r="P137" t="inlineStr"/>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>자료 (조정) / 사람 (말하기-신호) / 사물 (제어조작)</t>
+          <t>자료(조정) 사람(말하기-신호) 사물(제어조작)</t>
         </is>
       </c>
       <c r="R137" t="inlineStr"/>
@@ -13896,7 +13892,7 @@
       <c r="V137" t="inlineStr"/>
       <c r="W137" t="inlineStr">
         <is>
-          <t>CRM(Customer Relationship Management)전문가</t>
+          <t>CRM(CustomerRelationshipManagement)전문가</t>
         </is>
       </c>
       <c r="X137" t="inlineStr"/>
@@ -13908,17 +13904,17 @@
       </c>
       <c r="AA137" t="inlineStr">
         <is>
-          <t>[1332]응용 소프트웨어 개발자</t>
+          <t>2223</t>
         </is>
       </c>
       <c r="AB137" t="inlineStr">
         <is>
-          <t>[2223]응용 소프트웨어 개발자</t>
+          <t>1332</t>
         </is>
       </c>
       <c r="AC137" t="inlineStr">
         <is>
-          <t>[J620]컴퓨터 프로그래밍, 시스템 통합 및 관리업</t>
+          <t>J620</t>
         </is>
       </c>
       <c r="AD137" t="inlineStr">
@@ -13989,7 +13985,7 @@
       <c r="P138" t="inlineStr"/>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>자료 (종합) / 사람 (말하기-신호) / 사물 (제어조작)</t>
+          <t>자료(종합) 사람(말하기-신호) 사물(제어조작)</t>
         </is>
       </c>
       <c r="R138" t="inlineStr"/>
@@ -14019,17 +14015,17 @@
       </c>
       <c r="AA138" t="inlineStr">
         <is>
-          <t>[1332]응용 소프트웨어 개발자</t>
+          <t>2223</t>
         </is>
       </c>
       <c r="AB138" t="inlineStr">
         <is>
-          <t>[2223]응용 소프트웨어 개발자</t>
+          <t>1332</t>
         </is>
       </c>
       <c r="AC138" t="inlineStr">
         <is>
-          <t>[J582]소프트웨어 개발 및 공급업</t>
+          <t>J582</t>
         </is>
       </c>
       <c r="AD138" t="inlineStr">
@@ -14100,7 +14096,7 @@
       <c r="P139" t="inlineStr"/>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>자료 (종합) / 사람 (말하기-신호) / 사물 (제어조작)</t>
+          <t>자료(종합) 사람(말하기-신호) 사물(제어조작)</t>
         </is>
       </c>
       <c r="R139" t="inlineStr"/>
@@ -14121,22 +14117,22 @@
       <c r="Y139" t="inlineStr"/>
       <c r="Z139" t="inlineStr">
         <is>
-          <t>정보처리기사, 정보통신기사, 전파통신기사, 방송통신기사, 전파전자기사</t>
+          <t>정보처리기사 정보통신기사 전파통신기사 방송통신기사 전파전자기사</t>
         </is>
       </c>
       <c r="AA139" t="inlineStr">
         <is>
-          <t>[1332]응용 소프트웨어 개발자</t>
+          <t>2223</t>
         </is>
       </c>
       <c r="AB139" t="inlineStr">
         <is>
-          <t>[2223]응용 소프트웨어 개발자</t>
+          <t>1332</t>
         </is>
       </c>
       <c r="AC139" t="inlineStr">
         <is>
-          <t>[J582]소프트웨어 개발 및 공급업</t>
+          <t>J582</t>
         </is>
       </c>
       <c r="AD139" t="inlineStr">
@@ -14207,7 +14203,7 @@
       <c r="P140" t="inlineStr"/>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>자료 (종합) / 사람 (말하기-신호) / 사물 (제어조작)</t>
+          <t>자료(종합) 사람(말하기-신호) 사물(제어조작)</t>
         </is>
       </c>
       <c r="R140" t="inlineStr"/>
@@ -14233,17 +14229,17 @@
       </c>
       <c r="AA140" t="inlineStr">
         <is>
-          <t>[1332]응용 소프트웨어 개발자</t>
+          <t>2223</t>
         </is>
       </c>
       <c r="AB140" t="inlineStr">
         <is>
-          <t>[2223]응용 소프트웨어 개발자</t>
+          <t>1332</t>
         </is>
       </c>
       <c r="AC140" t="inlineStr">
         <is>
-          <t>[J582]소프트웨어 개발 및 공급업</t>
+          <t>J582</t>
         </is>
       </c>
       <c r="AD140" t="inlineStr">
@@ -14314,7 +14310,7 @@
       <c r="P141" t="inlineStr"/>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>자료 (조정) / 사람 (말하기-신호) / 사물 (제어조작)</t>
+          <t>자료(조정) 사람(말하기-신호) 사물(제어조작)</t>
         </is>
       </c>
       <c r="R141" t="inlineStr"/>
@@ -14333,7 +14329,7 @@
       <c r="W141" t="inlineStr"/>
       <c r="X141" t="inlineStr">
         <is>
-          <t>모바일게임개발전문가, 모바일콘텐츠개발자</t>
+          <t>모바일게임개발전문가 모바일콘텐츠개발자</t>
         </is>
       </c>
       <c r="Y141" t="inlineStr"/>
@@ -14344,17 +14340,17 @@
       </c>
       <c r="AA141" t="inlineStr">
         <is>
-          <t>[1332]응용 소프트웨어 개발자</t>
+          <t>2223</t>
         </is>
       </c>
       <c r="AB141" t="inlineStr">
         <is>
-          <t>[2223]응용 소프트웨어 개발자</t>
+          <t>1332</t>
         </is>
       </c>
       <c r="AC141" t="inlineStr">
         <is>
-          <t>[J582]소프트웨어 개발 및 공급업</t>
+          <t>J582</t>
         </is>
       </c>
       <c r="AD141" t="inlineStr">
@@ -14425,7 +14421,7 @@
       <c r="P142" t="inlineStr"/>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>자료 (종합) / 사람 (말하기-신호) / 사물 (제어조작)</t>
+          <t>자료(종합) 사람(말하기-신호) 사물(제어조작)</t>
         </is>
       </c>
       <c r="R142" t="inlineStr"/>
@@ -14452,24 +14448,24 @@
       </c>
       <c r="X142" t="inlineStr">
         <is>
-          <t>반도체장비설계연구원, 반도체장비소프트웨어연구원, 반도체장비통신소트프웨어연구원</t>
+          <t>반도체장비설계연구원 반도체장비소프트웨어연구원 반도체장비통신소트프웨어연구원</t>
         </is>
       </c>
       <c r="Y142" t="inlineStr"/>
       <c r="Z142" t="inlineStr"/>
       <c r="AA142" t="inlineStr">
         <is>
-          <t>[1332]응용 소프트웨어 개발자</t>
+          <t>2223</t>
         </is>
       </c>
       <c r="AB142" t="inlineStr">
         <is>
-          <t>[2223]응용 소프트웨어 개발자</t>
+          <t>1332</t>
         </is>
       </c>
       <c r="AC142" t="inlineStr">
         <is>
-          <t>[C261]반도체 제조업</t>
+          <t>C261</t>
         </is>
       </c>
       <c r="AD142" t="inlineStr">
@@ -14540,7 +14536,7 @@
       <c r="P143" t="inlineStr"/>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>자료 (종합) / 사람 (말하기-신호) / 사물 (제어조작)</t>
+          <t>자료(종합) 사람(말하기-신호) 사물(제어조작)</t>
         </is>
       </c>
       <c r="R143" t="inlineStr"/>
@@ -14562,17 +14558,17 @@
       <c r="Z143" t="inlineStr"/>
       <c r="AA143" t="inlineStr">
         <is>
-          <t>[1332]응용 소프트웨어 개발자</t>
+          <t>2223</t>
         </is>
       </c>
       <c r="AB143" t="inlineStr">
         <is>
-          <t>[2223]응용 소프트웨어 개발자</t>
+          <t>1332</t>
         </is>
       </c>
       <c r="AC143" t="inlineStr">
         <is>
-          <t>[J582]소프트웨어 개발 및 공급업</t>
+          <t>J582</t>
         </is>
       </c>
       <c r="AD143" t="inlineStr">
@@ -14643,7 +14639,7 @@
       <c r="P144" t="inlineStr"/>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>자료 (종합) / 사람 (말하기-신호) / 사물 (제어조작)</t>
+          <t>자료(종합) 사람(말하기-신호) 사물(제어조작)</t>
         </is>
       </c>
       <c r="R144" t="inlineStr"/>
@@ -14665,17 +14661,17 @@
       <c r="Z144" t="inlineStr"/>
       <c r="AA144" t="inlineStr">
         <is>
-          <t>[1332]응용 소프트웨어 개발자</t>
+          <t>2223</t>
         </is>
       </c>
       <c r="AB144" t="inlineStr">
         <is>
-          <t>[2223]응용 소프트웨어 개발자</t>
+          <t>1332</t>
         </is>
       </c>
       <c r="AC144" t="inlineStr">
         <is>
-          <t>[J582]소프트웨어 개발 및 공급업</t>
+          <t>J582</t>
         </is>
       </c>
       <c r="AD144" t="inlineStr">
@@ -14746,7 +14742,7 @@
       <c r="P145" t="inlineStr"/>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>자료 (종합) / 사람 (말하기-신호) / 사물 (제어조작)</t>
+          <t>자료(종합) 사람(말하기-신호) 사물(제어조작)</t>
         </is>
       </c>
       <c r="R145" t="inlineStr"/>
@@ -14767,22 +14763,22 @@
       <c r="Y145" t="inlineStr"/>
       <c r="Z145" t="inlineStr">
         <is>
-          <t>토목기사, 측량 및 지형공간정보기사</t>
+          <t>토목기사 측량및지형공간정보기사</t>
         </is>
       </c>
       <c r="AA145" t="inlineStr">
         <is>
-          <t>[1332]응용 소프트웨어 개발자</t>
+          <t>2223</t>
         </is>
       </c>
       <c r="AB145" t="inlineStr">
         <is>
-          <t>[2223]응용 소프트웨어 개발자</t>
+          <t>1332</t>
         </is>
       </c>
       <c r="AC145" t="inlineStr">
         <is>
-          <t>[E360]수도업</t>
+          <t>E360</t>
         </is>
       </c>
       <c r="AD145" t="inlineStr">
@@ -14853,7 +14849,7 @@
       <c r="P146" t="inlineStr"/>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>자료 (종합) / 사람 (말하기-신호) / 사물 (제어조작)</t>
+          <t>자료(종합) 사람(말하기-신호) 사물(제어조작)</t>
         </is>
       </c>
       <c r="R146" t="inlineStr"/>
@@ -14871,29 +14867,29 @@
       <c r="V146" t="inlineStr"/>
       <c r="W146" t="inlineStr">
         <is>
-          <t>애플리케이션개발자, 애플리케이션개발자, 앱개발자</t>
+          <t>애플리케이션개발자 애플리케이션개발자 앱개발자</t>
         </is>
       </c>
       <c r="X146" t="inlineStr">
         <is>
-          <t>스마트폰애플리케이션개발자(앱개발자), 모바일콘텐츠개발자, 안드로이드앱개발자, IOS앱개발자</t>
+          <t>스마트폰애플리케이션개발자(앱개발자) 모바일콘텐츠개발자 안드로이드앱개발자 IOS앱개발자</t>
         </is>
       </c>
       <c r="Y146" t="inlineStr"/>
       <c r="Z146" t="inlineStr"/>
       <c r="AA146" t="inlineStr">
         <is>
-          <t>[1332]응용 소프트웨어 개발자</t>
+          <t>2223</t>
         </is>
       </c>
       <c r="AB146" t="inlineStr">
         <is>
-          <t>[2223]응용 소프트웨어 개발자</t>
+          <t>1332</t>
         </is>
       </c>
       <c r="AC146" t="inlineStr">
         <is>
-          <t>[J582]소프트웨어 개발 및 공급업</t>
+          <t>J582</t>
         </is>
       </c>
       <c r="AD146" t="inlineStr">
@@ -14964,7 +14960,7 @@
       <c r="P147" t="inlineStr"/>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>자료 (조정) / 사람 (말하기-신호) / 사물 (제어조작)</t>
+          <t>자료(조정) 사람(말하기-신호) 사물(제어조작)</t>
         </is>
       </c>
       <c r="R147" t="inlineStr"/>
@@ -14987,28 +14983,28 @@
       </c>
       <c r="X147" t="inlineStr">
         <is>
-          <t>응용소프트웨어프로그래머, C프로그래머, 자바프로그래머</t>
+          <t>응용소프트웨어프로그래머 C프로그래머 자바프로그래머</t>
         </is>
       </c>
       <c r="Y147" t="inlineStr"/>
       <c r="Z147" t="inlineStr">
         <is>
-          <t>정보처리기사, 전자계산기조직응용기사</t>
+          <t>정보처리기사 전자계산기조직응용기사</t>
         </is>
       </c>
       <c r="AA147" t="inlineStr">
         <is>
-          <t>[1332]응용 소프트웨어 개발자</t>
+          <t>2223</t>
         </is>
       </c>
       <c r="AB147" t="inlineStr">
         <is>
-          <t>[2223]응용 소프트웨어 개발자</t>
+          <t>1332</t>
         </is>
       </c>
       <c r="AC147" t="inlineStr">
         <is>
-          <t>[J582]소프트웨어 개발 및 공급업</t>
+          <t>J582</t>
         </is>
       </c>
       <c r="AD147" t="inlineStr">
@@ -15079,7 +15075,7 @@
       <c r="P148" t="inlineStr"/>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>자료 (종합) / 사람 (말하기-신호) / 사물 (제어조작)</t>
+          <t>자료(종합) 사람(말하기-신호) 사물(제어조작)</t>
         </is>
       </c>
       <c r="R148" t="inlineStr"/>
@@ -15101,17 +15097,17 @@
       <c r="Z148" t="inlineStr"/>
       <c r="AA148" t="inlineStr">
         <is>
-          <t>[1332]응용 소프트웨어 개발자</t>
+          <t>2223</t>
         </is>
       </c>
       <c r="AB148" t="inlineStr">
         <is>
-          <t>[2223]응용 소프트웨어 개발자</t>
+          <t>1332</t>
         </is>
       </c>
       <c r="AC148" t="inlineStr">
         <is>
-          <t>[C264]통신 및 방송 장비 제조업</t>
+          <t>C264</t>
         </is>
       </c>
       <c r="AD148" t="inlineStr">
@@ -15182,7 +15178,7 @@
       <c r="P149" t="inlineStr"/>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>자료 (종합) / 사람 (말하기-신호) / 사물 (제어조작)</t>
+          <t>자료(종합) 사람(말하기-신호) 사물(제어조작)</t>
         </is>
       </c>
       <c r="R149" t="inlineStr"/>
@@ -15201,24 +15197,24 @@
       <c r="W149" t="inlineStr"/>
       <c r="X149" t="inlineStr">
         <is>
-          <t>머신러닝엔지니어, 딥러닝엔지니어</t>
+          <t>머신러닝엔지니어 딥러닝엔지니어</t>
         </is>
       </c>
       <c r="Y149" t="inlineStr"/>
       <c r="Z149" t="inlineStr"/>
       <c r="AA149" t="inlineStr">
         <is>
-          <t>[1332]응용 소프트웨어 개발자</t>
+          <t>2223</t>
         </is>
       </c>
       <c r="AB149" t="inlineStr">
         <is>
-          <t>[2223]응용 소프트웨어 개발자</t>
+          <t>1332</t>
         </is>
       </c>
       <c r="AC149" t="inlineStr">
         <is>
-          <t>[J582]소프트웨어 개발 및 공급업</t>
+          <t>J582</t>
         </is>
       </c>
       <c r="AD149" t="inlineStr">
@@ -15289,7 +15285,7 @@
       <c r="P150" t="inlineStr"/>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>자료 (종합) / 사람 (말하기-신호) / 사물 (정밀작업)</t>
+          <t>자료(종합) 사람(말하기-신호) 사물(정밀작업)</t>
         </is>
       </c>
       <c r="R150" t="inlineStr"/>
@@ -15311,17 +15307,17 @@
       <c r="Z150" t="inlineStr"/>
       <c r="AA150" t="inlineStr">
         <is>
-          <t>[1332]응용 소프트웨어 개발자</t>
+          <t>2223</t>
         </is>
       </c>
       <c r="AB150" t="inlineStr">
         <is>
-          <t>[2223]응용 소프트웨어 개발자</t>
+          <t>1332</t>
         </is>
       </c>
       <c r="AC150" t="inlineStr">
         <is>
-          <t>[M701]자연과학 및 공학 연구개발업</t>
+          <t>M701</t>
         </is>
       </c>
       <c r="AD150" t="inlineStr">
@@ -15392,7 +15388,7 @@
       <c r="P151" t="inlineStr"/>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>자료 (조정) / 사람 (말하기-신호) / 사물 (제어조작)</t>
+          <t>자료(조정) 사람(말하기-신호) 사물(제어조작)</t>
         </is>
       </c>
       <c r="R151" t="inlineStr"/>
@@ -15414,17 +15410,17 @@
       <c r="Z151" t="inlineStr"/>
       <c r="AA151" t="inlineStr">
         <is>
-          <t>[1332]응용 소프트웨어 개발자</t>
+          <t>2223</t>
         </is>
       </c>
       <c r="AB151" t="inlineStr">
         <is>
-          <t>[2223]응용 소프트웨어 개발자</t>
+          <t>1332</t>
         </is>
       </c>
       <c r="AC151" t="inlineStr">
         <is>
-          <t>[J582]소프트웨어 개발 및 공급업</t>
+          <t>J582</t>
         </is>
       </c>
       <c r="AD151" t="inlineStr">
@@ -15495,7 +15491,7 @@
       <c r="P152" t="inlineStr"/>
       <c r="Q152" t="inlineStr">
         <is>
-          <t>자료 (종합) / 사람 (말하기-신호) / 사물 (정밀작업)</t>
+          <t>자료(종합) 사람(말하기-신호) 사물(정밀작업)</t>
         </is>
       </c>
       <c r="R152" t="inlineStr"/>
@@ -15517,29 +15513,29 @@
       <c r="V152" t="inlineStr"/>
       <c r="W152" t="inlineStr">
         <is>
-          <t>AR전문가, 혼합현실전문가</t>
+          <t>AR전문가 혼합현실전문가</t>
         </is>
       </c>
       <c r="X152" t="inlineStr"/>
       <c r="Y152" t="inlineStr"/>
       <c r="Z152" t="inlineStr">
         <is>
-          <t>컴퓨터그래픽스운용기능사, 시각디자인기사</t>
+          <t>컴퓨터그래픽스운용기능사 시각디자인기사</t>
         </is>
       </c>
       <c r="AA152" t="inlineStr">
         <is>
-          <t>[1332]응용 소프트웨어 개발자</t>
+          <t>2223</t>
         </is>
       </c>
       <c r="AB152" t="inlineStr">
         <is>
-          <t>[2223]응용 소프트웨어 개발자</t>
+          <t>1332</t>
         </is>
       </c>
       <c r="AC152" t="inlineStr">
         <is>
-          <t>[J582]소프트웨어 개발 및 공급업</t>
+          <t>J582</t>
         </is>
       </c>
       <c r="AD152" t="inlineStr">
@@ -15610,7 +15606,7 @@
       <c r="P153" t="inlineStr"/>
       <c r="Q153" t="inlineStr">
         <is>
-          <t>자료 (조정) / 사람 (말하기-신호) / 사물 (제어조작)</t>
+          <t>자료(조정) 사람(말하기-신호) 사물(제어조작)</t>
         </is>
       </c>
       <c r="R153" t="inlineStr"/>
@@ -15628,7 +15624,7 @@
       <c r="V153" t="inlineStr"/>
       <c r="W153" t="inlineStr">
         <is>
-          <t>KMS(Knowledge Management System)전문가</t>
+          <t>KMS(KnowledgeManagementSystem)전문가</t>
         </is>
       </c>
       <c r="X153" t="inlineStr"/>
@@ -15640,17 +15636,17 @@
       </c>
       <c r="AA153" t="inlineStr">
         <is>
-          <t>[1332]응용 소프트웨어 개발자</t>
+          <t>2223</t>
         </is>
       </c>
       <c r="AB153" t="inlineStr">
         <is>
-          <t>[2223]응용 소프트웨어 개발자</t>
+          <t>1332</t>
         </is>
       </c>
       <c r="AC153" t="inlineStr">
         <is>
-          <t>[J620]컴퓨터 프로그래밍, 시스템 통합 및 관리업</t>
+          <t>J620</t>
         </is>
       </c>
       <c r="AD153" t="inlineStr">
@@ -15721,7 +15717,7 @@
       <c r="P154" t="inlineStr"/>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>자료 (조정) / 사람 (말하기-신호) / 사물 (제어조작)</t>
+          <t>자료(조정) 사람(말하기-신호) 사물(제어조작)</t>
         </is>
       </c>
       <c r="R154" t="inlineStr"/>
@@ -15742,22 +15738,22 @@
       <c r="Y154" t="inlineStr"/>
       <c r="Z154" t="inlineStr">
         <is>
-          <t>게임프로그래밍전문가, 정보보안산업기사, 정보보안기사, 정보처리기사</t>
+          <t>게임프로그래밍전문가 정보보안산업기사 정보보안기사 정보처리기사</t>
         </is>
       </c>
       <c r="AA154" t="inlineStr">
         <is>
-          <t>[1332]응용 소프트웨어 개발자</t>
+          <t>2223</t>
         </is>
       </c>
       <c r="AB154" t="inlineStr">
         <is>
-          <t>[2223]응용 소프트웨어 개발자</t>
+          <t>1332</t>
         </is>
       </c>
       <c r="AC154" t="inlineStr">
         <is>
-          <t>[J582]소프트웨어 개발 및 공급업</t>
+          <t>J582</t>
         </is>
       </c>
       <c r="AD154" t="inlineStr">
@@ -15828,7 +15824,7 @@
       <c r="P155" t="inlineStr"/>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>자료 (조정) / 사람 (말하기-신호) / 사물 (제어조작)</t>
+          <t>자료(조정) 사람(말하기-신호) 사물(제어조작)</t>
         </is>
       </c>
       <c r="R155" t="inlineStr"/>
@@ -15850,17 +15846,17 @@
       <c r="Z155" t="inlineStr"/>
       <c r="AA155" t="inlineStr">
         <is>
-          <t>[1332]응용 소프트웨어 개발자</t>
+          <t>2223</t>
         </is>
       </c>
       <c r="AB155" t="inlineStr">
         <is>
-          <t>[2223]응용 소프트웨어 개발자</t>
+          <t>1332</t>
         </is>
       </c>
       <c r="AC155" t="inlineStr">
         <is>
-          <t>[C264]통신 및 방송 장비 제조업</t>
+          <t>C264</t>
         </is>
       </c>
       <c r="AD155" t="inlineStr">
@@ -15931,7 +15927,7 @@
       <c r="P156" t="inlineStr"/>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>자료 (종합) / 사람 (말하기-신호) / 사물 (제어조작)</t>
+          <t>자료(종합) 사람(말하기-신호) 사물(제어조작)</t>
         </is>
       </c>
       <c r="R156" t="inlineStr"/>
@@ -15953,17 +15949,17 @@
       <c r="Z156" t="inlineStr"/>
       <c r="AA156" t="inlineStr">
         <is>
-          <t>[1332]응용 소프트웨어 개발자</t>
+          <t>2223</t>
         </is>
       </c>
       <c r="AB156" t="inlineStr">
         <is>
-          <t>[2223]응용 소프트웨어 개발자</t>
+          <t>1332</t>
         </is>
       </c>
       <c r="AC156" t="inlineStr">
         <is>
-          <t>[C264]통신 및 방송 장비 제조업</t>
+          <t>C264</t>
         </is>
       </c>
       <c r="AD156" t="inlineStr">
@@ -16034,7 +16030,7 @@
       <c r="P157" t="inlineStr"/>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>자료 (종합) / 사람 (협의) / 사물 (정밀작업)</t>
+          <t>자료(종합) 사람(협의) 사물(정밀작업)</t>
         </is>
       </c>
       <c r="R157" t="inlineStr"/>
@@ -16057,24 +16053,24 @@
       <c r="W157" t="inlineStr"/>
       <c r="X157" t="inlineStr">
         <is>
-          <t>고분자계 복합소재, 복합공정, 복합구조 등에 관한 연구를 할 경우 고분자복합재료연구원, 고분자구조재료연구원, 중합반응공정기술연구원, 개질기술연구원, 전자정보용소재기술연구원, 의료용소재기술연구원, 에너지환경산업용소재기술연구원, 특수기능성소재기술연구원, 고분자재활용기술연구원, 고분자가공기술연구원, 나노소재기술연구원</t>
+          <t>고분자계복합소재 복합공정 복합구조등에관한연구를할경우고분자복합재료연구원 고분자구조재료연구원 중합반응공정기술연구원 개질기술연구원 전자정보용소재기술연구원 의료용소재기술연구원 에너지환경산업용소재기술연구원 특수기능성소재기술연구원 고분자재활용기술연구원 고분자가공기술연구원 나노소재기술연구원</t>
         </is>
       </c>
       <c r="Y157" t="inlineStr"/>
       <c r="Z157" t="inlineStr"/>
       <c r="AA157" t="inlineStr">
         <is>
-          <t>[1211]자연과학 연구원</t>
+          <t>2112</t>
         </is>
       </c>
       <c r="AB157" t="inlineStr">
         <is>
-          <t>[2112]자연과학 연구원</t>
+          <t>1211</t>
         </is>
       </c>
       <c r="AC157" t="inlineStr">
         <is>
-          <t>[M701]자연과학 및 공학 연구개발업</t>
+          <t>M701</t>
         </is>
       </c>
       <c r="AD157" t="inlineStr">
@@ -16145,7 +16141,7 @@
       <c r="P158" t="inlineStr"/>
       <c r="Q158" t="inlineStr">
         <is>
-          <t>자료 (종합) / 사람 (협의) / 사물 (정밀작업)</t>
+          <t>자료(종합) 사람(협의) 사물(정밀작업)</t>
         </is>
       </c>
       <c r="R158" t="inlineStr"/>
@@ -16169,24 +16165,24 @@
       <c r="W158" t="inlineStr"/>
       <c r="X158" t="inlineStr">
         <is>
-          <t>고분자합성연구원, 고분자구조물성연구원, 고분자물리화학연구원, 전기전자광특성고분자연구원, 기능성고분자연구원, 친환경성고분자연구원, 에너지고분자연구원</t>
+          <t>고분자합성연구원 고분자구조물성연구원 고분자물리화학연구원 전기전자광특성고분자연구원 기능성고분자연구원 친환경성고분자연구원 에너지고분자연구원</t>
         </is>
       </c>
       <c r="Y158" t="inlineStr"/>
       <c r="Z158" t="inlineStr"/>
       <c r="AA158" t="inlineStr">
         <is>
-          <t>[1211]자연과학 연구원</t>
+          <t>2112</t>
         </is>
       </c>
       <c r="AB158" t="inlineStr">
         <is>
-          <t>[2112]자연과학 연구원</t>
+          <t>1211</t>
         </is>
       </c>
       <c r="AC158" t="inlineStr">
         <is>
-          <t>[M701]자연과학 및 공학 연구개발업</t>
+          <t>M701</t>
         </is>
       </c>
       <c r="AD158" t="inlineStr">
@@ -16257,7 +16253,7 @@
       <c r="P159" t="inlineStr"/>
       <c r="Q159" t="inlineStr">
         <is>
-          <t>자료 (종합) / 사람 (협의) / 사물 (정밀작업)</t>
+          <t>자료(종합) 사람(협의) 사물(정밀작업)</t>
         </is>
       </c>
       <c r="R159" t="inlineStr"/>
@@ -16283,17 +16279,17 @@
       <c r="Z159" t="inlineStr"/>
       <c r="AA159" t="inlineStr">
         <is>
-          <t>[1211]자연과학 연구원</t>
+          <t>2112</t>
         </is>
       </c>
       <c r="AB159" t="inlineStr">
         <is>
-          <t>[2112]자연과학 연구원</t>
+          <t>1211</t>
         </is>
       </c>
       <c r="AC159" t="inlineStr">
         <is>
-          <t>[M701]자연과학 및 공학 연구개발업</t>
+          <t>M701</t>
         </is>
       </c>
       <c r="AD159" t="inlineStr">
@@ -16364,7 +16360,7 @@
       <c r="P160" t="inlineStr"/>
       <c r="Q160" t="inlineStr">
         <is>
-          <t>자료 (분석) / 사람 (협의) / 사물 (정밀작업)</t>
+          <t>자료(분석) 사람(협의) 사물(정밀작업)</t>
         </is>
       </c>
       <c r="R160" t="inlineStr"/>
@@ -16392,24 +16388,24 @@
       </c>
       <c r="X160" t="inlineStr">
         <is>
-          <t>조사하는 광상의 종류에 따라 금속광상조사원, 비금속광상조사원, 석탄광상조사원, 석회석광상조사원</t>
+          <t>조사하는광상의종류에따라금속광상조사원 비금속광상조사원 석탄광상조사원 석회석광상조사원</t>
         </is>
       </c>
       <c r="Y160" t="inlineStr"/>
       <c r="Z160" t="inlineStr"/>
       <c r="AA160" t="inlineStr">
         <is>
-          <t>[1211]자연과학 연구원</t>
+          <t>2112</t>
         </is>
       </c>
       <c r="AB160" t="inlineStr">
         <is>
-          <t>[2112]자연과학 연구원</t>
+          <t>1211</t>
         </is>
       </c>
       <c r="AC160" t="inlineStr">
         <is>
-          <t>[M729]기타 과학기술 서비스업</t>
+          <t>M729</t>
         </is>
       </c>
       <c r="AD160" t="inlineStr">
@@ -16480,7 +16476,7 @@
       <c r="P161" t="inlineStr"/>
       <c r="Q161" t="inlineStr">
         <is>
-          <t>자료 (분석) / 사람 (협의) / 사물 (정밀작업)</t>
+          <t>자료(분석) 사람(협의) 사물(정밀작업)</t>
         </is>
       </c>
       <c r="R161" t="inlineStr"/>
@@ -16509,24 +16505,24 @@
       <c r="W161" t="inlineStr"/>
       <c r="X161" t="inlineStr">
         <is>
-          <t>유기광화학연구원, 무기광화학연구원, 생물광화학연구원, 고분자광화학연구원, 물리광화학연구원, 광소재화학연구원, 태양에너지화학연구원, 전기광화학연구원</t>
+          <t>유기광화학연구원 무기광화학연구원 생물광화학연구원 고분자광화학연구원 물리광화학연구원 광소재화학연구원 태양에너지화학연구원 전기광화학연구원</t>
         </is>
       </c>
       <c r="Y161" t="inlineStr"/>
       <c r="Z161" t="inlineStr"/>
       <c r="AA161" t="inlineStr">
         <is>
-          <t>[1211]자연과학 연구원</t>
+          <t>2112</t>
         </is>
       </c>
       <c r="AB161" t="inlineStr">
         <is>
-          <t>[2112]자연과학 연구원</t>
+          <t>1211</t>
         </is>
       </c>
       <c r="AC161" t="inlineStr">
         <is>
-          <t>[M701]자연과학 및 공학 연구개발업</t>
+          <t>M701</t>
         </is>
       </c>
       <c r="AD161" t="inlineStr">
@@ -16597,7 +16593,7 @@
       <c r="P162" t="inlineStr"/>
       <c r="Q162" t="inlineStr">
         <is>
-          <t>자료 (분석) / 사람 (협의) / 사물 (정밀작업)</t>
+          <t>자료(분석) 사람(협의) 사물(정밀작업)</t>
         </is>
       </c>
       <c r="R162" t="inlineStr"/>
@@ -16629,24 +16625,24 @@
       <c r="W162" t="inlineStr"/>
       <c r="X162" t="inlineStr">
         <is>
-          <t>빙하학연구원, 동토학연구원, 극지환경감시연구원, 극지생물자원탐사연구원, 극지광물자원탐사연구원, 극지생태계연구원, 극지해양연구원, 극지우주과학연구원, 극지저온생물학연구원</t>
+          <t>빙하학연구원 동토학연구원 극지환경감시연구원 극지생물자원탐사연구원 극지광물자원탐사연구원 극지생태계연구원 극지해양연구원 극지우주과학연구원 극지저온생물학연구원</t>
         </is>
       </c>
       <c r="Y162" t="inlineStr"/>
       <c r="Z162" t="inlineStr"/>
       <c r="AA162" t="inlineStr">
         <is>
-          <t>[1211]자연과학 연구원</t>
+          <t>2112</t>
         </is>
       </c>
       <c r="AB162" t="inlineStr">
         <is>
-          <t>[2112]자연과학 연구원</t>
+          <t>1211</t>
         </is>
       </c>
       <c r="AC162" t="inlineStr">
         <is>
-          <t>[M701]자연과학 및 공학 연구개발업</t>
+          <t>M701</t>
         </is>
       </c>
       <c r="AD162" t="inlineStr">
@@ -16717,7 +16713,7 @@
       <c r="P163" t="inlineStr"/>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>자료 (종합) / 사람 (협의) / 사물 (정밀작업)</t>
+          <t>자료(종합) 사람(협의) 사물(정밀작업)</t>
         </is>
       </c>
       <c r="R163" t="inlineStr"/>
@@ -16745,28 +16741,28 @@
       </c>
       <c r="X163" t="inlineStr">
         <is>
-          <t>연구분야에 따라 기상계측연구원, 예보연구원, 원격탐사연구원, 응용기상연구원, 기상관측분석기술연구원, 기상원격탐사기술연구원, 기상예보기술연구원, 기상조절연구원, 수치예보연구원, 농업기상연구원, 해양기상연구원, 보건기상연구원, 산업기상연구원, 항공기상연구원, 생명기상연구원</t>
+          <t>연구분야에따라기상계측연구원 예보연구원 원격탐사연구원 응용기상연구원 기상관측분석기술연구원 기상원격탐사기술연구원 기상예보기술연구원 기상조절연구원 수치예보연구원 농업기상연구원 해양기상연구원 보건기상연구원 산업기상연구원 항공기상연구원 생명기상연구원</t>
         </is>
       </c>
       <c r="Y163" t="inlineStr"/>
       <c r="Z163" t="inlineStr">
         <is>
-          <t>기상예보기술사, 기상기사, 기상감정기사</t>
+          <t>기상예보기술사 기상기사 기상감정기사</t>
         </is>
       </c>
       <c r="AA163" t="inlineStr">
         <is>
-          <t>[1211]자연과학 연구원</t>
+          <t>2112</t>
         </is>
       </c>
       <c r="AB163" t="inlineStr">
         <is>
-          <t>[2112]자연과학 연구원</t>
+          <t>1211</t>
         </is>
       </c>
       <c r="AC163" t="inlineStr">
         <is>
-          <t>[M701]자연과학 및 공학 연구개발업 / [O841]입법 및 일반 정부 행정</t>
+          <t>M701</t>
         </is>
       </c>
       <c r="AD163" t="inlineStr">
@@ -16837,7 +16833,7 @@
       <c r="P164" t="inlineStr"/>
       <c r="Q164" t="inlineStr">
         <is>
-          <t>자료 (분석) / 사람 (자문) / 사물 (관련없음)</t>
+          <t>자료(분석) 사람(자문) 사물(관련없음)</t>
         </is>
       </c>
       <c r="R164" t="inlineStr"/>
@@ -16862,22 +16858,22 @@
       <c r="Y164" t="inlineStr"/>
       <c r="Z164" t="inlineStr">
         <is>
-          <t>기상예보기술사, 기상기사, 기상감정기사</t>
+          <t>기상예보기술사 기상기사 기상감정기사</t>
         </is>
       </c>
       <c r="AA164" t="inlineStr">
         <is>
-          <t>[1211]자연과학 연구원</t>
+          <t>2112</t>
         </is>
       </c>
       <c r="AB164" t="inlineStr">
         <is>
-          <t>[2112]자연과학 연구원</t>
+          <t>1211</t>
         </is>
       </c>
       <c r="AC164" t="inlineStr">
         <is>
-          <t>[M739]그 외 기타 전문, 과학 및 기술 서비스업</t>
+          <t>M739</t>
         </is>
       </c>
       <c r="AD164" t="inlineStr">
@@ -16948,7 +16944,7 @@
       <c r="P165" t="inlineStr"/>
       <c r="Q165" t="inlineStr">
         <is>
-          <t>자료 (분석) / 사람 (관련없음) / 사물 (정밀작업)</t>
+          <t>자료(분석) 사람(관련없음) 사물(정밀작업)</t>
         </is>
       </c>
       <c r="R165" t="inlineStr"/>
@@ -16969,22 +16965,22 @@
       <c r="Y165" t="inlineStr"/>
       <c r="Z165" t="inlineStr">
         <is>
-          <t>기상예보기술사, 기상기사, 기상감정기사</t>
+          <t>기상예보기술사 기상기사 기상감정기사</t>
         </is>
       </c>
       <c r="AA165" t="inlineStr">
         <is>
-          <t>[1211]자연과학 연구원</t>
+          <t>2112</t>
         </is>
       </c>
       <c r="AB165" t="inlineStr">
         <is>
-          <t>[2112]자연과학 연구원</t>
+          <t>1211</t>
         </is>
       </c>
       <c r="AC165" t="inlineStr">
         <is>
-          <t>[M701]자연과학 및 공학 연구개발업</t>
+          <t>M701</t>
         </is>
       </c>
       <c r="AD165" t="inlineStr">
@@ -17055,7 +17051,7 @@
       <c r="P166" t="inlineStr"/>
       <c r="Q166" t="inlineStr">
         <is>
-          <t>자료 (분석) / 사람 (협의) / 사물 (정밀작업)</t>
+          <t>자료(분석) 사람(협의) 사물(정밀작업)</t>
         </is>
       </c>
       <c r="R166" t="inlineStr"/>
@@ -17085,24 +17081,24 @@
       <c r="W166" t="inlineStr"/>
       <c r="X166" t="inlineStr">
         <is>
-          <t>나노소재화학연구원, 나노물성화학연구원, 나노의약화학연구원, 무기나노화학연구원, 나노고분자화학연구원, 나노바이오화학연구원, 나노광화학연구원, 나노구조화학연구원</t>
+          <t>나노소재화학연구원 나노물성화학연구원 나노의약화학연구원 무기나노화학연구원 나노고분자화학연구원 나노바이오화학연구원 나노광화학연구원 나노구조화학연구원</t>
         </is>
       </c>
       <c r="Y166" t="inlineStr"/>
       <c r="Z166" t="inlineStr"/>
       <c r="AA166" t="inlineStr">
         <is>
-          <t>[1211]자연과학 연구원</t>
+          <t>2112</t>
         </is>
       </c>
       <c r="AB166" t="inlineStr">
         <is>
-          <t>[2112]자연과학 연구원</t>
+          <t>1211</t>
         </is>
       </c>
       <c r="AC166" t="inlineStr">
         <is>
-          <t>[M701]자연과학 및 공학 연구개발업</t>
+          <t>M701</t>
         </is>
       </c>
       <c r="AD166" t="inlineStr">
@@ -17173,7 +17169,7 @@
       <c r="P167" t="inlineStr"/>
       <c r="Q167" t="inlineStr">
         <is>
-          <t>자료 (종합) / 사람 (협의) / 사물 (정밀작업)</t>
+          <t>자료(종합) 사람(협의) 사물(정밀작업)</t>
         </is>
       </c>
       <c r="R167" t="inlineStr"/>
@@ -17199,17 +17195,17 @@
       <c r="Z167" t="inlineStr"/>
       <c r="AA167" t="inlineStr">
         <is>
-          <t>[1211]자연과학 연구원</t>
+          <t>2112</t>
         </is>
       </c>
       <c r="AB167" t="inlineStr">
         <is>
-          <t>[2112]자연과학 연구원</t>
+          <t>1211</t>
         </is>
       </c>
       <c r="AC167" t="inlineStr">
         <is>
-          <t>[D351]전기업</t>
+          <t>D351</t>
         </is>
       </c>
       <c r="AD167" t="inlineStr">
@@ -17280,7 +17276,7 @@
       <c r="P168" t="inlineStr"/>
       <c r="Q168" t="inlineStr">
         <is>
-          <t>자료 (분석) / 사람 (관련없음) / 사물 (정밀작업)</t>
+          <t>자료(분석) 사람(관련없음) 사물(정밀작업)</t>
         </is>
       </c>
       <c r="R168" t="inlineStr"/>
@@ -17302,17 +17298,17 @@
       <c r="Z168" t="inlineStr"/>
       <c r="AA168" t="inlineStr">
         <is>
-          <t>[1211]자연과학 연구원</t>
+          <t>2112</t>
         </is>
       </c>
       <c r="AB168" t="inlineStr">
         <is>
-          <t>[2112]자연과학 연구원</t>
+          <t>1211</t>
         </is>
       </c>
       <c r="AC168" t="inlineStr">
         <is>
-          <t>[M701]자연과학 및 공학 연구개발업</t>
+          <t>M701</t>
         </is>
       </c>
       <c r="AD168" t="inlineStr">
@@ -17383,7 +17379,7 @@
       <c r="P169" t="inlineStr"/>
       <c r="Q169" t="inlineStr">
         <is>
-          <t>자료 (종합) / 사람 (협의) / 사물 (정밀작업)</t>
+          <t>자료(종합) 사람(협의) 사물(정밀작업)</t>
         </is>
       </c>
       <c r="R169" t="inlineStr"/>
@@ -17415,17 +17411,17 @@
       <c r="Z169" t="inlineStr"/>
       <c r="AA169" t="inlineStr">
         <is>
-          <t>[1211]자연과학 연구원</t>
+          <t>2112</t>
         </is>
       </c>
       <c r="AB169" t="inlineStr">
         <is>
-          <t>[2112]자연과학 연구원</t>
+          <t>1211</t>
         </is>
       </c>
       <c r="AC169" t="inlineStr">
         <is>
-          <t>[M701]자연과학 및 공학 연구개발업</t>
+          <t>M701</t>
         </is>
       </c>
       <c r="AD169" t="inlineStr">
@@ -17496,7 +17492,7 @@
       <c r="P170" t="inlineStr"/>
       <c r="Q170" t="inlineStr">
         <is>
-          <t>자료 (종합) / 사람 (협의) / 사물 (정밀작업)</t>
+          <t>자료(종합) 사람(협의) 사물(정밀작업)</t>
         </is>
       </c>
       <c r="R170" t="inlineStr"/>
@@ -17519,24 +17515,24 @@
       <c r="W170" t="inlineStr"/>
       <c r="X170" t="inlineStr">
         <is>
-          <t>이론무기화학연구원, 무기초분자화학연구원, 유기금속화학연구원, 생무기화학연구원, 고체무기화학연구원, 무기소재화학연구원, 촉매화학연구원, 무기의약화학연구원</t>
+          <t>이론무기화학연구원 무기초분자화학연구원 유기금속화학연구원 생무기화학연구원 고체무기화학연구원 무기소재화학연구원 촉매화학연구원 무기의약화학연구원</t>
         </is>
       </c>
       <c r="Y170" t="inlineStr"/>
       <c r="Z170" t="inlineStr"/>
       <c r="AA170" t="inlineStr">
         <is>
-          <t>[1211]자연과학 연구원</t>
+          <t>2112</t>
         </is>
       </c>
       <c r="AB170" t="inlineStr">
         <is>
-          <t>[2112]자연과학 연구원</t>
+          <t>1211</t>
         </is>
       </c>
       <c r="AC170" t="inlineStr">
         <is>
-          <t>[M701]자연과학 및 공학 연구개발업</t>
+          <t>M701</t>
         </is>
       </c>
       <c r="AD170" t="inlineStr">
@@ -17607,7 +17603,7 @@
       <c r="P171" t="inlineStr"/>
       <c r="Q171" t="inlineStr">
         <is>
-          <t>자료 (종합) / 사람 (관련없음) / 사물 (정밀작업)</t>
+          <t>자료(종합) 사람(관련없음) 사물(정밀작업)</t>
         </is>
       </c>
       <c r="R171" t="inlineStr"/>
@@ -17629,17 +17625,17 @@
       <c r="Z171" t="inlineStr"/>
       <c r="AA171" t="inlineStr">
         <is>
-          <t>[1211]자연과학 연구원</t>
+          <t>2112</t>
         </is>
       </c>
       <c r="AB171" t="inlineStr">
         <is>
-          <t>[2112]자연과학 연구원</t>
+          <t>1211</t>
         </is>
       </c>
       <c r="AC171" t="inlineStr">
         <is>
-          <t>[M701]자연과학 및 공학 연구개발업</t>
+          <t>M701</t>
         </is>
       </c>
       <c r="AD171" t="inlineStr">
@@ -17710,7 +17706,7 @@
       <c r="P172" t="inlineStr"/>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>자료 (종합) / 사람 (관련없음) / 사물 (정밀작업)</t>
+          <t>자료(종합) 사람(관련없음) 사물(정밀작업)</t>
         </is>
       </c>
       <c r="R172" t="inlineStr"/>
@@ -17733,24 +17729,24 @@
       </c>
       <c r="X172" t="inlineStr">
         <is>
-          <t>광물리학연구원, 보건물리학연구원, 역학물리학연구원, 열물리학연구원, 음향물리학연구원, 전자물리학연구원, 핵물리학 연구원</t>
+          <t>광물리학연구원 보건물리학연구원 역학물리학연구원 열물리학연구원 음향물리학연구원 전자물리학연구원 핵물리학연구원</t>
         </is>
       </c>
       <c r="Y172" t="inlineStr"/>
       <c r="Z172" t="inlineStr"/>
       <c r="AA172" t="inlineStr">
         <is>
-          <t>[1211]자연과학 연구원</t>
+          <t>2112</t>
         </is>
       </c>
       <c r="AB172" t="inlineStr">
         <is>
-          <t>[2112]자연과학 연구원</t>
+          <t>1211</t>
         </is>
       </c>
       <c r="AC172" t="inlineStr">
         <is>
-          <t>[M701]자연과학 및 공학 연구개발업</t>
+          <t>M701</t>
         </is>
       </c>
       <c r="AD172" t="inlineStr">
@@ -17821,7 +17817,7 @@
       <c r="P173" t="inlineStr"/>
       <c r="Q173" t="inlineStr">
         <is>
-          <t>자료 (종합) / 사람 (협의) / 사물 (정밀작업)</t>
+          <t>자료(종합) 사람(협의) 사물(정밀작업)</t>
         </is>
       </c>
       <c r="R173" t="inlineStr"/>
@@ -17846,22 +17842,22 @@
       <c r="Y173" t="inlineStr"/>
       <c r="Z173" t="inlineStr">
         <is>
-          <t>방사성동위원소취급면허, 핵연료물질취급면허, 원자력기사, 방사선관리기술사</t>
+          <t>방사성동위원소취급면허 핵연료물질취급면허 원자력기사 방사선관리기술사</t>
         </is>
       </c>
       <c r="AA173" t="inlineStr">
         <is>
-          <t>[1211]자연과학 연구원</t>
+          <t>2112</t>
         </is>
       </c>
       <c r="AB173" t="inlineStr">
         <is>
-          <t>[2112]자연과학 연구원</t>
+          <t>1211</t>
         </is>
       </c>
       <c r="AC173" t="inlineStr">
         <is>
-          <t>[D351]전기업 / [M701]자연과학 및 공학 연구개발업</t>
+          <t>D351</t>
         </is>
       </c>
       <c r="AD173" t="inlineStr">
@@ -17932,7 +17928,7 @@
       <c r="P174" t="inlineStr"/>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>자료 (종합) / 사람 (자문) / 사물 (관련없음)</t>
+          <t>자료(종합) 사람(자문) 사물(관련없음)</t>
         </is>
       </c>
       <c r="R174" t="inlineStr"/>
@@ -17950,7 +17946,7 @@
       <c r="V174" t="inlineStr"/>
       <c r="W174" t="inlineStr">
         <is>
-          <t>수학모더레이터, 산업수학코디네이터, 산업수학컨설턴트</t>
+          <t>수학모더레이터 산업수학코디네이터 산업수학컨설턴트</t>
         </is>
       </c>
       <c r="X174" t="inlineStr"/>
@@ -17958,17 +17954,17 @@
       <c r="Z174" t="inlineStr"/>
       <c r="AA174" t="inlineStr">
         <is>
-          <t>[1211]자연과학 연구원</t>
+          <t>2112</t>
         </is>
       </c>
       <c r="AB174" t="inlineStr">
         <is>
-          <t>[2112]자연과학 연구원</t>
+          <t>1211</t>
         </is>
       </c>
       <c r="AC174" t="inlineStr">
         <is>
-          <t>[M701]자연과학 및 공학 연구개발업</t>
+          <t>M701</t>
         </is>
       </c>
       <c r="AD174" t="inlineStr">
@@ -18039,7 +18035,7 @@
       <c r="P175" t="inlineStr"/>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>자료 (종합) / 사람 (말하기-신호) / 사물 (정밀작업)</t>
+          <t>자료(종합) 사람(말하기-신호) 사물(정밀작업)</t>
         </is>
       </c>
       <c r="R175" t="inlineStr"/>
@@ -18058,24 +18054,24 @@
       <c r="W175" t="inlineStr"/>
       <c r="X175" t="inlineStr">
         <is>
-          <t>전문적으로 연구하는 분야에 따라 순수수학연구원, 응용수학연구원</t>
+          <t>전문적으로연구하는분야에따라순수수학연구원 응용수학연구원</t>
         </is>
       </c>
       <c r="Y175" t="inlineStr"/>
       <c r="Z175" t="inlineStr"/>
       <c r="AA175" t="inlineStr">
         <is>
-          <t>[1211]자연과학 연구원</t>
+          <t>2112</t>
         </is>
       </c>
       <c r="AB175" t="inlineStr">
         <is>
-          <t>[2112]자연과학 연구원</t>
+          <t>1211</t>
         </is>
       </c>
       <c r="AC175" t="inlineStr">
         <is>
-          <t>[M701]자연과학 및 공학 연구개발업</t>
+          <t>M701</t>
         </is>
       </c>
       <c r="AD175" t="inlineStr">
@@ -18146,7 +18142,7 @@
       <c r="P176" t="inlineStr"/>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>자료 (종합) / 사람 (말하기-신호) / 사물 (정밀작업)</t>
+          <t>자료(종합) 사람(말하기-신호) 사물(정밀작업)</t>
         </is>
       </c>
       <c r="R176" t="inlineStr"/>
@@ -18168,17 +18164,17 @@
       <c r="Z176" t="inlineStr"/>
       <c r="AA176" t="inlineStr">
         <is>
-          <t>[1211]자연과학 연구원</t>
+          <t>2112</t>
         </is>
       </c>
       <c r="AB176" t="inlineStr">
         <is>
-          <t>[2112]자연과학 연구원</t>
+          <t>1211</t>
         </is>
       </c>
       <c r="AC176" t="inlineStr">
         <is>
-          <t>[C]제조업</t>
+          <t>C</t>
         </is>
       </c>
       <c r="AD176" t="inlineStr">
@@ -18249,7 +18245,7 @@
       <c r="P177" t="inlineStr"/>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>자료 (종합) / 사람 (협의) / 사물 (정밀작업)</t>
+          <t>자료(종합) 사람(협의) 사물(정밀작업)</t>
         </is>
       </c>
       <c r="R177" t="inlineStr"/>
@@ -18271,17 +18267,17 @@
       <c r="Z177" t="inlineStr"/>
       <c r="AA177" t="inlineStr">
         <is>
-          <t>[1211]자연과학 연구원</t>
+          <t>2112</t>
         </is>
       </c>
       <c r="AB177" t="inlineStr">
         <is>
-          <t>[2112]자연과학 연구원</t>
+          <t>1211</t>
         </is>
       </c>
       <c r="AC177" t="inlineStr">
         <is>
-          <t>[M701]자연과학 및 공학 연구개발업</t>
+          <t>M701</t>
         </is>
       </c>
       <c r="AD177" t="inlineStr">
@@ -18352,7 +18348,7 @@
       <c r="P178" t="inlineStr"/>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>자료 (종합) / 사람 (협의) / 사물 (정밀작업)</t>
+          <t>자료(종합) 사람(협의) 사물(정밀작업)</t>
         </is>
       </c>
       <c r="R178" t="inlineStr"/>
@@ -18378,17 +18374,17 @@
       <c r="Z178" t="inlineStr"/>
       <c r="AA178" t="inlineStr">
         <is>
-          <t>[1211]자연과학 연구원</t>
+          <t>2112</t>
         </is>
       </c>
       <c r="AB178" t="inlineStr">
         <is>
-          <t>[2112]자연과학 연구원</t>
+          <t>1211</t>
         </is>
       </c>
       <c r="AC178" t="inlineStr">
         <is>
-          <t>[M701]자연과학 및 공학 연구개발업</t>
+          <t>M701</t>
         </is>
       </c>
       <c r="AD178" t="inlineStr">
@@ -18459,7 +18455,7 @@
       <c r="P179" t="inlineStr"/>
       <c r="Q179" t="inlineStr">
         <is>
-          <t>자료 (종합) / 사람 (협의) / 사물 (정밀작업)</t>
+          <t>자료(종합) 사람(협의) 사물(정밀작업)</t>
         </is>
       </c>
       <c r="R179" t="inlineStr"/>
@@ -18482,24 +18478,24 @@
       <c r="W179" t="inlineStr"/>
       <c r="X179" t="inlineStr">
         <is>
-          <t>유기물의 합성메카니즘 및 응용 등의 합성에 관해 연구하는 경우 유기합성연구원, 연구하는 분야에 따라 천연물화학연구원, 유기초분자화학연구원, 유기금속시약화학연구원, 생유기화학연구원, 유기재료화학연구원</t>
+          <t>유기물의합성메카니즘및응용등의합성에관해연구하는경우유기합성연구원 연구하는분야에따라천연물화학연구원 유기초분자화학연구원 유기금속시약화학연구원 생유기화학연구원 유기재료화학연구원</t>
         </is>
       </c>
       <c r="Y179" t="inlineStr"/>
       <c r="Z179" t="inlineStr"/>
       <c r="AA179" t="inlineStr">
         <is>
-          <t>[1211]자연과학 연구원</t>
+          <t>2112</t>
         </is>
       </c>
       <c r="AB179" t="inlineStr">
         <is>
-          <t>[2112]자연과학 연구원</t>
+          <t>1211</t>
         </is>
       </c>
       <c r="AC179" t="inlineStr">
         <is>
-          <t>[M701]자연과학 및 공학 연구개발업</t>
+          <t>M701</t>
         </is>
       </c>
       <c r="AD179" t="inlineStr">
@@ -18570,7 +18566,7 @@
       <c r="P180" t="inlineStr"/>
       <c r="Q180" t="inlineStr">
         <is>
-          <t>자료 (분석) / 사람 (협의) / 사물 (정밀작업)</t>
+          <t>자료(분석) 사람(협의) 사물(정밀작업)</t>
         </is>
       </c>
       <c r="R180" t="inlineStr"/>
@@ -18600,24 +18596,24 @@
       <c r="W180" t="inlineStr"/>
       <c r="X180" t="inlineStr">
         <is>
-          <t>환경화학연구원, 화학생물학연구원, 화학유전체학연구원, 화학정보학연구원, 계산화학연구원, 바이오칩연구원, 핵방사화학연구원</t>
+          <t>환경화학연구원 화학생물학연구원 화학유전체학연구원 화학정보학연구원 계산화학연구원 바이오칩연구원 핵방사화학연구원</t>
         </is>
       </c>
       <c r="Y180" t="inlineStr"/>
       <c r="Z180" t="inlineStr"/>
       <c r="AA180" t="inlineStr">
         <is>
-          <t>[1211]자연과학 연구원</t>
+          <t>2112</t>
         </is>
       </c>
       <c r="AB180" t="inlineStr">
         <is>
-          <t>[2112]자연과학 연구원</t>
+          <t>1211</t>
         </is>
       </c>
       <c r="AC180" t="inlineStr">
         <is>
-          <t>[M701]자연과학 및 공학 연구개발업</t>
+          <t>M701</t>
         </is>
       </c>
       <c r="AD180" t="inlineStr">
@@ -18688,7 +18684,7 @@
       <c r="P181" t="inlineStr"/>
       <c r="Q181" t="inlineStr">
         <is>
-          <t>자료 (분석) / 사람 (자문) / 사물 (관련없음)</t>
+          <t>자료(분석) 사람(자문) 사물(관련없음)</t>
         </is>
       </c>
       <c r="R181" t="inlineStr"/>
@@ -18707,24 +18703,24 @@
       <c r="W181" t="inlineStr"/>
       <c r="X181" t="inlineStr">
         <is>
-          <t>임상시험통계연구원, 의약통계연구원, 임상통계전문가</t>
+          <t>임상시험통계연구원 의약통계연구원 임상통계전문가</t>
         </is>
       </c>
       <c r="Y181" t="inlineStr"/>
       <c r="Z181" t="inlineStr"/>
       <c r="AA181" t="inlineStr">
         <is>
-          <t>[1211]자연과학 연구원</t>
+          <t>2112</t>
         </is>
       </c>
       <c r="AB181" t="inlineStr">
         <is>
-          <t>[2112]자연과학 연구원</t>
+          <t>1211</t>
         </is>
       </c>
       <c r="AC181" t="inlineStr">
         <is>
-          <t>[M701]자연과학 및 공학 연구개발업</t>
+          <t>M701</t>
         </is>
       </c>
       <c r="AD181" t="inlineStr">
@@ -18795,7 +18791,7 @@
       <c r="P182" t="inlineStr"/>
       <c r="Q182" t="inlineStr">
         <is>
-          <t>자료 (종합) / 사람 (협의) / 사물 (정밀작업)</t>
+          <t>자료(종합) 사람(협의) 사물(정밀작업)</t>
         </is>
       </c>
       <c r="R182" t="inlineStr"/>
@@ -18821,17 +18817,17 @@
       <c r="Z182" t="inlineStr"/>
       <c r="AA182" t="inlineStr">
         <is>
-          <t>[1211]자연과학 연구원</t>
+          <t>2112</t>
         </is>
       </c>
       <c r="AB182" t="inlineStr">
         <is>
-          <t>[2112]자연과학 연구원</t>
+          <t>1211</t>
         </is>
       </c>
       <c r="AC182" t="inlineStr">
         <is>
-          <t>[C201]기초 화학물질 제조업</t>
+          <t>C201</t>
         </is>
       </c>
       <c r="AD182" t="inlineStr">
@@ -18902,7 +18898,7 @@
       <c r="P183" t="inlineStr"/>
       <c r="Q183" t="inlineStr">
         <is>
-          <t>자료 (분석) / 사람 (협의) / 사물 (정밀작업)</t>
+          <t>자료(분석) 사람(협의) 사물(정밀작업)</t>
         </is>
       </c>
       <c r="R183" t="inlineStr"/>
@@ -18931,24 +18927,24 @@
       </c>
       <c r="X183" t="inlineStr">
         <is>
-          <t>감각정보처리연구원, 운동조절정보처리연구원, 학습기억정보처리연구원, 언어정보처리연구원, 고등사고정보처리연구원, 인지신경정보처리연구원, 응용인지과학연구원, 감성측정평가연구원, 감성심리생리연구원, 감성디자인콘텐츠연구원</t>
+          <t>감각정보처리연구원 운동조절정보처리연구원 학습기억정보처리연구원 언어정보처리연구원 고등사고정보처리연구원 인지신경정보처리연구원 응용인지과학연구원 감성측정평가연구원 감성심리생리연구원 감성디자인콘텐츠연구원</t>
         </is>
       </c>
       <c r="Y183" t="inlineStr"/>
       <c r="Z183" t="inlineStr"/>
       <c r="AA183" t="inlineStr">
         <is>
-          <t>[1211]자연과학 연구원</t>
+          <t>2112</t>
         </is>
       </c>
       <c r="AB183" t="inlineStr">
         <is>
-          <t>[2112]자연과학 연구원</t>
+          <t>1211</t>
         </is>
       </c>
       <c r="AC183" t="inlineStr">
         <is>
-          <t>[M701]자연과학 및 공학 연구개발업 / [M702]인문 및 사회과학 연구개발업</t>
+          <t>M701</t>
         </is>
       </c>
       <c r="AD183" t="inlineStr">
@@ -19019,7 +19015,7 @@
       <c r="P184" t="inlineStr"/>
       <c r="Q184" t="inlineStr">
         <is>
-          <t>자료 (종합) / 사람 (자문) / 사물 (제어조작)</t>
+          <t>자료(종합) 사람(자문) 사물(제어조작)</t>
         </is>
       </c>
       <c r="R184" t="inlineStr"/>
@@ -19041,7 +19037,7 @@
       <c r="V184" t="inlineStr"/>
       <c r="W184" t="inlineStr">
         <is>
-          <t>대안기술전문가, 중간기술전문가</t>
+          <t>대안기술전문가 중간기술전문가</t>
         </is>
       </c>
       <c r="X184" t="inlineStr"/>
@@ -19049,17 +19045,17 @@
       <c r="Z184" t="inlineStr"/>
       <c r="AA184" t="inlineStr">
         <is>
-          <t>[1211]자연과학 연구원</t>
+          <t>2112</t>
         </is>
       </c>
       <c r="AB184" t="inlineStr">
         <is>
-          <t>[2112]자연과학 연구원</t>
+          <t>1211</t>
         </is>
       </c>
       <c r="AC184" t="inlineStr">
         <is>
-          <t>[M701]자연과학 및 공학 연구개발업</t>
+          <t>M701</t>
         </is>
       </c>
       <c r="AD184" t="inlineStr">
@@ -19130,7 +19126,7 @@
       <c r="P185" t="inlineStr"/>
       <c r="Q185" t="inlineStr">
         <is>
-          <t>자료 (종합) / 사람 (말하기-신호) / 사물 (정밀작업)</t>
+          <t>자료(종합) 사람(말하기-신호) 사물(정밀작업)</t>
         </is>
       </c>
       <c r="R185" t="inlineStr"/>
@@ -19160,24 +19156,24 @@
       <c r="W185" t="inlineStr"/>
       <c r="X185" t="inlineStr">
         <is>
-          <t>물리전기화학연구원, 분석전기화학연구원, 분자전기화학연구원, 에너지변환저장전기화학연구원, 생전기화학연구원, 전기재료화학연구원</t>
+          <t>물리전기화학연구원 분석전기화학연구원 분자전기화학연구원 에너지변환저장전기화학연구원 생전기화학연구원 전기재료화학연구원</t>
         </is>
       </c>
       <c r="Y185" t="inlineStr"/>
       <c r="Z185" t="inlineStr"/>
       <c r="AA185" t="inlineStr">
         <is>
-          <t>[1211]자연과학 연구원</t>
+          <t>2112</t>
         </is>
       </c>
       <c r="AB185" t="inlineStr">
         <is>
-          <t>[2112]자연과학 연구원</t>
+          <t>1211</t>
         </is>
       </c>
       <c r="AC185" t="inlineStr">
         <is>
-          <t>[M701]자연과학 및 공학 연구개발업</t>
+          <t>M701</t>
         </is>
       </c>
       <c r="AD185" t="inlineStr">
@@ -19248,7 +19244,7 @@
       <c r="P186" t="inlineStr"/>
       <c r="Q186" t="inlineStr">
         <is>
-          <t>자료 (종합) / 사람 (말하기-신호) / 사물 (정밀작업)</t>
+          <t>자료(종합) 사람(말하기-신호) 사물(정밀작업)</t>
         </is>
       </c>
       <c r="R186" t="inlineStr"/>
@@ -19269,22 +19265,22 @@
       <c r="Y186" t="inlineStr"/>
       <c r="Z186" t="inlineStr">
         <is>
-          <t>전자계산기기사, 전자계산기제어산업기사</t>
+          <t>전자계산기기사 전자계산기제어산업기사</t>
         </is>
       </c>
       <c r="AA186" t="inlineStr">
         <is>
-          <t>[1211]자연과학 연구원</t>
+          <t>2112</t>
         </is>
       </c>
       <c r="AB186" t="inlineStr">
         <is>
-          <t>[2112]자연과학 연구원</t>
+          <t>1211</t>
         </is>
       </c>
       <c r="AC186" t="inlineStr">
         <is>
-          <t>[M701]자연과학 및 공학 연구개발업</t>
+          <t>M701</t>
         </is>
       </c>
       <c r="AD186" t="inlineStr">
@@ -19355,7 +19351,7 @@
       <c r="P187" t="inlineStr"/>
       <c r="Q187" t="inlineStr">
         <is>
-          <t>자료 (종합) / 사람 (말하기-신호) / 사물 (정밀작업)</t>
+          <t>자료(종합) 사람(말하기-신호) 사물(정밀작업)</t>
         </is>
       </c>
       <c r="R187" t="inlineStr"/>
@@ -19385,24 +19381,24 @@
       <c r="W187" t="inlineStr"/>
       <c r="X187" t="inlineStr">
         <is>
-          <t>지열연구원, 지진학연구원, 지전자기학연구원, 환경지구물리학연구원</t>
+          <t>지열연구원 지진학연구원 지전자기학연구원 환경지구물리학연구원</t>
         </is>
       </c>
       <c r="Y187" t="inlineStr"/>
       <c r="Z187" t="inlineStr"/>
       <c r="AA187" t="inlineStr">
         <is>
-          <t>[1211]자연과학 연구원</t>
+          <t>2112</t>
         </is>
       </c>
       <c r="AB187" t="inlineStr">
         <is>
-          <t>[2112]자연과학 연구원</t>
+          <t>1211</t>
         </is>
       </c>
       <c r="AC187" t="inlineStr">
         <is>
-          <t>[M701]자연과학 및 공학 연구개발업</t>
+          <t>M701</t>
         </is>
       </c>
       <c r="AD187" t="inlineStr">
@@ -19473,7 +19469,7 @@
       <c r="P188" t="inlineStr"/>
       <c r="Q188" t="inlineStr">
         <is>
-          <t>자료 (종합) / 사람 (말하기-신호) / 사물 (정밀작업)</t>
+          <t>자료(종합) 사람(말하기-신호) 사물(정밀작업)</t>
         </is>
       </c>
       <c r="R188" t="inlineStr"/>
@@ -19503,24 +19499,24 @@
       <c r="W188" t="inlineStr"/>
       <c r="X188" t="inlineStr">
         <is>
-          <t>지구연대학연구원, 지하유체지구화학연구원, 환경지구화학연구원</t>
+          <t>지구연대학연구원 지하유체지구화학연구원 환경지구화학연구원</t>
         </is>
       </c>
       <c r="Y188" t="inlineStr"/>
       <c r="Z188" t="inlineStr"/>
       <c r="AA188" t="inlineStr">
         <is>
-          <t>[1211]자연과학 연구원</t>
+          <t>2112</t>
         </is>
       </c>
       <c r="AB188" t="inlineStr">
         <is>
-          <t>[2112]자연과학 연구원</t>
+          <t>1211</t>
         </is>
       </c>
       <c r="AC188" t="inlineStr">
         <is>
-          <t>[M701]자연과학 및 공학 연구개발업</t>
+          <t>M701</t>
         </is>
       </c>
       <c r="AD188" t="inlineStr">
@@ -19591,7 +19587,7 @@
       <c r="P189" t="inlineStr"/>
       <c r="Q189" t="inlineStr">
         <is>
-          <t>자료 (종합) / 사람 (말하기-신호) / 사물 (정밀작업)</t>
+          <t>자료(종합) 사람(말하기-신호) 사물(정밀작업)</t>
         </is>
       </c>
       <c r="R189" t="inlineStr"/>
@@ -19615,24 +19611,24 @@
       <c r="W189" t="inlineStr"/>
       <c r="X189" t="inlineStr">
         <is>
-          <t>지질기반정보연구원, 지하수지열연구원, 지질환경재해연구원, 지반안전연구원, 석유해저자원연구원, 자원활용소재연구원</t>
+          <t>지질기반정보연구원 지하수지열연구원 지질환경재해연구원 지반안전연구원 석유해저자원연구원 자원활용소재연구원</t>
         </is>
       </c>
       <c r="Y189" t="inlineStr"/>
       <c r="Z189" t="inlineStr"/>
       <c r="AA189" t="inlineStr">
         <is>
-          <t>[1211]자연과학 연구원</t>
+          <t>2112</t>
         </is>
       </c>
       <c r="AB189" t="inlineStr">
         <is>
-          <t>[2112]자연과학 연구원</t>
+          <t>1211</t>
         </is>
       </c>
       <c r="AC189" t="inlineStr">
         <is>
-          <t>[M701]자연과학 및 공학 연구개발업</t>
+          <t>M701</t>
         </is>
       </c>
       <c r="AD189" t="inlineStr">
@@ -19703,7 +19699,7 @@
       <c r="P190" t="inlineStr"/>
       <c r="Q190" t="inlineStr">
         <is>
-          <t>자료 (종합) / 사람 (말하기-신호) / 사물 (정밀작업)</t>
+          <t>자료(종합) 사람(말하기-신호) 사물(정밀작업)</t>
         </is>
       </c>
       <c r="R190" t="inlineStr"/>
@@ -19733,24 +19729,24 @@
       <c r="W190" t="inlineStr"/>
       <c r="X190" t="inlineStr">
         <is>
-          <t>광물학연구원, 암석학연구원, 광상연구원, 자원지질학연구원, 구조지질학연구원, 응용지질학연구원, 지질공학연구원</t>
+          <t>광물학연구원 암석학연구원 광상연구원 자원지질학연구원 구조지질학연구원 응용지질학연구원 지질공학연구원</t>
         </is>
       </c>
       <c r="Y190" t="inlineStr"/>
       <c r="Z190" t="inlineStr"/>
       <c r="AA190" t="inlineStr">
         <is>
-          <t>[1211]자연과학 연구원</t>
+          <t>2112</t>
         </is>
       </c>
       <c r="AB190" t="inlineStr">
         <is>
-          <t>[2112]자연과학 연구원</t>
+          <t>1211</t>
         </is>
       </c>
       <c r="AC190" t="inlineStr">
         <is>
-          <t>[M701]자연과학 및 공학 연구개발업</t>
+          <t>M701</t>
         </is>
       </c>
       <c r="AD190" t="inlineStr">
@@ -19821,7 +19817,7 @@
       <c r="P191" t="inlineStr"/>
       <c r="Q191" t="inlineStr">
         <is>
-          <t>자료 (종합) / 사람 (말하기-신호) / 사물 (정밀작업)</t>
+          <t>자료(종합) 사람(말하기-신호) 사물(정밀작업)</t>
         </is>
       </c>
       <c r="R191" t="inlineStr"/>
@@ -19840,24 +19836,24 @@
       <c r="W191" t="inlineStr"/>
       <c r="X191" t="inlineStr">
         <is>
-          <t>광학천문연구원, 전파천문연구원, 우주과학연구원, 응용천문연구원</t>
+          <t>광학천문연구원 전파천문연구원 우주과학연구원 응용천문연구원</t>
         </is>
       </c>
       <c r="Y191" t="inlineStr"/>
       <c r="Z191" t="inlineStr"/>
       <c r="AA191" t="inlineStr">
         <is>
-          <t>[1211]자연과학 연구원</t>
+          <t>2112</t>
         </is>
       </c>
       <c r="AB191" t="inlineStr">
         <is>
-          <t>[2112]자연과학 연구원</t>
+          <t>1211</t>
         </is>
       </c>
       <c r="AC191" t="inlineStr">
         <is>
-          <t>[M701]자연과학 및 공학 연구개발업</t>
+          <t>M701</t>
         </is>
       </c>
       <c r="AD191" t="inlineStr">
@@ -19928,7 +19924,7 @@
       <c r="P192" t="inlineStr"/>
       <c r="Q192" t="inlineStr">
         <is>
-          <t>자료 (분석) / 사람 (협의) / 사물 (정밀작업)</t>
+          <t>자료(분석) 사람(협의) 사물(정밀작업)</t>
         </is>
       </c>
       <c r="R192" t="inlineStr"/>
@@ -19957,24 +19953,24 @@
       <c r="W192" t="inlineStr"/>
       <c r="X192" t="inlineStr">
         <is>
-          <t>물리기계측정표준연구원, 전자기측정표준연구원, 광응용측정표준연구원, 삶의질측정표준연구원, 융합기술측정표준연구원, 교정시험평가연구원, 인증표준물질연구원</t>
+          <t>물리기계측정표준연구원 전자기측정표준연구원 광응용측정표준연구원 삶의질측정표준연구원 융합기술측정표준연구원 교정시험평가연구원 인증표준물질연구원</t>
         </is>
       </c>
       <c r="Y192" t="inlineStr"/>
       <c r="Z192" t="inlineStr"/>
       <c r="AA192" t="inlineStr">
         <is>
-          <t>[1211]자연과학 연구원</t>
+          <t>2112</t>
         </is>
       </c>
       <c r="AB192" t="inlineStr">
         <is>
-          <t>[2112]자연과학 연구원</t>
+          <t>1211</t>
         </is>
       </c>
       <c r="AC192" t="inlineStr">
         <is>
-          <t>[M701]자연과학 및 공학 연구개발업</t>
+          <t>M701</t>
         </is>
       </c>
       <c r="AD192" t="inlineStr">
@@ -20045,7 +20041,7 @@
       <c r="P193" t="inlineStr"/>
       <c r="Q193" t="inlineStr">
         <is>
-          <t>자료 (종합) / 사람 (말하기-신호) / 사물 (정밀작업)</t>
+          <t>자료(종합) 사람(말하기-신호) 사물(정밀작업)</t>
         </is>
       </c>
       <c r="R193" t="inlineStr"/>
@@ -20064,24 +20060,24 @@
       <c r="W193" t="inlineStr"/>
       <c r="X193" t="inlineStr">
         <is>
-          <t>전문분야에 따라 분석통계학연구원, 사회통계학연구원, 수리통계학연구원, 인구통계학연구원, 자연과학통계학연구원, 임상통계연구원</t>
+          <t>전문분야에따라분석통계학연구원 사회통계학연구원 수리통계학연구원 인구통계학연구원 자연과학통계학연구원 임상통계연구원</t>
         </is>
       </c>
       <c r="Y193" t="inlineStr"/>
       <c r="Z193" t="inlineStr"/>
       <c r="AA193" t="inlineStr">
         <is>
-          <t>[1211]자연과학 연구원</t>
+          <t>2112</t>
         </is>
       </c>
       <c r="AB193" t="inlineStr">
         <is>
-          <t>[2112]자연과학 연구원</t>
+          <t>1211</t>
         </is>
       </c>
       <c r="AC193" t="inlineStr">
         <is>
-          <t>[M701]자연과학 및 공학 연구개발업</t>
+          <t>M701</t>
         </is>
       </c>
       <c r="AD193" t="inlineStr">
@@ -20152,7 +20148,7 @@
       <c r="P194" t="inlineStr"/>
       <c r="Q194" t="inlineStr">
         <is>
-          <t>자료 (분석) / 사람 (자문) / 사물 (제어조작)</t>
+          <t>자료(분석) 사람(자문) 사물(제어조작)</t>
         </is>
       </c>
       <c r="R194" t="inlineStr"/>
@@ -20177,22 +20173,22 @@
       <c r="Y194" t="inlineStr"/>
       <c r="Z194" t="inlineStr">
         <is>
-          <t>기상예보기술사, 기상기사, 기상감정기사</t>
+          <t>기상예보기술사 기상기사 기상감정기사</t>
         </is>
       </c>
       <c r="AA194" t="inlineStr">
         <is>
-          <t>[1211]자연과학 연구원</t>
+          <t>2112</t>
         </is>
       </c>
       <c r="AB194" t="inlineStr">
         <is>
-          <t>[2112]자연과학 연구원</t>
+          <t>1211</t>
         </is>
       </c>
       <c r="AC194" t="inlineStr">
         <is>
-          <t>[O841]입법 및 일반 정부 행정</t>
+          <t>O841</t>
         </is>
       </c>
       <c r="AD194" t="inlineStr">
@@ -20263,7 +20259,7 @@
       <c r="P195" t="inlineStr"/>
       <c r="Q195" t="inlineStr">
         <is>
-          <t>자료 (분석) / 사람 (관련없음) / 사물 (정밀작업)</t>
+          <t>자료(분석) 사람(관련없음) 사물(정밀작업)</t>
         </is>
       </c>
       <c r="R195" t="inlineStr"/>
@@ -20285,17 +20281,17 @@
       <c r="Z195" t="inlineStr"/>
       <c r="AA195" t="inlineStr">
         <is>
-          <t>[1211]자연과학 연구원</t>
+          <t>2112</t>
         </is>
       </c>
       <c r="AB195" t="inlineStr">
         <is>
-          <t>[2112]자연과학 연구원</t>
+          <t>1211</t>
         </is>
       </c>
       <c r="AC195" t="inlineStr">
         <is>
-          <t>[D351]전기업</t>
+          <t>D351</t>
         </is>
       </c>
       <c r="AD195" t="inlineStr">
@@ -20366,7 +20362,7 @@
       <c r="P196" t="inlineStr"/>
       <c r="Q196" t="inlineStr">
         <is>
-          <t>자료 (종합) / 사람 (말하기-신호) / 사물 (정밀작업)</t>
+          <t>자료(종합) 사람(말하기-신호) 사물(정밀작업)</t>
         </is>
       </c>
       <c r="R196" t="inlineStr"/>
@@ -20393,24 +20389,24 @@
       </c>
       <c r="X196" t="inlineStr">
         <is>
-          <t>연구분야에 따라 해양공학연구원, 해양물리연구원, 해양생물연구원, 해양정책연구원, 해양지질연구원, 해양화학연구원</t>
+          <t>연구분야에따라해양공학연구원 해양물리연구원 해양생물연구원 해양정책연구원 해양지질연구원 해양화학연구원</t>
         </is>
       </c>
       <c r="Y196" t="inlineStr"/>
       <c r="Z196" t="inlineStr"/>
       <c r="AA196" t="inlineStr">
         <is>
-          <t>[1211]자연과학 연구원</t>
+          <t>2112</t>
         </is>
       </c>
       <c r="AB196" t="inlineStr">
         <is>
-          <t>[2112]자연과학 연구원</t>
+          <t>1211</t>
         </is>
       </c>
       <c r="AC196" t="inlineStr">
         <is>
-          <t>[M701]자연과학 및 공학 연구개발업</t>
+          <t>M701</t>
         </is>
       </c>
       <c r="AD196" t="inlineStr">
@@ -20481,7 +20477,7 @@
       <c r="P197" t="inlineStr"/>
       <c r="Q197" t="inlineStr">
         <is>
-          <t>자료 (종합) / 사람 (말하기-신호) / 사물 (정밀작업)</t>
+          <t>자료(종합) 사람(말하기-신호) 사물(정밀작업)</t>
         </is>
       </c>
       <c r="R197" t="inlineStr"/>
@@ -20508,17 +20504,17 @@
       <c r="Z197" t="inlineStr"/>
       <c r="AA197" t="inlineStr">
         <is>
-          <t>[1211]자연과학 연구원</t>
+          <t>2112</t>
         </is>
       </c>
       <c r="AB197" t="inlineStr">
         <is>
-          <t>[2112]자연과학 연구원</t>
+          <t>1211</t>
         </is>
       </c>
       <c r="AC197" t="inlineStr">
         <is>
-          <t>[M701]자연과학 및 공학 연구개발업</t>
+          <t>M701</t>
         </is>
       </c>
       <c r="AD197" t="inlineStr">
@@ -20589,7 +20585,7 @@
       <c r="P198" t="inlineStr"/>
       <c r="Q198" t="inlineStr">
         <is>
-          <t>자료 (종합) / 사람 (말하기-신호) / 사물 (정밀작업)</t>
+          <t>자료(종합) 사람(말하기-신호) 사물(정밀작업)</t>
         </is>
       </c>
       <c r="R198" t="inlineStr"/>
@@ -20612,28 +20608,28 @@
       <c r="W198" t="inlineStr"/>
       <c r="X198" t="inlineStr">
         <is>
-          <t>핵연료설계기술연구원, 핵연료제조기술연구원, 원자력재료개발기술연구원, 원자력재료성능검증평가연구원</t>
+          <t>핵연료설계기술연구원 핵연료제조기술연구원 원자력재료개발기술연구원 원자력재료성능검증평가연구원</t>
         </is>
       </c>
       <c r="Y198" t="inlineStr"/>
       <c r="Z198" t="inlineStr">
         <is>
-          <t>핵연료물질취급면허(감독자, 취급자)</t>
+          <t>핵연료물질취급면허(감독자 취급자)</t>
         </is>
       </c>
       <c r="AA198" t="inlineStr">
         <is>
-          <t>[1211]자연과학 연구원</t>
+          <t>2112</t>
         </is>
       </c>
       <c r="AB198" t="inlineStr">
         <is>
-          <t>[2112]자연과학 연구원</t>
+          <t>1211</t>
         </is>
       </c>
       <c r="AC198" t="inlineStr">
         <is>
-          <t>[C201]기초 화학물질 제조업</t>
+          <t>C201</t>
         </is>
       </c>
       <c r="AD198" t="inlineStr">
@@ -20704,7 +20700,7 @@
       <c r="P199" t="inlineStr"/>
       <c r="Q199" t="inlineStr">
         <is>
-          <t>자료 (종합) / 사람 (말하기-신호) / 사물 (정밀작업)</t>
+          <t>자료(종합) 사람(말하기-신호) 사물(정밀작업)</t>
         </is>
       </c>
       <c r="R199" t="inlineStr"/>
@@ -20730,17 +20726,17 @@
       <c r="Z199" t="inlineStr"/>
       <c r="AA199" t="inlineStr">
         <is>
-          <t>[1211]자연과학 연구원</t>
+          <t>2112</t>
         </is>
       </c>
       <c r="AB199" t="inlineStr">
         <is>
-          <t>[2112]자연과학 연구원</t>
+          <t>1211</t>
         </is>
       </c>
       <c r="AC199" t="inlineStr">
         <is>
-          <t>[C201]기초 화학물질 제조업</t>
+          <t>C201</t>
         </is>
       </c>
       <c r="AD199" t="inlineStr">
@@ -20811,7 +20807,7 @@
       <c r="P200" t="inlineStr"/>
       <c r="Q200" t="inlineStr">
         <is>
-          <t>자료 (종합) / 사람 (말하기-신호) / 사물 (정밀작업)</t>
+          <t>자료(종합) 사람(말하기-신호) 사물(정밀작업)</t>
         </is>
       </c>
       <c r="R200" t="inlineStr"/>
@@ -20829,7 +20825,7 @@
       <c r="V200" t="inlineStr"/>
       <c r="W200" t="inlineStr">
         <is>
-          <t>분자설계전문가, 분자모델링전문가</t>
+          <t>분자설계전문가 분자모델링전문가</t>
         </is>
       </c>
       <c r="X200" t="inlineStr"/>
@@ -20837,17 +20833,17 @@
       <c r="Z200" t="inlineStr"/>
       <c r="AA200" t="inlineStr">
         <is>
-          <t>[1211]자연과학 연구원</t>
+          <t>2112</t>
         </is>
       </c>
       <c r="AB200" t="inlineStr">
         <is>
-          <t>[2112]자연과학 연구원</t>
+          <t>1211</t>
         </is>
       </c>
       <c r="AC200" t="inlineStr">
         <is>
-          <t>[M701]자연과학 및 공학 연구개발업 / [C212]의약품 제조업</t>
+          <t>M701</t>
         </is>
       </c>
       <c r="AD200" t="inlineStr">
@@ -20918,7 +20914,7 @@
       <c r="P201" t="inlineStr"/>
       <c r="Q201" t="inlineStr">
         <is>
-          <t>자료 (조정) / 사람 (감독) / 사물 (관련없음)</t>
+          <t>자료(조정) 사람(감독) 사물(관련없음)</t>
         </is>
       </c>
       <c r="R201" t="inlineStr"/>
@@ -20948,17 +20944,17 @@
       <c r="Z201" t="inlineStr"/>
       <c r="AA201" t="inlineStr">
         <is>
-          <t>[5221]항공기 객실승무원</t>
+          <t>4311</t>
         </is>
       </c>
       <c r="AB201" t="inlineStr">
         <is>
-          <t>[4311]항공기 객실 승무원</t>
+          <t>5221</t>
         </is>
       </c>
       <c r="AC201" t="inlineStr">
         <is>
-          <t>[H511]항공 여객 운송업 / [H512]항공 화물 운송업</t>
+          <t>H511</t>
         </is>
       </c>
       <c r="AD201" t="inlineStr">
@@ -21029,7 +21025,7 @@
       <c r="P202" t="inlineStr"/>
       <c r="Q202" t="inlineStr">
         <is>
-          <t>자료 (비교) / 사람 (서비스 제공) / 사물 (관련없음)</t>
+          <t>자료(비교) 사람(서비스제공) 사물(관련없음)</t>
         </is>
       </c>
       <c r="R202" t="inlineStr"/>
@@ -21056,24 +21052,24 @@
       <c r="W202" t="inlineStr"/>
       <c r="X202" t="inlineStr">
         <is>
-          <t>스튜어디스, 스튜어드</t>
+          <t>스튜어디스 스튜어드</t>
         </is>
       </c>
       <c r="Y202" t="inlineStr"/>
       <c r="Z202" t="inlineStr"/>
       <c r="AA202" t="inlineStr">
         <is>
-          <t>[5221]항공기 객실승무원</t>
+          <t>4311</t>
         </is>
       </c>
       <c r="AB202" t="inlineStr">
         <is>
-          <t>[4311]항공기 객실 승무원</t>
+          <t>5221</t>
         </is>
       </c>
       <c r="AC202" t="inlineStr">
         <is>
-          <t>[H511]항공 여객 운송업 / [H512]항공 화물 운송업</t>
+          <t>H511</t>
         </is>
       </c>
       <c r="AD202" t="inlineStr">
